--- a/absconbest_payroll/absconbest_payroll.xlsx
+++ b/absconbest_payroll/absconbest_payroll.xlsx
@@ -811,9 +811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>616320</xdr:colOff>
+      <xdr:colOff>615960</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -826,8 +826,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11978640" y="0"/>
-          <a:ext cx="1267560" cy="233640"/>
+          <a:off x="11788200" y="0"/>
+          <a:ext cx="1257840" cy="233280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -849,36 +849,36 @@
   </sheetPr>
   <dimension ref="1:81"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="5.26530612244898"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="29.6071428571429"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="6.75"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="29.1581632653061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="6.61224489795918"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="22.9489795918367"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="37" min="23" style="2" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="2" width="6.75"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="37" min="23" style="2" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="2" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4924,17 +4924,17 @@
   </sheetPr>
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="99.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="82.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="98.0051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="81.265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/absconbest_payroll/absconbest_payroll.xlsx
+++ b/absconbest_payroll/absconbest_payroll.xlsx
@@ -811,9 +811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>615960</xdr:colOff>
+      <xdr:colOff>616320</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -826,8 +826,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11788200" y="0"/>
-          <a:ext cx="1257840" cy="233280"/>
+          <a:off x="11978640" y="0"/>
+          <a:ext cx="1267560" cy="233640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -849,36 +849,36 @@
   </sheetPr>
   <dimension ref="1:81"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="5.26530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="5.39795918367347"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="29.1581632653061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="29.6071428571429"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="6.75"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="23.3520408163265"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="37" min="23" style="2" width="6.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="2" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="37" min="23" style="2" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="2" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4924,17 +4924,17 @@
   </sheetPr>
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="98.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="81.265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="99.0816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="82.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/absconbest_payroll/absconbest_payroll.xlsx
+++ b/absconbest_payroll/absconbest_payroll.xlsx
@@ -811,9 +811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>616320</xdr:colOff>
+      <xdr:colOff>511200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -826,8 +826,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11978640" y="0"/>
-          <a:ext cx="1267560" cy="233640"/>
+          <a:off x="11788200" y="0"/>
+          <a:ext cx="1257840" cy="233280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -850,35 +850,35 @@
   <dimension ref="1:81"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="5.26530612244898"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="29.6071428571429"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="6.75"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="29.1581632653061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="8.10204081632653"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="22.9489795918367"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="37" min="23" style="2" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="2" width="6.75"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="37" min="23" style="2" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="2" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2906,7 +2906,7 @@
       <c r="M32" s="56"/>
       <c r="N32" s="56" t="n">
         <f aca="true">TODAY()</f>
-        <v>42807</v>
+        <v>42808</v>
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="47" t="s">
@@ -4930,11 +4930,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="99.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="82.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="98.0051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="81.265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/absconbest_payroll/absconbest_payroll.xlsx
+++ b/absconbest_payroll/absconbest_payroll.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t xml:space="preserve">Activity</t>
   </si>
@@ -86,9 +86,6 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Ethan Amir</t>
-  </si>
-  <si>
     <t xml:space="preserve">Title</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t xml:space="preserve">Unrecorded</t>
   </si>
   <si>
-    <t xml:space="preserve">“TIM”</t>
-  </si>
-  <si>
     <t xml:space="preserve">Time in minutes</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
   </si>
   <si>
     <t xml:space="preserve">Work Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“TIH”</t>
   </si>
   <si>
     <t xml:space="preserve">Time in hours</t>
@@ -807,16 +798,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>384120</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>55080</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>326520</xdr:colOff>
+      <xdr:colOff>483120</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -829,8 +820,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11772720" y="0"/>
-          <a:ext cx="1237680" cy="232560"/>
+          <a:off x="11880360" y="0"/>
+          <a:ext cx="1218600" cy="232200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -853,35 +844,34 @@
   <dimension ref="1:81"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="6.24489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.7142857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.66836734693878"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.25"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.75"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.969387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="15.2551020408163"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="29.5612244897959"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="29.8673469387755"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="7.69387755102041"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="22.1377551020408"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="37" min="23" style="2" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="2" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="37" min="23" style="2" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="2" width="6.20918367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2518,8 +2508,9 @@
       <c r="M26" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="39" t="s">
-        <v>21</v>
+      <c r="N26" s="39" t="str">
+        <f aca="false">"Ethan Amir"</f>
+        <v>Ethan Amir</v>
       </c>
       <c r="O26" s="30"/>
       <c r="P26" s="11"/>
@@ -2581,20 +2572,20 @@
       </c>
       <c r="L27" s="36"/>
       <c r="M27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="39" t="s">
         <v>22</v>
-      </c>
-      <c r="N27" s="39" t="s">
-        <v>23</v>
       </c>
       <c r="O27" s="30"/>
       <c r="P27" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="41" t="s">
+      <c r="R27" s="40" t="s">
         <v>25</v>
-      </c>
-      <c r="R27" s="40" t="s">
-        <v>26</v>
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="15"/>
@@ -2652,20 +2643,20 @@
       </c>
       <c r="L28" s="36"/>
       <c r="M28" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="39" t="s">
         <v>27</v>
-      </c>
-      <c r="N28" s="39" t="s">
-        <v>28</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28" s="43" t="s">
         <v>29</v>
-      </c>
-      <c r="Q28" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="R28" s="43" t="s">
-        <v>30</v>
       </c>
       <c r="S28" s="14"/>
       <c r="T28" s="15"/>
@@ -2723,7 +2714,7 @@
       </c>
       <c r="L29" s="36"/>
       <c r="M29" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N29" s="44" t="n">
         <f aca="false">DATE(1998,9,22)</f>
@@ -2731,13 +2722,13 @@
       </c>
       <c r="O29" s="30"/>
       <c r="P29" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q29" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="45" t="s">
         <v>29</v>
-      </c>
-      <c r="Q29" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="R29" s="45" t="s">
-        <v>30</v>
       </c>
       <c r="S29" s="14"/>
       <c r="T29" s="15"/>
@@ -2884,7 +2875,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="53" t="n">
         <f aca="false">1440-B33</f>
@@ -2924,17 +2915,17 @@
       <c r="M32" s="56"/>
       <c r="N32" s="56" t="n">
         <f aca="true">TODAY()</f>
-        <v>42809</v>
+        <v>42810</v>
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="47" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R32" s="47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S32" s="50"/>
       <c r="T32" s="51"/>
@@ -2947,7 +2938,7 @@
       <c r="AA32" s="51"/>
       <c r="AB32" s="15"/>
       <c r="AC32" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD32" s="13"/>
       <c r="AE32" s="13"/>
@@ -2961,7 +2952,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" s="53" t="n">
         <f aca="false">SUM(B2:B31)</f>
@@ -2984,7 +2975,7 @@
         <v>0.88125</v>
       </c>
       <c r="G33" s="58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H33" s="58" t="n">
         <f aca="false">SUM(H2:H32)</f>
@@ -3003,7 +2994,7 @@
         <v>542.916666666666</v>
       </c>
       <c r="L33" s="59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M33" s="60"/>
       <c r="N33" s="60" t="str">
@@ -3011,14 +3002,15 @@
         <v>Today is a weekday</v>
       </c>
       <c r="O33" s="11"/>
-      <c r="P33" s="47" t="s">
-        <v>38</v>
+      <c r="P33" s="47" t="str">
+        <f aca="false">"TIH"</f>
+        <v>TIH</v>
       </c>
       <c r="Q33" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R33" s="47" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S33" s="50"/>
       <c r="T33" s="51"/>
@@ -4948,23 +4940,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="95.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="79.3775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="94.6275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="78.5663265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="71" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="72"/>
       <c r="E1" s="72"/>
@@ -4995,10 +4987,10 @@
         <v>42303</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="72"/>
@@ -5029,10 +5021,10 @@
         <v>42304</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3" s="72"/>
       <c r="E3" s="72"/>
@@ -5063,7 +5055,7 @@
         <v>42305</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="75"/>
       <c r="D4" s="72"/>
@@ -5095,10 +5087,10 @@
         <v>42324</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
@@ -5129,7 +5121,7 @@
         <v>42325</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
@@ -5161,10 +5153,10 @@
         <v>42327</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
@@ -5195,7 +5187,7 @@
         <v>42352</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
@@ -5227,10 +5219,10 @@
         <v>42352</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="72"/>
       <c r="E9" s="72"/>
@@ -5261,7 +5253,7 @@
         <v>42356</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="72"/>
       <c r="D10" s="72"/>
@@ -5293,10 +5285,10 @@
         <v>42435</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" s="72"/>
       <c r="E11" s="72"/>
@@ -5327,10 +5319,10 @@
         <v>42703</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="72" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="72"/>
@@ -5359,7 +5351,7 @@
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="72"/>
       <c r="B13" s="77" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="72"/>
       <c r="D13" s="72"/>

--- a/absconbest_payroll/absconbest_payroll.xlsx
+++ b/absconbest_payroll/absconbest_payroll.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t xml:space="preserve">Activity</t>
   </si>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">The event is expected to reduce errors in the future somehow.</t>
   </si>
   <si>
-    <t xml:space="preserve">The 'TIM' and 'TIM' are added for the time excluding sleeping and that excluding sleeping and school. </t>
+    <t xml:space="preserve">The 'TIM' and 'TIM' are added for the time excluding sleeping and that excluding sleeping and work. </t>
   </si>
   <si>
     <t xml:space="preserve">Something I cannot remember happened.</t>
@@ -176,15 +176,9 @@
     <t xml:space="preserve">The graph is removed because it is thought to be useless.</t>
   </si>
   <si>
-    <t xml:space="preserve">My Possibilities' are added.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Good improvement. http://www.bbc.com/future/story/20120410-a-matter-of-life-and-death</t>
   </si>
   <si>
-    <t xml:space="preserve">The maximum number of the row is reduced to 33 for Nexus 10.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The time of my life relative to 12 hours is added.</t>
   </si>
   <si>
@@ -192,12 +186,6 @@
   </si>
   <si>
     <t xml:space="preserve">After not using this for months, I realized I better use this throughout my life.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning computer science can be best done with developing this. With Python, this can be automated and improved.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://superuser.com/questions/246979/how-do-you-auto-resize-cells-in-excel</t>
   </si>
 </sst>
 </file>
@@ -213,7 +201,7 @@
     <numFmt numFmtId="169" formatCode="MMM\ D&quot;, &quot;YYYY"/>
     <numFmt numFmtId="170" formatCode="M/D/YYYY"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -324,14 +312,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -380,7 +360,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -404,11 +384,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -717,19 +694,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -755,7 +727,7 @@
       <rgbColor rgb="FFCFE7F5"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFD9E2F3"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -805,9 +777,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>483120</xdr:colOff>
+      <xdr:colOff>482760</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -820,8 +792,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11880360" y="0"/>
-          <a:ext cx="1218600" cy="232200"/>
+          <a:off x="11703960" y="0"/>
+          <a:ext cx="1208880" cy="231840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -843,35 +815,35 @@
   </sheetPr>
   <dimension ref="1:81"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.25"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.75"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.969387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="15.1173469387755"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="29.8673469387755"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="6.75"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="7.56122448979592"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.8673469387755"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="37" min="23" style="2" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="2" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="37" min="23" style="2" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="2" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2915,7 +2887,7 @@
       <c r="M32" s="56"/>
       <c r="N32" s="56" t="n">
         <f aca="true">TODAY()</f>
-        <v>42810</v>
+        <v>42814</v>
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="47" t="s">
@@ -4932,20 +4904,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="94.6275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="78.5663265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="107.540816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="131.760204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5218,11 +5189,9 @@
       <c r="A9" s="76" t="n">
         <v>42352</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>52</v>
       </c>
       <c r="D9" s="72"/>
       <c r="E9" s="72"/>
@@ -5250,12 +5219,14 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="76" t="n">
-        <v>42356</v>
+        <v>42435</v>
       </c>
       <c r="B10" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="72"/>
       <c r="D10" s="72"/>
       <c r="E10" s="72"/>
       <c r="F10" s="72"/>
@@ -5282,14 +5253,12 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="76" t="n">
-        <v>42435</v>
+        <v>42703</v>
       </c>
       <c r="B11" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="72" t="s">
-        <v>55</v>
-      </c>
+      <c r="C11" s="72"/>
       <c r="D11" s="72"/>
       <c r="E11" s="72"/>
       <c r="F11" s="72"/>
@@ -5314,74 +5283,7 @@
       <c r="Y11" s="72"/>
       <c r="Z11" s="72"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="76" t="n">
-        <v>42703</v>
-      </c>
-      <c r="B12" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="72"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="72"/>
-      <c r="B13" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="72"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" display="http://superuser.com/questions/246979/how-do-you-auto-resize-cells-in-excel"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/absconbest_payroll/absconbest_payroll.xlsx
+++ b/absconbest_payroll/absconbest_payroll.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Raw" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Record" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="main" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="schedule" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="record" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="161">
   <si>
     <t xml:space="preserve">Activity</t>
   </si>
@@ -134,6 +135,312 @@
     <t xml:space="preserve">Time in hours</t>
   </si>
   <si>
+    <t xml:space="preserve">PLAN: Philosophy Major, Physics Minor, and Honors in Mathematics Major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit (hrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculus 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH 152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Physics 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHYS 221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thinking Like Plutarch And Cicero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FYS 110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to British Literary History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGL 230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking and Hiking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE 119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">↑ 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Sign Language 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASL 110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downhill Skiing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE 105AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculus 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH 153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Physics 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHYS 222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep Calm and Solve for x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FYS 111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Sign Language 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASL 111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE 105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring the Christian Faith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELI 110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOVT 110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foundations of Mathematics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH 310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Philosophical Heritage 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIL 220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modern Physics 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHYS 371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Science 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSC 210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Composition (W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGL 311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">↑ 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logic and Argumentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIL 315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Differential Equations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computational Physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHYS 321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Philosophical Heritage 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIL 230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason, Faith and the Search for Meaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIL 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HLTH 222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear Algebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH 220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Politics in a Diverse World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOVT 120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literary Experience (W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGL 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life Cycles: Birth, Death and the History of Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOL 205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Will and Moral Responsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIL 309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">↑ 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract Algebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH 340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH 350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability and Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH 315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drawing 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH 345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH 355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete Structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH 320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethics in America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIL 282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philosophy Seminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIL 332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">↑ 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modern Geometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH 335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History of Mathematics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH 330W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math Senior Seminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH 490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independent Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHYS 399</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date</t>
   </si>
   <si>
@@ -164,7 +471,7 @@
     <t xml:space="preserve">The event is expected to reduce errors in the future somehow.</t>
   </si>
   <si>
-    <t xml:space="preserve">The 'TIM' and 'TIM' are added for the time excluding sleeping and that excluding sleeping and work. </t>
+    <t xml:space="preserve">The 'TIM' and 'TIM' are added for the time excluding sleeping and that excluding sleeping and school. </t>
   </si>
   <si>
     <t xml:space="preserve">Something I cannot remember happened.</t>
@@ -176,9 +483,15 @@
     <t xml:space="preserve">The graph is removed because it is thought to be useless.</t>
   </si>
   <si>
+    <t xml:space="preserve">My Possibilities' are added.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Good improvement. http://www.bbc.com/future/story/20120410-a-matter-of-life-and-death</t>
   </si>
   <si>
+    <t xml:space="preserve">The maximum number of the row is reduced to 33 for Nexus 10.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The time of my life relative to 12 hours is added.</t>
   </si>
   <si>
@@ -186,13 +499,19 @@
   </si>
   <si>
     <t xml:space="preserve">After not using this for months, I realized I better use this throughout my life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning computer science can be best done with developing this. With Python, this can be automated and improved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://superuser.com/questions/246979/how-do-you-auto-resize-cells-in-excel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
@@ -200,8 +519,10 @@
     <numFmt numFmtId="168" formatCode="[$$-409]#,##0;[RED]\-[$$-409]#,##0"/>
     <numFmt numFmtId="169" formatCode="MMM\ D&quot;, &quot;YYYY"/>
     <numFmt numFmtId="170" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="171" formatCode="HH:MM\ AM/PM"/>
+    <numFmt numFmtId="172" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -232,11 +553,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Arial Black"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -270,10 +590,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial Black"/>
-      <family val="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -298,6 +619,20 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Black"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -309,6 +644,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Source Sans Pro"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -360,7 +703,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -384,8 +727,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="94">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -526,7 +872,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -534,11 +880,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -606,11 +952,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -628,6 +974,18 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -670,38 +1028,95 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -727,7 +1142,7 @@
       <rgbColor rgb="FFCFE7F5"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0563C1"/>
       <rgbColor rgb="FFD9E2F3"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -770,16 +1185,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>55080</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>60480</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>482760</xdr:colOff>
+      <xdr:colOff>941040</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -792,8 +1207,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11703960" y="0"/>
-          <a:ext cx="1208880" cy="231840"/>
+          <a:off x="12198960" y="0"/>
+          <a:ext cx="880560" cy="226800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -815,35 +1230,31 @@
   </sheetPr>
   <dimension ref="1:81"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="13.1479591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="7.30612244897959"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="8.05612244897959"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="17.2244897959184"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="6.75"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="29.7244897959184"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="2" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="18.0867346938776"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="37" min="23" style="2" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="2" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="2" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -947,7 +1358,7 @@
       </c>
       <c r="K2" s="23" t="n">
         <f aca="false">I2*L2</f>
-        <v>33.3333333333334</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="L2" s="24" t="n">
         <v>200</v>
@@ -2859,7 +3270,7 @@
       </c>
       <c r="D32" s="20" t="n">
         <f aca="false">1-D33</f>
-        <v>0.0791666666666668</v>
+        <v>0.0791666666666671</v>
       </c>
       <c r="E32" s="27" t="n">
         <f aca="false">24-C2-E33</f>
@@ -2887,7 +3298,7 @@
       <c r="M32" s="56"/>
       <c r="N32" s="56" t="n">
         <f aca="true">TODAY()</f>
-        <v>42814</v>
+        <v>42823</v>
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="47" t="s">
@@ -3006,20 +3417,20 @@
       <c r="AMJ33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
       <c r="K34" s="50"/>
       <c r="L34" s="13"/>
       <c r="M34" s="33"/>
-      <c r="N34" s="63" t="n">
+      <c r="N34" s="66" t="n">
         <f aca="false">WEEKDAY($M$20,16)</f>
         <v>5</v>
       </c>
@@ -3049,15 +3460,15 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="50"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
       <c r="K35" s="50"/>
       <c r="L35" s="13"/>
       <c r="M35" s="33"/>
@@ -3100,7 +3511,7 @@
       <c r="K36" s="58"/>
       <c r="L36" s="30"/>
       <c r="M36" s="33"/>
-      <c r="N36" s="65"/>
+      <c r="N36" s="68"/>
       <c r="O36" s="13"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
@@ -3166,15 +3577,15 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="50"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
       <c r="K38" s="50"/>
       <c r="L38" s="50"/>
       <c r="M38" s="33"/>
@@ -3184,9 +3595,9 @@
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="66"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="69"/>
       <c r="W38" s="50"/>
       <c r="X38" s="50"/>
       <c r="Y38" s="50"/>
@@ -3205,27 +3616,27 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="50"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
       <c r="K39" s="50"/>
       <c r="L39" s="50"/>
-      <c r="M39" s="67"/>
+      <c r="M39" s="70"/>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="66"/>
-      <c r="U39" s="66"/>
-      <c r="V39" s="66"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="69"/>
+      <c r="V39" s="69"/>
       <c r="W39" s="50"/>
       <c r="X39" s="50"/>
       <c r="Y39" s="50"/>
@@ -3244,27 +3655,27 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="50"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
       <c r="K40" s="50"/>
       <c r="L40" s="50"/>
-      <c r="M40" s="64"/>
+      <c r="M40" s="67"/>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="66"/>
-      <c r="U40" s="66"/>
-      <c r="V40" s="66"/>
+      <c r="S40" s="71"/>
+      <c r="T40" s="69"/>
+      <c r="U40" s="69"/>
+      <c r="V40" s="69"/>
       <c r="W40" s="50"/>
       <c r="X40" s="50"/>
       <c r="Y40" s="50"/>
@@ -3283,27 +3694,27 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="50"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
       <c r="K41" s="50"/>
       <c r="L41" s="50"/>
-      <c r="M41" s="64"/>
+      <c r="M41" s="67"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
       <c r="P41" s="13"/>
-      <c r="Q41" s="69"/>
-      <c r="R41" s="69"/>
-      <c r="S41" s="69"/>
-      <c r="T41" s="66"/>
-      <c r="U41" s="66"/>
-      <c r="V41" s="66"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="69"/>
+      <c r="V41" s="69"/>
       <c r="W41" s="50"/>
       <c r="X41" s="50"/>
       <c r="Y41" s="50"/>
@@ -3322,27 +3733,27 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="50"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
       <c r="K42" s="50"/>
       <c r="L42" s="50"/>
-      <c r="M42" s="64"/>
+      <c r="M42" s="67"/>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
       <c r="P42" s="13"/>
-      <c r="Q42" s="69"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="66"/>
-      <c r="U42" s="66"/>
-      <c r="V42" s="66"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="69"/>
+      <c r="U42" s="69"/>
+      <c r="V42" s="69"/>
       <c r="W42" s="50"/>
       <c r="X42" s="50"/>
       <c r="Y42" s="50"/>
@@ -3361,27 +3772,27 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="50"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
       <c r="K43" s="50"/>
       <c r="L43" s="50"/>
-      <c r="M43" s="64"/>
+      <c r="M43" s="67"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
-      <c r="Q43" s="69"/>
-      <c r="R43" s="69"/>
-      <c r="S43" s="69"/>
-      <c r="T43" s="66"/>
-      <c r="U43" s="66"/>
-      <c r="V43" s="66"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="69"/>
+      <c r="U43" s="69"/>
+      <c r="V43" s="69"/>
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="50"/>
@@ -3400,27 +3811,27 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="50"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
       <c r="K44" s="50"/>
       <c r="L44" s="50"/>
-      <c r="M44" s="64"/>
+      <c r="M44" s="67"/>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
-      <c r="Q44" s="69"/>
-      <c r="R44" s="69"/>
-      <c r="S44" s="69"/>
-      <c r="T44" s="66"/>
-      <c r="U44" s="66"/>
-      <c r="V44" s="66"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="69"/>
+      <c r="U44" s="69"/>
+      <c r="V44" s="69"/>
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="50"/>
@@ -3439,27 +3850,27 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="50"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
       <c r="K45" s="50"/>
       <c r="L45" s="50"/>
-      <c r="M45" s="64"/>
+      <c r="M45" s="67"/>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
-      <c r="Q45" s="69"/>
-      <c r="R45" s="69"/>
-      <c r="S45" s="69"/>
-      <c r="T45" s="66"/>
-      <c r="U45" s="66"/>
-      <c r="V45" s="66"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="69"/>
+      <c r="U45" s="69"/>
+      <c r="V45" s="69"/>
       <c r="W45" s="50"/>
       <c r="X45" s="50"/>
       <c r="Y45" s="50"/>
@@ -3478,27 +3889,27 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="50"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
       <c r="K46" s="50"/>
       <c r="L46" s="50"/>
-      <c r="M46" s="64"/>
+      <c r="M46" s="67"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
-      <c r="Q46" s="69"/>
-      <c r="R46" s="69"/>
-      <c r="S46" s="69"/>
-      <c r="T46" s="66"/>
-      <c r="U46" s="66"/>
-      <c r="V46" s="66"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="69"/>
+      <c r="U46" s="69"/>
+      <c r="V46" s="69"/>
       <c r="W46" s="50"/>
       <c r="X46" s="50"/>
       <c r="Y46" s="50"/>
@@ -3517,27 +3928,27 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="50"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
       <c r="K47" s="50"/>
       <c r="L47" s="50"/>
-      <c r="M47" s="64"/>
+      <c r="M47" s="67"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
-      <c r="Q47" s="69"/>
-      <c r="R47" s="69"/>
-      <c r="S47" s="69"/>
-      <c r="T47" s="66"/>
-      <c r="U47" s="66"/>
-      <c r="V47" s="66"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="72"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="69"/>
+      <c r="U47" s="69"/>
+      <c r="V47" s="69"/>
       <c r="W47" s="50"/>
       <c r="X47" s="50"/>
       <c r="Y47" s="50"/>
@@ -3556,27 +3967,27 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="50"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
       <c r="K48" s="50"/>
       <c r="L48" s="50"/>
-      <c r="M48" s="64"/>
+      <c r="M48" s="67"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
-      <c r="Q48" s="69"/>
-      <c r="R48" s="69"/>
-      <c r="S48" s="69"/>
-      <c r="T48" s="66"/>
-      <c r="U48" s="66"/>
-      <c r="V48" s="66"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="72"/>
+      <c r="S48" s="72"/>
+      <c r="T48" s="69"/>
+      <c r="U48" s="69"/>
+      <c r="V48" s="69"/>
       <c r="W48" s="50"/>
       <c r="X48" s="50"/>
       <c r="Y48" s="50"/>
@@ -3595,27 +4006,27 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="50"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
       <c r="K49" s="50"/>
       <c r="L49" s="50"/>
-      <c r="M49" s="64"/>
+      <c r="M49" s="67"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
       <c r="P49" s="13"/>
-      <c r="Q49" s="69"/>
-      <c r="R49" s="69"/>
-      <c r="S49" s="69"/>
-      <c r="T49" s="66"/>
-      <c r="U49" s="66"/>
-      <c r="V49" s="66"/>
+      <c r="Q49" s="72"/>
+      <c r="R49" s="72"/>
+      <c r="S49" s="72"/>
+      <c r="T49" s="69"/>
+      <c r="U49" s="69"/>
+      <c r="V49" s="69"/>
       <c r="W49" s="50"/>
       <c r="X49" s="50"/>
       <c r="Y49" s="50"/>
@@ -3634,27 +4045,27 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="50"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
       <c r="K50" s="50"/>
       <c r="L50" s="50"/>
-      <c r="M50" s="64"/>
+      <c r="M50" s="67"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
       <c r="P50" s="13"/>
-      <c r="Q50" s="69"/>
-      <c r="R50" s="69"/>
-      <c r="S50" s="69"/>
-      <c r="T50" s="66"/>
-      <c r="U50" s="66"/>
-      <c r="V50" s="66"/>
+      <c r="Q50" s="72"/>
+      <c r="R50" s="72"/>
+      <c r="S50" s="72"/>
+      <c r="T50" s="69"/>
+      <c r="U50" s="69"/>
+      <c r="V50" s="69"/>
       <c r="W50" s="50"/>
       <c r="X50" s="50"/>
       <c r="Y50" s="50"/>
@@ -3673,27 +4084,27 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="50"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
       <c r="K51" s="50"/>
       <c r="L51" s="50"/>
-      <c r="M51" s="64"/>
+      <c r="M51" s="67"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
       <c r="P51" s="13"/>
-      <c r="Q51" s="69"/>
-      <c r="R51" s="69"/>
-      <c r="S51" s="69"/>
-      <c r="T51" s="66"/>
-      <c r="U51" s="66"/>
-      <c r="V51" s="66"/>
+      <c r="Q51" s="72"/>
+      <c r="R51" s="72"/>
+      <c r="S51" s="72"/>
+      <c r="T51" s="69"/>
+      <c r="U51" s="69"/>
+      <c r="V51" s="69"/>
       <c r="W51" s="50"/>
       <c r="X51" s="50"/>
       <c r="Y51" s="50"/>
@@ -3712,27 +4123,27 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="50"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
       <c r="K52" s="50"/>
       <c r="L52" s="50"/>
-      <c r="M52" s="64"/>
+      <c r="M52" s="67"/>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
       <c r="P52" s="13"/>
-      <c r="Q52" s="69"/>
-      <c r="R52" s="69"/>
-      <c r="S52" s="69"/>
-      <c r="T52" s="66"/>
-      <c r="U52" s="66"/>
-      <c r="V52" s="66"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="72"/>
+      <c r="S52" s="72"/>
+      <c r="T52" s="69"/>
+      <c r="U52" s="69"/>
+      <c r="V52" s="69"/>
       <c r="W52" s="50"/>
       <c r="X52" s="50"/>
       <c r="Y52" s="50"/>
@@ -3751,27 +4162,27 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="50"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
       <c r="K53" s="50"/>
       <c r="L53" s="50"/>
-      <c r="M53" s="64"/>
+      <c r="M53" s="67"/>
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
       <c r="P53" s="13"/>
-      <c r="Q53" s="69"/>
-      <c r="R53" s="69"/>
-      <c r="S53" s="69"/>
-      <c r="T53" s="66"/>
-      <c r="U53" s="66"/>
-      <c r="V53" s="66"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="72"/>
+      <c r="S53" s="72"/>
+      <c r="T53" s="69"/>
+      <c r="U53" s="69"/>
+      <c r="V53" s="69"/>
       <c r="W53" s="50"/>
       <c r="X53" s="50"/>
       <c r="Y53" s="50"/>
@@ -3790,27 +4201,27 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="50"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
       <c r="K54" s="50"/>
       <c r="L54" s="50"/>
-      <c r="M54" s="64"/>
+      <c r="M54" s="67"/>
       <c r="N54" s="13"/>
       <c r="O54" s="13"/>
       <c r="P54" s="13"/>
-      <c r="Q54" s="69"/>
-      <c r="R54" s="69"/>
-      <c r="S54" s="69"/>
-      <c r="T54" s="66"/>
-      <c r="U54" s="66"/>
-      <c r="V54" s="66"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="72"/>
+      <c r="T54" s="69"/>
+      <c r="U54" s="69"/>
+      <c r="V54" s="69"/>
       <c r="W54" s="50"/>
       <c r="X54" s="50"/>
       <c r="Y54" s="50"/>
@@ -3829,27 +4240,27 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="50"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
       <c r="K55" s="50"/>
       <c r="L55" s="50"/>
-      <c r="M55" s="64"/>
+      <c r="M55" s="67"/>
       <c r="N55" s="13"/>
       <c r="O55" s="13"/>
       <c r="P55" s="13"/>
-      <c r="Q55" s="69"/>
-      <c r="R55" s="69"/>
-      <c r="S55" s="69"/>
-      <c r="T55" s="66"/>
-      <c r="U55" s="66"/>
-      <c r="V55" s="66"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="72"/>
+      <c r="S55" s="72"/>
+      <c r="T55" s="69"/>
+      <c r="U55" s="69"/>
+      <c r="V55" s="69"/>
       <c r="W55" s="50"/>
       <c r="X55" s="50"/>
       <c r="Y55" s="50"/>
@@ -3868,27 +4279,27 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="50"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
       <c r="K56" s="50"/>
       <c r="L56" s="50"/>
-      <c r="M56" s="64"/>
+      <c r="M56" s="67"/>
       <c r="N56" s="13"/>
       <c r="O56" s="13"/>
       <c r="P56" s="13"/>
-      <c r="Q56" s="69"/>
-      <c r="R56" s="69"/>
-      <c r="S56" s="69"/>
-      <c r="T56" s="66"/>
-      <c r="U56" s="66"/>
-      <c r="V56" s="66"/>
+      <c r="Q56" s="72"/>
+      <c r="R56" s="72"/>
+      <c r="S56" s="72"/>
+      <c r="T56" s="69"/>
+      <c r="U56" s="69"/>
+      <c r="V56" s="69"/>
       <c r="W56" s="50"/>
       <c r="X56" s="50"/>
       <c r="Y56" s="50"/>
@@ -3907,27 +4318,27 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="50"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
       <c r="K57" s="50"/>
       <c r="L57" s="50"/>
-      <c r="M57" s="64"/>
+      <c r="M57" s="67"/>
       <c r="N57" s="13"/>
       <c r="O57" s="13"/>
       <c r="P57" s="13"/>
-      <c r="Q57" s="69"/>
-      <c r="R57" s="69"/>
-      <c r="S57" s="69"/>
-      <c r="T57" s="66"/>
-      <c r="U57" s="66"/>
-      <c r="V57" s="66"/>
+      <c r="Q57" s="72"/>
+      <c r="R57" s="72"/>
+      <c r="S57" s="72"/>
+      <c r="T57" s="69"/>
+      <c r="U57" s="69"/>
+      <c r="V57" s="69"/>
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="50"/>
@@ -3946,27 +4357,27 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="50"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="62"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
       <c r="K58" s="50"/>
       <c r="L58" s="50"/>
-      <c r="M58" s="64"/>
+      <c r="M58" s="67"/>
       <c r="N58" s="13"/>
       <c r="O58" s="13"/>
       <c r="P58" s="13"/>
-      <c r="Q58" s="69"/>
-      <c r="R58" s="69"/>
-      <c r="S58" s="69"/>
-      <c r="T58" s="66"/>
-      <c r="U58" s="66"/>
-      <c r="V58" s="66"/>
+      <c r="Q58" s="72"/>
+      <c r="R58" s="72"/>
+      <c r="S58" s="72"/>
+      <c r="T58" s="69"/>
+      <c r="U58" s="69"/>
+      <c r="V58" s="69"/>
       <c r="W58" s="50"/>
       <c r="X58" s="50"/>
       <c r="Y58" s="50"/>
@@ -3985,27 +4396,27 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="50"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="62"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
       <c r="K59" s="50"/>
       <c r="L59" s="50"/>
-      <c r="M59" s="64"/>
+      <c r="M59" s="67"/>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
       <c r="P59" s="13"/>
-      <c r="Q59" s="69"/>
-      <c r="R59" s="69"/>
-      <c r="S59" s="69"/>
-      <c r="T59" s="66"/>
-      <c r="U59" s="66"/>
-      <c r="V59" s="66"/>
+      <c r="Q59" s="72"/>
+      <c r="R59" s="72"/>
+      <c r="S59" s="72"/>
+      <c r="T59" s="69"/>
+      <c r="U59" s="69"/>
+      <c r="V59" s="69"/>
       <c r="W59" s="50"/>
       <c r="X59" s="50"/>
       <c r="Y59" s="50"/>
@@ -4024,27 +4435,27 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="50"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="62"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
       <c r="K60" s="50"/>
       <c r="L60" s="50"/>
-      <c r="M60" s="64"/>
+      <c r="M60" s="67"/>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
       <c r="P60" s="13"/>
-      <c r="Q60" s="69"/>
-      <c r="R60" s="69"/>
-      <c r="S60" s="69"/>
-      <c r="T60" s="66"/>
-      <c r="U60" s="66"/>
-      <c r="V60" s="66"/>
+      <c r="Q60" s="72"/>
+      <c r="R60" s="72"/>
+      <c r="S60" s="72"/>
+      <c r="T60" s="69"/>
+      <c r="U60" s="69"/>
+      <c r="V60" s="69"/>
       <c r="W60" s="50"/>
       <c r="X60" s="50"/>
       <c r="Y60" s="50"/>
@@ -4063,27 +4474,27 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="50"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
       <c r="K61" s="50"/>
       <c r="L61" s="50"/>
-      <c r="M61" s="64"/>
+      <c r="M61" s="67"/>
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
       <c r="P61" s="13"/>
-      <c r="Q61" s="69"/>
-      <c r="R61" s="69"/>
-      <c r="S61" s="69"/>
-      <c r="T61" s="66"/>
-      <c r="U61" s="66"/>
-      <c r="V61" s="66"/>
+      <c r="Q61" s="72"/>
+      <c r="R61" s="72"/>
+      <c r="S61" s="72"/>
+      <c r="T61" s="69"/>
+      <c r="U61" s="69"/>
+      <c r="V61" s="69"/>
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="50"/>
@@ -4102,27 +4513,27 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="50"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="62"/>
-      <c r="I62" s="62"/>
-      <c r="J62" s="62"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
       <c r="K62" s="50"/>
       <c r="L62" s="50"/>
-      <c r="M62" s="64"/>
+      <c r="M62" s="67"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
       <c r="P62" s="13"/>
-      <c r="Q62" s="69"/>
-      <c r="R62" s="69"/>
-      <c r="S62" s="69"/>
-      <c r="T62" s="66"/>
-      <c r="U62" s="66"/>
-      <c r="V62" s="66"/>
+      <c r="Q62" s="72"/>
+      <c r="R62" s="72"/>
+      <c r="S62" s="72"/>
+      <c r="T62" s="69"/>
+      <c r="U62" s="69"/>
+      <c r="V62" s="69"/>
       <c r="W62" s="50"/>
       <c r="X62" s="50"/>
       <c r="Y62" s="50"/>
@@ -4141,27 +4552,27 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="50"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
       <c r="K63" s="50"/>
       <c r="L63" s="50"/>
-      <c r="M63" s="64"/>
+      <c r="M63" s="67"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
       <c r="P63" s="13"/>
-      <c r="Q63" s="69"/>
-      <c r="R63" s="69"/>
-      <c r="S63" s="69"/>
-      <c r="T63" s="66"/>
-      <c r="U63" s="66"/>
-      <c r="V63" s="66"/>
+      <c r="Q63" s="72"/>
+      <c r="R63" s="72"/>
+      <c r="S63" s="72"/>
+      <c r="T63" s="69"/>
+      <c r="U63" s="69"/>
+      <c r="V63" s="69"/>
       <c r="W63" s="50"/>
       <c r="X63" s="50"/>
       <c r="Y63" s="50"/>
@@ -4180,27 +4591,27 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="50"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="62"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
       <c r="K64" s="50"/>
       <c r="L64" s="50"/>
-      <c r="M64" s="64"/>
+      <c r="M64" s="67"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
       <c r="P64" s="13"/>
-      <c r="Q64" s="69"/>
-      <c r="R64" s="69"/>
-      <c r="S64" s="69"/>
-      <c r="T64" s="66"/>
-      <c r="U64" s="66"/>
-      <c r="V64" s="66"/>
+      <c r="Q64" s="72"/>
+      <c r="R64" s="72"/>
+      <c r="S64" s="72"/>
+      <c r="T64" s="69"/>
+      <c r="U64" s="69"/>
+      <c r="V64" s="69"/>
       <c r="W64" s="50"/>
       <c r="X64" s="50"/>
       <c r="Y64" s="50"/>
@@ -4219,27 +4630,27 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="50"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="62"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
       <c r="K65" s="50"/>
       <c r="L65" s="50"/>
-      <c r="M65" s="64"/>
+      <c r="M65" s="67"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
       <c r="P65" s="13"/>
-      <c r="Q65" s="69"/>
-      <c r="R65" s="69"/>
-      <c r="S65" s="69"/>
-      <c r="T65" s="66"/>
-      <c r="U65" s="66"/>
-      <c r="V65" s="66"/>
+      <c r="Q65" s="72"/>
+      <c r="R65" s="72"/>
+      <c r="S65" s="72"/>
+      <c r="T65" s="69"/>
+      <c r="U65" s="69"/>
+      <c r="V65" s="69"/>
       <c r="W65" s="50"/>
       <c r="X65" s="50"/>
       <c r="Y65" s="50"/>
@@ -4258,27 +4669,27 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="50"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="62"/>
-      <c r="H66" s="62"/>
-      <c r="I66" s="62"/>
-      <c r="J66" s="62"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
       <c r="K66" s="50"/>
       <c r="L66" s="50"/>
-      <c r="M66" s="64"/>
+      <c r="M66" s="67"/>
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
       <c r="P66" s="13"/>
-      <c r="Q66" s="69"/>
-      <c r="R66" s="69"/>
-      <c r="S66" s="69"/>
-      <c r="T66" s="66"/>
-      <c r="U66" s="66"/>
-      <c r="V66" s="66"/>
+      <c r="Q66" s="72"/>
+      <c r="R66" s="72"/>
+      <c r="S66" s="72"/>
+      <c r="T66" s="69"/>
+      <c r="U66" s="69"/>
+      <c r="V66" s="69"/>
       <c r="W66" s="50"/>
       <c r="X66" s="50"/>
       <c r="Y66" s="50"/>
@@ -4297,27 +4708,27 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="50"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
       <c r="K67" s="50"/>
       <c r="L67" s="50"/>
-      <c r="M67" s="64"/>
+      <c r="M67" s="67"/>
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
       <c r="P67" s="13"/>
-      <c r="Q67" s="69"/>
-      <c r="R67" s="69"/>
-      <c r="S67" s="69"/>
-      <c r="T67" s="66"/>
-      <c r="U67" s="66"/>
-      <c r="V67" s="66"/>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="72"/>
+      <c r="S67" s="72"/>
+      <c r="T67" s="69"/>
+      <c r="U67" s="69"/>
+      <c r="V67" s="69"/>
       <c r="W67" s="50"/>
       <c r="X67" s="50"/>
       <c r="Y67" s="50"/>
@@ -4336,27 +4747,27 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="50"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="62"/>
-      <c r="H68" s="62"/>
-      <c r="I68" s="62"/>
-      <c r="J68" s="62"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
       <c r="K68" s="50"/>
       <c r="L68" s="50"/>
-      <c r="M68" s="64"/>
+      <c r="M68" s="67"/>
       <c r="N68" s="13"/>
       <c r="O68" s="13"/>
       <c r="P68" s="13"/>
-      <c r="Q68" s="69"/>
-      <c r="R68" s="69"/>
-      <c r="S68" s="69"/>
-      <c r="T68" s="66"/>
-      <c r="U68" s="66"/>
-      <c r="V68" s="66"/>
+      <c r="Q68" s="72"/>
+      <c r="R68" s="72"/>
+      <c r="S68" s="72"/>
+      <c r="T68" s="69"/>
+      <c r="U68" s="69"/>
+      <c r="V68" s="69"/>
       <c r="W68" s="50"/>
       <c r="X68" s="50"/>
       <c r="Y68" s="50"/>
@@ -4375,27 +4786,27 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="50"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
       <c r="K69" s="50"/>
       <c r="L69" s="50"/>
-      <c r="M69" s="64"/>
+      <c r="M69" s="67"/>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
       <c r="P69" s="13"/>
-      <c r="Q69" s="69"/>
-      <c r="R69" s="69"/>
-      <c r="S69" s="69"/>
-      <c r="T69" s="66"/>
-      <c r="U69" s="66"/>
-      <c r="V69" s="66"/>
+      <c r="Q69" s="72"/>
+      <c r="R69" s="72"/>
+      <c r="S69" s="72"/>
+      <c r="T69" s="69"/>
+      <c r="U69" s="69"/>
+      <c r="V69" s="69"/>
       <c r="W69" s="50"/>
       <c r="X69" s="50"/>
       <c r="Y69" s="50"/>
@@ -4414,27 +4825,27 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="50"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="62"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
       <c r="K70" s="50"/>
       <c r="L70" s="50"/>
-      <c r="M70" s="64"/>
+      <c r="M70" s="67"/>
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
       <c r="P70" s="13"/>
-      <c r="Q70" s="69"/>
-      <c r="R70" s="69"/>
-      <c r="S70" s="69"/>
-      <c r="T70" s="66"/>
-      <c r="U70" s="66"/>
-      <c r="V70" s="66"/>
+      <c r="Q70" s="72"/>
+      <c r="R70" s="72"/>
+      <c r="S70" s="72"/>
+      <c r="T70" s="69"/>
+      <c r="U70" s="69"/>
+      <c r="V70" s="69"/>
       <c r="W70" s="50"/>
       <c r="X70" s="50"/>
       <c r="Y70" s="50"/>
@@ -4453,27 +4864,27 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="50"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="62"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
       <c r="K71" s="50"/>
       <c r="L71" s="50"/>
-      <c r="M71" s="64"/>
+      <c r="M71" s="67"/>
       <c r="N71" s="14"/>
       <c r="O71" s="14"/>
       <c r="P71" s="13"/>
-      <c r="Q71" s="69"/>
-      <c r="R71" s="69"/>
-      <c r="S71" s="69"/>
-      <c r="T71" s="66"/>
-      <c r="U71" s="66"/>
-      <c r="V71" s="66"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="72"/>
+      <c r="S71" s="72"/>
+      <c r="T71" s="69"/>
+      <c r="U71" s="69"/>
+      <c r="V71" s="69"/>
       <c r="W71" s="50"/>
       <c r="X71" s="50"/>
       <c r="Y71" s="50"/>
@@ -4492,27 +4903,27 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="50"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="62"/>
-      <c r="J72" s="62"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
       <c r="K72" s="50"/>
       <c r="L72" s="50"/>
-      <c r="M72" s="64"/>
+      <c r="M72" s="67"/>
       <c r="N72" s="14"/>
       <c r="O72" s="14"/>
       <c r="P72" s="13"/>
-      <c r="Q72" s="69"/>
-      <c r="R72" s="69"/>
-      <c r="S72" s="69"/>
-      <c r="T72" s="66"/>
-      <c r="U72" s="66"/>
-      <c r="V72" s="66"/>
+      <c r="Q72" s="72"/>
+      <c r="R72" s="72"/>
+      <c r="S72" s="72"/>
+      <c r="T72" s="69"/>
+      <c r="U72" s="69"/>
+      <c r="V72" s="69"/>
       <c r="W72" s="50"/>
       <c r="X72" s="50"/>
       <c r="Y72" s="50"/>
@@ -4531,27 +4942,27 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="50"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="62"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
       <c r="K73" s="50"/>
       <c r="L73" s="50"/>
-      <c r="M73" s="64"/>
+      <c r="M73" s="67"/>
       <c r="N73" s="14"/>
       <c r="O73" s="14"/>
       <c r="P73" s="13"/>
-      <c r="Q73" s="69"/>
-      <c r="R73" s="69"/>
-      <c r="S73" s="69"/>
-      <c r="T73" s="66"/>
-      <c r="U73" s="66"/>
-      <c r="V73" s="66"/>
+      <c r="Q73" s="72"/>
+      <c r="R73" s="72"/>
+      <c r="S73" s="72"/>
+      <c r="T73" s="69"/>
+      <c r="U73" s="69"/>
+      <c r="V73" s="69"/>
       <c r="W73" s="50"/>
       <c r="X73" s="50"/>
       <c r="Y73" s="50"/>
@@ -4570,27 +4981,27 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="50"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
       <c r="K74" s="50"/>
       <c r="L74" s="50"/>
-      <c r="M74" s="64"/>
+      <c r="M74" s="67"/>
       <c r="N74" s="14"/>
       <c r="O74" s="14"/>
       <c r="P74" s="13"/>
-      <c r="Q74" s="69"/>
-      <c r="R74" s="69"/>
-      <c r="S74" s="69"/>
-      <c r="T74" s="66"/>
-      <c r="U74" s="66"/>
-      <c r="V74" s="66"/>
+      <c r="Q74" s="72"/>
+      <c r="R74" s="72"/>
+      <c r="S74" s="72"/>
+      <c r="T74" s="69"/>
+      <c r="U74" s="69"/>
+      <c r="V74" s="69"/>
       <c r="W74" s="50"/>
       <c r="X74" s="50"/>
       <c r="Y74" s="50"/>
@@ -4609,27 +5020,27 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="50"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
       <c r="K75" s="50"/>
       <c r="L75" s="50"/>
-      <c r="M75" s="64"/>
+      <c r="M75" s="67"/>
       <c r="N75" s="50"/>
-      <c r="O75" s="66"/>
-      <c r="P75" s="69"/>
-      <c r="Q75" s="69"/>
-      <c r="R75" s="69"/>
-      <c r="S75" s="69"/>
-      <c r="T75" s="66"/>
-      <c r="U75" s="66"/>
-      <c r="V75" s="66"/>
+      <c r="O75" s="69"/>
+      <c r="P75" s="72"/>
+      <c r="Q75" s="72"/>
+      <c r="R75" s="72"/>
+      <c r="S75" s="72"/>
+      <c r="T75" s="69"/>
+      <c r="U75" s="69"/>
+      <c r="V75" s="69"/>
       <c r="W75" s="50"/>
       <c r="X75" s="50"/>
       <c r="Y75" s="50"/>
@@ -4648,27 +5059,27 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="50"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="65"/>
       <c r="K76" s="50"/>
       <c r="L76" s="50"/>
-      <c r="M76" s="64"/>
+      <c r="M76" s="67"/>
       <c r="N76" s="50"/>
-      <c r="O76" s="66"/>
-      <c r="P76" s="66"/>
-      <c r="Q76" s="66"/>
-      <c r="R76" s="66"/>
-      <c r="S76" s="70"/>
-      <c r="T76" s="66"/>
-      <c r="U76" s="66"/>
-      <c r="V76" s="66"/>
+      <c r="O76" s="69"/>
+      <c r="P76" s="69"/>
+      <c r="Q76" s="69"/>
+      <c r="R76" s="69"/>
+      <c r="S76" s="73"/>
+      <c r="T76" s="69"/>
+      <c r="U76" s="69"/>
+      <c r="V76" s="69"/>
       <c r="W76" s="50"/>
       <c r="X76" s="50"/>
       <c r="Y76" s="50"/>
@@ -4687,27 +5098,27 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="50"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="62"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="65"/>
       <c r="K77" s="50"/>
       <c r="L77" s="50"/>
-      <c r="M77" s="64"/>
+      <c r="M77" s="67"/>
       <c r="N77" s="50"/>
-      <c r="O77" s="66"/>
-      <c r="P77" s="66"/>
-      <c r="Q77" s="66"/>
-      <c r="R77" s="66"/>
-      <c r="S77" s="70"/>
-      <c r="T77" s="66"/>
-      <c r="U77" s="66"/>
-      <c r="V77" s="66"/>
+      <c r="O77" s="69"/>
+      <c r="P77" s="69"/>
+      <c r="Q77" s="69"/>
+      <c r="R77" s="69"/>
+      <c r="S77" s="73"/>
+      <c r="T77" s="69"/>
+      <c r="U77" s="69"/>
+      <c r="V77" s="69"/>
       <c r="W77" s="50"/>
       <c r="X77" s="50"/>
       <c r="Y77" s="50"/>
@@ -4726,27 +5137,27 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="50"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="65"/>
       <c r="K78" s="50"/>
       <c r="L78" s="50"/>
-      <c r="M78" s="64"/>
+      <c r="M78" s="67"/>
       <c r="N78" s="50"/>
-      <c r="O78" s="66"/>
-      <c r="P78" s="66"/>
-      <c r="Q78" s="66"/>
-      <c r="R78" s="66"/>
-      <c r="S78" s="70"/>
-      <c r="T78" s="66"/>
-      <c r="U78" s="66"/>
-      <c r="V78" s="66"/>
+      <c r="O78" s="69"/>
+      <c r="P78" s="69"/>
+      <c r="Q78" s="69"/>
+      <c r="R78" s="69"/>
+      <c r="S78" s="73"/>
+      <c r="T78" s="69"/>
+      <c r="U78" s="69"/>
+      <c r="V78" s="69"/>
       <c r="W78" s="50"/>
       <c r="X78" s="50"/>
       <c r="Y78" s="50"/>
@@ -4765,27 +5176,27 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="50"/>
-      <c r="B79" s="61"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="62"/>
-      <c r="H79" s="62"/>
-      <c r="I79" s="62"/>
-      <c r="J79" s="62"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="65"/>
+      <c r="H79" s="65"/>
+      <c r="I79" s="65"/>
+      <c r="J79" s="65"/>
       <c r="K79" s="50"/>
       <c r="L79" s="50"/>
-      <c r="M79" s="64"/>
+      <c r="M79" s="67"/>
       <c r="N79" s="50"/>
-      <c r="O79" s="66"/>
-      <c r="P79" s="66"/>
-      <c r="Q79" s="66"/>
-      <c r="R79" s="66"/>
-      <c r="S79" s="70"/>
-      <c r="T79" s="66"/>
-      <c r="U79" s="66"/>
-      <c r="V79" s="66"/>
+      <c r="O79" s="69"/>
+      <c r="P79" s="69"/>
+      <c r="Q79" s="69"/>
+      <c r="R79" s="69"/>
+      <c r="S79" s="73"/>
+      <c r="T79" s="69"/>
+      <c r="U79" s="69"/>
+      <c r="V79" s="69"/>
       <c r="W79" s="50"/>
       <c r="X79" s="50"/>
       <c r="Y79" s="50"/>
@@ -4804,27 +5215,27 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="50"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="62"/>
-      <c r="H80" s="62"/>
-      <c r="I80" s="62"/>
-      <c r="J80" s="62"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
       <c r="K80" s="50"/>
       <c r="L80" s="50"/>
-      <c r="M80" s="64"/>
+      <c r="M80" s="67"/>
       <c r="N80" s="50"/>
-      <c r="O80" s="66"/>
-      <c r="P80" s="66"/>
-      <c r="Q80" s="66"/>
-      <c r="R80" s="66"/>
-      <c r="S80" s="70"/>
-      <c r="T80" s="66"/>
-      <c r="U80" s="66"/>
-      <c r="V80" s="66"/>
+      <c r="O80" s="69"/>
+      <c r="P80" s="69"/>
+      <c r="Q80" s="69"/>
+      <c r="R80" s="69"/>
+      <c r="S80" s="73"/>
+      <c r="T80" s="69"/>
+      <c r="U80" s="69"/>
+      <c r="V80" s="69"/>
       <c r="W80" s="50"/>
       <c r="X80" s="50"/>
       <c r="Y80" s="50"/>
@@ -4843,27 +5254,27 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="50"/>
-      <c r="B81" s="61"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="62"/>
-      <c r="H81" s="62"/>
-      <c r="I81" s="62"/>
-      <c r="J81" s="62"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="65"/>
+      <c r="H81" s="65"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="65"/>
       <c r="K81" s="50"/>
       <c r="L81" s="50"/>
-      <c r="M81" s="64"/>
+      <c r="M81" s="67"/>
       <c r="N81" s="50"/>
-      <c r="O81" s="66"/>
-      <c r="P81" s="66"/>
-      <c r="Q81" s="66"/>
-      <c r="R81" s="66"/>
-      <c r="S81" s="70"/>
-      <c r="T81" s="66"/>
-      <c r="U81" s="66"/>
-      <c r="V81" s="66"/>
+      <c r="O81" s="69"/>
+      <c r="P81" s="69"/>
+      <c r="Q81" s="69"/>
+      <c r="R81" s="69"/>
+      <c r="S81" s="73"/>
+      <c r="T81" s="69"/>
+      <c r="U81" s="69"/>
+      <c r="V81" s="69"/>
       <c r="W81" s="50"/>
       <c r="X81" s="50"/>
       <c r="Y81" s="50"/>
@@ -4902,388 +5313,5342 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="1:99"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="2" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="2" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1023" min="22" style="2" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.0765306122449"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="ALZ1" s="16"/>
+      <c r="AMA1" s="16"/>
+      <c r="AMB1" s="16"/>
+      <c r="AMC1" s="16"/>
+      <c r="AMD1" s="16"/>
+      <c r="AME1" s="16"/>
+      <c r="AMF1" s="16"/>
+      <c r="AMG1" s="16"/>
+      <c r="AMH1" s="16"/>
+      <c r="AMI1" s="16"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="ALQ2" s="0"/>
+      <c r="ALR2" s="0"/>
+      <c r="ALS2" s="0"/>
+      <c r="ALT2" s="0"/>
+      <c r="ALU2" s="0"/>
+      <c r="ALV2" s="0"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="16"/>
+      <c r="AMA2" s="16"/>
+      <c r="AMB2" s="16"/>
+      <c r="AMC2" s="16"/>
+      <c r="AMD2" s="16"/>
+      <c r="AME2" s="16"/>
+      <c r="AMF2" s="16"/>
+      <c r="AMG2" s="16"/>
+      <c r="AMH2" s="16"/>
+      <c r="AMI2" s="16"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="ALQ3" s="0"/>
+      <c r="ALR3" s="0"/>
+      <c r="ALS3" s="0"/>
+      <c r="ALT3" s="0"/>
+      <c r="ALU3" s="0"/>
+      <c r="ALV3" s="0"/>
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="16"/>
+      <c r="AMA3" s="16"/>
+      <c r="AMB3" s="16"/>
+      <c r="AMC3" s="16"/>
+      <c r="AMD3" s="16"/>
+      <c r="AME3" s="16"/>
+      <c r="AMF3" s="16"/>
+      <c r="AMG3" s="16"/>
+      <c r="AMH3" s="16"/>
+      <c r="AMI3" s="16"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="ALQ4" s="0"/>
+      <c r="ALR4" s="0"/>
+      <c r="ALS4" s="0"/>
+      <c r="ALT4" s="0"/>
+      <c r="ALU4" s="0"/>
+      <c r="ALV4" s="0"/>
+      <c r="ALW4" s="0"/>
+      <c r="ALX4" s="0"/>
+      <c r="ALY4" s="0"/>
+      <c r="ALZ4" s="16"/>
+      <c r="AMA4" s="16"/>
+      <c r="AMB4" s="16"/>
+      <c r="AMC4" s="16"/>
+      <c r="AMD4" s="16"/>
+      <c r="AME4" s="16"/>
+      <c r="AMF4" s="16"/>
+      <c r="AMG4" s="16"/>
+      <c r="AMH4" s="16"/>
+      <c r="AMI4" s="16"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="ALQ5" s="0"/>
+      <c r="ALR5" s="0"/>
+      <c r="ALS5" s="0"/>
+      <c r="ALT5" s="0"/>
+      <c r="ALU5" s="0"/>
+      <c r="ALV5" s="0"/>
+      <c r="ALW5" s="0"/>
+      <c r="ALX5" s="0"/>
+      <c r="ALY5" s="0"/>
+      <c r="ALZ5" s="16"/>
+      <c r="AMA5" s="16"/>
+      <c r="AMB5" s="16"/>
+      <c r="AMC5" s="16"/>
+      <c r="AMD5" s="16"/>
+      <c r="AME5" s="16"/>
+      <c r="AMF5" s="16"/>
+      <c r="AMG5" s="16"/>
+      <c r="AMH5" s="16"/>
+      <c r="AMI5" s="16"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="ALQ6" s="0"/>
+      <c r="ALR6" s="0"/>
+      <c r="ALS6" s="0"/>
+      <c r="ALT6" s="0"/>
+      <c r="ALU6" s="0"/>
+      <c r="ALV6" s="0"/>
+      <c r="ALW6" s="0"/>
+      <c r="ALX6" s="0"/>
+      <c r="ALY6" s="0"/>
+      <c r="ALZ6" s="16"/>
+      <c r="AMA6" s="16"/>
+      <c r="AMB6" s="16"/>
+      <c r="AMC6" s="16"/>
+      <c r="AMD6" s="16"/>
+      <c r="AME6" s="16"/>
+      <c r="AMF6" s="16"/>
+      <c r="AMG6" s="16"/>
+      <c r="AMH6" s="16"/>
+      <c r="AMI6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="77"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="ALQ7" s="0"/>
+      <c r="ALR7" s="0"/>
+      <c r="ALS7" s="0"/>
+      <c r="ALT7" s="0"/>
+      <c r="ALU7" s="0"/>
+      <c r="ALV7" s="0"/>
+      <c r="ALW7" s="0"/>
+      <c r="ALX7" s="0"/>
+      <c r="ALY7" s="0"/>
+      <c r="ALZ7" s="16"/>
+      <c r="AMA7" s="16"/>
+      <c r="AMB7" s="16"/>
+      <c r="AMC7" s="16"/>
+      <c r="AMD7" s="16"/>
+      <c r="AME7" s="16"/>
+      <c r="AMF7" s="16"/>
+      <c r="AMG7" s="16"/>
+      <c r="AMH7" s="16"/>
+      <c r="AMI7" s="16"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="82" t="n">
+        <f aca="false">SUM(H3:H7)</f>
+        <v>16</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="ALQ8" s="0"/>
+      <c r="ALR8" s="0"/>
+      <c r="ALS8" s="0"/>
+      <c r="ALT8" s="0"/>
+      <c r="ALU8" s="0"/>
+      <c r="ALV8" s="0"/>
+      <c r="ALW8" s="0"/>
+      <c r="ALX8" s="0"/>
+      <c r="ALY8" s="0"/>
+      <c r="ALZ8" s="16"/>
+      <c r="AMA8" s="16"/>
+      <c r="AMB8" s="16"/>
+      <c r="AMC8" s="16"/>
+      <c r="AMD8" s="16"/>
+      <c r="AME8" s="16"/>
+      <c r="AMF8" s="16"/>
+      <c r="AMG8" s="16"/>
+      <c r="AMH8" s="16"/>
+      <c r="AMI8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="ALQ9" s="0"/>
+      <c r="ALR9" s="0"/>
+      <c r="ALS9" s="0"/>
+      <c r="ALT9" s="0"/>
+      <c r="ALU9" s="0"/>
+      <c r="ALV9" s="0"/>
+      <c r="ALW9" s="0"/>
+      <c r="ALX9" s="0"/>
+      <c r="ALY9" s="0"/>
+      <c r="ALZ9" s="16"/>
+      <c r="AMA9" s="16"/>
+      <c r="AMB9" s="16"/>
+      <c r="AMC9" s="16"/>
+      <c r="AMD9" s="16"/>
+      <c r="AME9" s="16"/>
+      <c r="AMF9" s="16"/>
+      <c r="AMG9" s="16"/>
+      <c r="AMH9" s="16"/>
+      <c r="AMI9" s="16"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="ALQ10" s="0"/>
+      <c r="ALR10" s="0"/>
+      <c r="ALS10" s="0"/>
+      <c r="ALT10" s="0"/>
+      <c r="ALU10" s="0"/>
+      <c r="ALV10" s="0"/>
+      <c r="ALW10" s="0"/>
+      <c r="ALX10" s="0"/>
+      <c r="ALY10" s="0"/>
+      <c r="ALZ10" s="16"/>
+      <c r="AMA10" s="16"/>
+      <c r="AMB10" s="16"/>
+      <c r="AMC10" s="16"/>
+      <c r="AMD10" s="16"/>
+      <c r="AME10" s="16"/>
+      <c r="AMF10" s="16"/>
+      <c r="AMG10" s="16"/>
+      <c r="AMH10" s="16"/>
+      <c r="AMI10" s="16"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="83"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="82" t="n">
+        <f aca="false">SUM(H9:H10)</f>
+        <v>4</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="ALQ11" s="0"/>
+      <c r="ALR11" s="0"/>
+      <c r="ALS11" s="0"/>
+      <c r="ALT11" s="0"/>
+      <c r="ALU11" s="0"/>
+      <c r="ALV11" s="0"/>
+      <c r="ALW11" s="0"/>
+      <c r="ALX11" s="0"/>
+      <c r="ALY11" s="0"/>
+      <c r="ALZ11" s="16"/>
+      <c r="AMA11" s="16"/>
+      <c r="AMB11" s="16"/>
+      <c r="AMC11" s="16"/>
+      <c r="AMD11" s="16"/>
+      <c r="AME11" s="16"/>
+      <c r="AMF11" s="16"/>
+      <c r="AMG11" s="16"/>
+      <c r="AMH11" s="16"/>
+      <c r="AMI11" s="16"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="ALQ12" s="0"/>
+      <c r="ALR12" s="0"/>
+      <c r="ALS12" s="0"/>
+      <c r="ALT12" s="0"/>
+      <c r="ALU12" s="0"/>
+      <c r="ALV12" s="0"/>
+      <c r="ALW12" s="0"/>
+      <c r="ALX12" s="0"/>
+      <c r="ALY12" s="0"/>
+      <c r="ALZ12" s="16"/>
+      <c r="AMA12" s="16"/>
+      <c r="AMB12" s="16"/>
+      <c r="AMC12" s="16"/>
+      <c r="AMD12" s="16"/>
+      <c r="AME12" s="16"/>
+      <c r="AMF12" s="16"/>
+      <c r="AMG12" s="16"/>
+      <c r="AMH12" s="16"/>
+      <c r="AMI12" s="16"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="77"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="ALQ13" s="0"/>
+      <c r="ALR13" s="0"/>
+      <c r="ALS13" s="0"/>
+      <c r="ALT13" s="0"/>
+      <c r="ALU13" s="0"/>
+      <c r="ALV13" s="0"/>
+      <c r="ALW13" s="0"/>
+      <c r="ALX13" s="0"/>
+      <c r="ALY13" s="0"/>
+      <c r="ALZ13" s="16"/>
+      <c r="AMA13" s="16"/>
+      <c r="AMB13" s="16"/>
+      <c r="AMC13" s="16"/>
+      <c r="AMD13" s="16"/>
+      <c r="AME13" s="16"/>
+      <c r="AMF13" s="16"/>
+      <c r="AMG13" s="16"/>
+      <c r="AMH13" s="16"/>
+      <c r="AMI13" s="16"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="ALQ14" s="0"/>
+      <c r="ALR14" s="0"/>
+      <c r="ALS14" s="0"/>
+      <c r="ALT14" s="0"/>
+      <c r="ALU14" s="0"/>
+      <c r="ALV14" s="0"/>
+      <c r="ALW14" s="0"/>
+      <c r="ALX14" s="0"/>
+      <c r="ALY14" s="0"/>
+      <c r="ALZ14" s="16"/>
+      <c r="AMA14" s="16"/>
+      <c r="AMB14" s="16"/>
+      <c r="AMC14" s="16"/>
+      <c r="AMD14" s="16"/>
+      <c r="AME14" s="16"/>
+      <c r="AMF14" s="16"/>
+      <c r="AMG14" s="16"/>
+      <c r="AMH14" s="16"/>
+      <c r="AMI14" s="16"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
+      <c r="ALQ15" s="0"/>
+      <c r="ALR15" s="0"/>
+      <c r="ALS15" s="0"/>
+      <c r="ALT15" s="0"/>
+      <c r="ALU15" s="0"/>
+      <c r="ALV15" s="0"/>
+      <c r="ALW15" s="0"/>
+      <c r="ALX15" s="0"/>
+      <c r="ALY15" s="0"/>
+      <c r="ALZ15" s="16"/>
+      <c r="AMA15" s="16"/>
+      <c r="AMB15" s="16"/>
+      <c r="AMC15" s="16"/>
+      <c r="AMD15" s="16"/>
+      <c r="AME15" s="16"/>
+      <c r="AMF15" s="16"/>
+      <c r="AMG15" s="16"/>
+      <c r="AMH15" s="16"/>
+      <c r="AMI15" s="16"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="ALQ16" s="0"/>
+      <c r="ALR16" s="0"/>
+      <c r="ALS16" s="0"/>
+      <c r="ALT16" s="0"/>
+      <c r="ALU16" s="0"/>
+      <c r="ALV16" s="0"/>
+      <c r="ALW16" s="0"/>
+      <c r="ALX16" s="0"/>
+      <c r="ALY16" s="0"/>
+      <c r="ALZ16" s="16"/>
+      <c r="AMA16" s="16"/>
+      <c r="AMB16" s="16"/>
+      <c r="AMC16" s="16"/>
+      <c r="AMD16" s="16"/>
+      <c r="AME16" s="16"/>
+      <c r="AMF16" s="16"/>
+      <c r="AMG16" s="16"/>
+      <c r="AMH16" s="16"/>
+      <c r="AMI16" s="16"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="83"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="82" t="n">
+        <f aca="false">SUM(H12:H16)</f>
+        <v>15</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="ALQ17" s="0"/>
+      <c r="ALR17" s="0"/>
+      <c r="ALS17" s="0"/>
+      <c r="ALT17" s="0"/>
+      <c r="ALU17" s="0"/>
+      <c r="ALV17" s="0"/>
+      <c r="ALW17" s="0"/>
+      <c r="ALX17" s="0"/>
+      <c r="ALY17" s="0"/>
+      <c r="ALZ17" s="16"/>
+      <c r="AMA17" s="16"/>
+      <c r="AMB17" s="16"/>
+      <c r="AMC17" s="16"/>
+      <c r="AMD17" s="16"/>
+      <c r="AME17" s="16"/>
+      <c r="AMF17" s="16"/>
+      <c r="AMG17" s="16"/>
+      <c r="AMH17" s="16"/>
+      <c r="AMI17" s="16"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="ALQ18" s="0"/>
+      <c r="ALR18" s="0"/>
+      <c r="ALS18" s="0"/>
+      <c r="ALT18" s="0"/>
+      <c r="ALU18" s="0"/>
+      <c r="ALV18" s="0"/>
+      <c r="ALW18" s="0"/>
+      <c r="ALX18" s="0"/>
+      <c r="ALY18" s="0"/>
+      <c r="ALZ18" s="16"/>
+      <c r="AMA18" s="16"/>
+      <c r="AMB18" s="16"/>
+      <c r="AMC18" s="16"/>
+      <c r="AMD18" s="16"/>
+      <c r="AME18" s="16"/>
+      <c r="AMF18" s="16"/>
+      <c r="AMG18" s="16"/>
+      <c r="AMH18" s="16"/>
+      <c r="AMI18" s="16"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="ALQ19" s="0"/>
+      <c r="ALR19" s="0"/>
+      <c r="ALS19" s="0"/>
+      <c r="ALT19" s="0"/>
+      <c r="ALU19" s="0"/>
+      <c r="ALV19" s="0"/>
+      <c r="ALW19" s="0"/>
+      <c r="ALX19" s="0"/>
+      <c r="ALY19" s="0"/>
+      <c r="ALZ19" s="16"/>
+      <c r="AMA19" s="16"/>
+      <c r="AMB19" s="16"/>
+      <c r="AMC19" s="16"/>
+      <c r="AMD19" s="16"/>
+      <c r="AME19" s="16"/>
+      <c r="AMF19" s="16"/>
+      <c r="AMG19" s="16"/>
+      <c r="AMH19" s="16"/>
+      <c r="AMI19" s="16"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="82" t="n">
+        <f aca="false">SUM(H18:H19)</f>
+        <v>6</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="ALQ20" s="0"/>
+      <c r="ALR20" s="0"/>
+      <c r="ALS20" s="0"/>
+      <c r="ALT20" s="0"/>
+      <c r="ALU20" s="0"/>
+      <c r="ALV20" s="0"/>
+      <c r="ALW20" s="0"/>
+      <c r="ALX20" s="0"/>
+      <c r="ALY20" s="0"/>
+      <c r="ALZ20" s="16"/>
+      <c r="AMA20" s="16"/>
+      <c r="AMB20" s="16"/>
+      <c r="AMC20" s="16"/>
+      <c r="AMD20" s="16"/>
+      <c r="AME20" s="16"/>
+      <c r="AMF20" s="16"/>
+      <c r="AMG20" s="16"/>
+      <c r="AMH20" s="16"/>
+      <c r="AMI20" s="16"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="ALQ21" s="16"/>
+      <c r="ALR21" s="16"/>
+      <c r="ALS21" s="16"/>
+      <c r="ALT21" s="16"/>
+      <c r="ALU21" s="16"/>
+      <c r="ALV21" s="16"/>
+      <c r="ALW21" s="16"/>
+      <c r="ALX21" s="16"/>
+      <c r="ALY21" s="16"/>
+      <c r="ALZ21" s="16"/>
+      <c r="AMA21" s="16"/>
+      <c r="AMB21" s="16"/>
+      <c r="AMC21" s="16"/>
+      <c r="AMD21" s="16"/>
+      <c r="AME21" s="16"/>
+      <c r="AMF21" s="16"/>
+      <c r="AMG21" s="16"/>
+      <c r="AMH21" s="16"/>
+      <c r="AMI21" s="16"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="ALQ22" s="16"/>
+      <c r="ALR22" s="16"/>
+      <c r="ALS22" s="16"/>
+      <c r="ALT22" s="16"/>
+      <c r="ALU22" s="16"/>
+      <c r="ALV22" s="16"/>
+      <c r="ALW22" s="16"/>
+      <c r="ALX22" s="16"/>
+      <c r="ALY22" s="16"/>
+      <c r="ALZ22" s="16"/>
+      <c r="AMA22" s="16"/>
+      <c r="AMB22" s="16"/>
+      <c r="AMC22" s="16"/>
+      <c r="AMD22" s="16"/>
+      <c r="AME22" s="16"/>
+      <c r="AMF22" s="16"/>
+      <c r="AMG22" s="16"/>
+      <c r="AMH22" s="16"/>
+      <c r="AMI22" s="16"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="ALQ23" s="16"/>
+      <c r="ALR23" s="16"/>
+      <c r="ALS23" s="16"/>
+      <c r="ALT23" s="16"/>
+      <c r="ALU23" s="16"/>
+      <c r="ALV23" s="16"/>
+      <c r="ALW23" s="16"/>
+      <c r="ALX23" s="16"/>
+      <c r="ALY23" s="16"/>
+      <c r="ALZ23" s="16"/>
+      <c r="AMA23" s="16"/>
+      <c r="AMB23" s="16"/>
+      <c r="AMC23" s="16"/>
+      <c r="AMD23" s="16"/>
+      <c r="AME23" s="16"/>
+      <c r="AMF23" s="16"/>
+      <c r="AMG23" s="16"/>
+      <c r="AMH23" s="16"/>
+      <c r="AMI23" s="16"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="86" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="ALQ24" s="16"/>
+      <c r="ALR24" s="16"/>
+      <c r="ALS24" s="16"/>
+      <c r="ALT24" s="16"/>
+      <c r="ALU24" s="16"/>
+      <c r="ALV24" s="16"/>
+      <c r="ALW24" s="16"/>
+      <c r="ALX24" s="16"/>
+      <c r="ALY24" s="16"/>
+      <c r="ALZ24" s="16"/>
+      <c r="AMA24" s="16"/>
+      <c r="AMB24" s="16"/>
+      <c r="AMC24" s="16"/>
+      <c r="AMD24" s="16"/>
+      <c r="AME24" s="16"/>
+      <c r="AMF24" s="16"/>
+      <c r="AMG24" s="16"/>
+      <c r="AMH24" s="16"/>
+      <c r="AMI24" s="16"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="ALQ25" s="16"/>
+      <c r="ALR25" s="16"/>
+      <c r="ALS25" s="16"/>
+      <c r="ALT25" s="16"/>
+      <c r="ALU25" s="16"/>
+      <c r="ALV25" s="16"/>
+      <c r="ALW25" s="16"/>
+      <c r="ALX25" s="16"/>
+      <c r="ALY25" s="16"/>
+      <c r="ALZ25" s="16"/>
+      <c r="AMA25" s="16"/>
+      <c r="AMB25" s="16"/>
+      <c r="AMC25" s="16"/>
+      <c r="AMD25" s="16"/>
+      <c r="AME25" s="16"/>
+      <c r="AMF25" s="16"/>
+      <c r="AMG25" s="16"/>
+      <c r="AMH25" s="16"/>
+      <c r="AMI25" s="16"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="82" t="n">
+        <f aca="false">SUM(H21:H25)</f>
+        <v>16</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="ALQ26" s="16"/>
+      <c r="ALR26" s="16"/>
+      <c r="ALS26" s="16"/>
+      <c r="ALT26" s="16"/>
+      <c r="ALU26" s="16"/>
+      <c r="ALV26" s="16"/>
+      <c r="ALW26" s="16"/>
+      <c r="ALX26" s="16"/>
+      <c r="ALY26" s="16"/>
+      <c r="ALZ26" s="16"/>
+      <c r="AMA26" s="16"/>
+      <c r="AMB26" s="16"/>
+      <c r="AMC26" s="16"/>
+      <c r="AMD26" s="16"/>
+      <c r="AME26" s="16"/>
+      <c r="AMF26" s="16"/>
+      <c r="AMG26" s="16"/>
+      <c r="AMH26" s="16"/>
+      <c r="AMI26" s="16"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="ALQ27" s="16"/>
+      <c r="ALR27" s="16"/>
+      <c r="ALS27" s="16"/>
+      <c r="ALT27" s="16"/>
+      <c r="ALU27" s="16"/>
+      <c r="ALV27" s="16"/>
+      <c r="ALW27" s="16"/>
+      <c r="ALX27" s="16"/>
+      <c r="ALY27" s="16"/>
+      <c r="ALZ27" s="16"/>
+      <c r="AMA27" s="16"/>
+      <c r="AMB27" s="16"/>
+      <c r="AMC27" s="16"/>
+      <c r="AMD27" s="16"/>
+      <c r="AME27" s="16"/>
+      <c r="AMF27" s="16"/>
+      <c r="AMG27" s="16"/>
+      <c r="AMH27" s="16"/>
+      <c r="AMI27" s="16"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="15"/>
+      <c r="AJ28" s="15"/>
+      <c r="ALQ28" s="16"/>
+      <c r="ALR28" s="16"/>
+      <c r="ALS28" s="16"/>
+      <c r="ALT28" s="16"/>
+      <c r="ALU28" s="16"/>
+      <c r="ALV28" s="16"/>
+      <c r="ALW28" s="16"/>
+      <c r="ALX28" s="16"/>
+      <c r="ALY28" s="16"/>
+      <c r="ALZ28" s="16"/>
+      <c r="AMA28" s="16"/>
+      <c r="AMB28" s="16"/>
+      <c r="AMC28" s="16"/>
+      <c r="AMD28" s="16"/>
+      <c r="AME28" s="16"/>
+      <c r="AMF28" s="16"/>
+      <c r="AMG28" s="16"/>
+      <c r="AMH28" s="16"/>
+      <c r="AMI28" s="16"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="83"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="82" t="n">
+        <f aca="false">SUM(H27:H28)</f>
+        <v>4</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="ALQ29" s="16"/>
+      <c r="ALR29" s="16"/>
+      <c r="ALS29" s="16"/>
+      <c r="ALT29" s="16"/>
+      <c r="ALU29" s="16"/>
+      <c r="ALV29" s="16"/>
+      <c r="ALW29" s="16"/>
+      <c r="ALX29" s="16"/>
+      <c r="ALY29" s="16"/>
+      <c r="ALZ29" s="16"/>
+      <c r="AMA29" s="16"/>
+      <c r="AMB29" s="16"/>
+      <c r="AMC29" s="16"/>
+      <c r="AMD29" s="16"/>
+      <c r="AME29" s="16"/>
+      <c r="AMF29" s="16"/>
+      <c r="AMG29" s="16"/>
+      <c r="AMH29" s="16"/>
+      <c r="AMI29" s="16"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="ALQ30" s="16"/>
+      <c r="ALR30" s="16"/>
+      <c r="ALS30" s="16"/>
+      <c r="ALT30" s="16"/>
+      <c r="ALU30" s="16"/>
+      <c r="ALV30" s="16"/>
+      <c r="ALW30" s="16"/>
+      <c r="ALX30" s="16"/>
+      <c r="ALY30" s="16"/>
+      <c r="ALZ30" s="16"/>
+      <c r="AMA30" s="16"/>
+      <c r="AMB30" s="16"/>
+      <c r="AMC30" s="16"/>
+      <c r="AMD30" s="16"/>
+      <c r="AME30" s="16"/>
+      <c r="AMF30" s="16"/>
+      <c r="AMG30" s="16"/>
+      <c r="AMH30" s="16"/>
+      <c r="AMI30" s="16"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="77"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="86" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" s="20"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AMA31" s="16"/>
+      <c r="AMB31" s="16"/>
+      <c r="AMC31" s="16"/>
+      <c r="AMD31" s="16"/>
+      <c r="AME31" s="16"/>
+      <c r="AMF31" s="16"/>
+      <c r="AMG31" s="16"/>
+      <c r="AMH31" s="16"/>
+      <c r="AMI31" s="16"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" s="20"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="15"/>
+      <c r="AJ32" s="15"/>
+      <c r="AMA32" s="16"/>
+      <c r="AMB32" s="16"/>
+      <c r="AMC32" s="16"/>
+      <c r="AMD32" s="16"/>
+      <c r="AME32" s="16"/>
+      <c r="AMF32" s="16"/>
+      <c r="AMG32" s="16"/>
+      <c r="AMH32" s="16"/>
+      <c r="AMI32" s="16"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" s="20"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AMA33" s="16"/>
+      <c r="AMB33" s="16"/>
+      <c r="AMC33" s="16"/>
+      <c r="AMD33" s="16"/>
+      <c r="AME33" s="16"/>
+      <c r="AMF33" s="16"/>
+      <c r="AMG33" s="16"/>
+      <c r="AMH33" s="16"/>
+      <c r="AMI33" s="16"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="77"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="20"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="69"/>
+      <c r="T34" s="69"/>
+      <c r="U34" s="69"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="14"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="83"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="82" t="n">
+        <f aca="false">SUM(H30:H34)</f>
+        <v>14</v>
+      </c>
+      <c r="I35" s="20"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="69"/>
+      <c r="T35" s="69"/>
+      <c r="U35" s="69"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="69"/>
+      <c r="T36" s="69"/>
+      <c r="U36" s="69"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="14"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="69"/>
+      <c r="U37" s="69"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="14"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="83"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="82" t="n">
+        <f aca="false">SUM(H36:H37)</f>
+        <v>3</v>
+      </c>
+      <c r="I38" s="20"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14"/>
+      <c r="AI38" s="14"/>
+      <c r="AJ38" s="14"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39" s="20"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="69"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="69"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="14"/>
+      <c r="AI39" s="14"/>
+      <c r="AJ39" s="14"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="69"/>
+      <c r="T40" s="69"/>
+      <c r="U40" s="69"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="14"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="H41" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I41" s="20"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="69"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="69"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="14"/>
+      <c r="AJ41" s="14"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="77"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I42" s="20"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="69"/>
+      <c r="T42" s="69"/>
+      <c r="U42" s="69"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14"/>
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="14"/>
+      <c r="AJ42" s="14"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="77"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I43" s="20"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="69"/>
+      <c r="T43" s="69"/>
+      <c r="U43" s="69"/>
+      <c r="V43" s="50"/>
+      <c r="W43" s="50"/>
+      <c r="X43" s="50"/>
+      <c r="Y43" s="50"/>
+      <c r="Z43" s="50"/>
+      <c r="AA43" s="50"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="14"/>
+      <c r="AI43" s="14"/>
+      <c r="AJ43" s="14"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="82" t="n">
+        <f aca="false">SUM(H39:H43)</f>
+        <v>16</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="69"/>
+      <c r="T44" s="69"/>
+      <c r="U44" s="69"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
+      <c r="AA44" s="50"/>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="14"/>
+      <c r="AG44" s="14"/>
+      <c r="AH44" s="14"/>
+      <c r="AI44" s="14"/>
+      <c r="AJ44" s="14"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="77"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H45" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="69"/>
+      <c r="T45" s="69"/>
+      <c r="U45" s="69"/>
+      <c r="V45" s="50"/>
+      <c r="W45" s="50"/>
+      <c r="X45" s="50"/>
+      <c r="Y45" s="50"/>
+      <c r="Z45" s="50"/>
+      <c r="AA45" s="50"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="14"/>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="14"/>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="14"/>
+      <c r="AI45" s="14"/>
+      <c r="AJ45" s="14"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="77"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="69"/>
+      <c r="T46" s="69"/>
+      <c r="U46" s="69"/>
+      <c r="V46" s="50"/>
+      <c r="W46" s="50"/>
+      <c r="X46" s="50"/>
+      <c r="Y46" s="50"/>
+      <c r="Z46" s="50"/>
+      <c r="AA46" s="50"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="14"/>
+      <c r="AI46" s="14"/>
+      <c r="AJ46" s="14"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="83"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="82" t="n">
+        <f aca="false">SUM(H45:H46)</f>
+        <v>1</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="72"/>
+      <c r="S47" s="69"/>
+      <c r="T47" s="69"/>
+      <c r="U47" s="69"/>
+      <c r="V47" s="50"/>
+      <c r="W47" s="50"/>
+      <c r="X47" s="50"/>
+      <c r="Y47" s="50"/>
+      <c r="Z47" s="50"/>
+      <c r="AA47" s="50"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="14"/>
+      <c r="AF47" s="14"/>
+      <c r="AG47" s="14"/>
+      <c r="AH47" s="14"/>
+      <c r="AI47" s="14"/>
+      <c r="AJ47" s="14"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="H48" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" s="20"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="72"/>
+      <c r="S48" s="69"/>
+      <c r="T48" s="69"/>
+      <c r="U48" s="69"/>
+      <c r="V48" s="50"/>
+      <c r="W48" s="50"/>
+      <c r="X48" s="50"/>
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="14"/>
+      <c r="AG48" s="14"/>
+      <c r="AH48" s="14"/>
+      <c r="AI48" s="14"/>
+      <c r="AJ48" s="14"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="77"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" s="20"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="72"/>
+      <c r="R49" s="72"/>
+      <c r="S49" s="69"/>
+      <c r="T49" s="69"/>
+      <c r="U49" s="69"/>
+      <c r="V49" s="50"/>
+      <c r="W49" s="50"/>
+      <c r="X49" s="50"/>
+      <c r="Y49" s="50"/>
+      <c r="Z49" s="50"/>
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="14"/>
+      <c r="AD49" s="14"/>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="14"/>
+      <c r="AG49" s="14"/>
+      <c r="AH49" s="14"/>
+      <c r="AI49" s="14"/>
+      <c r="AJ49" s="14"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="77"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="H50" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" s="20"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
+      <c r="R50" s="72"/>
+      <c r="S50" s="69"/>
+      <c r="T50" s="69"/>
+      <c r="U50" s="69"/>
+      <c r="V50" s="50"/>
+      <c r="W50" s="50"/>
+      <c r="X50" s="50"/>
+      <c r="Y50" s="50"/>
+      <c r="Z50" s="50"/>
+      <c r="AA50" s="50"/>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="14"/>
+      <c r="AD50" s="14"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="14"/>
+      <c r="AH50" s="14"/>
+      <c r="AI50" s="14"/>
+      <c r="AJ50" s="14"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I51" s="20"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="72"/>
+      <c r="R51" s="72"/>
+      <c r="S51" s="69"/>
+      <c r="T51" s="69"/>
+      <c r="U51" s="69"/>
+      <c r="V51" s="50"/>
+      <c r="W51" s="50"/>
+      <c r="X51" s="50"/>
+      <c r="Y51" s="50"/>
+      <c r="Z51" s="50"/>
+      <c r="AA51" s="50"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="14"/>
+      <c r="AH51" s="14"/>
+      <c r="AI51" s="14"/>
+      <c r="AJ51" s="14"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="77"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="20"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="72"/>
+      <c r="S52" s="69"/>
+      <c r="T52" s="69"/>
+      <c r="U52" s="69"/>
+      <c r="V52" s="50"/>
+      <c r="W52" s="50"/>
+      <c r="X52" s="50"/>
+      <c r="Y52" s="50"/>
+      <c r="Z52" s="50"/>
+      <c r="AA52" s="50"/>
+      <c r="AB52" s="14"/>
+      <c r="AC52" s="14"/>
+      <c r="AD52" s="14"/>
+      <c r="AE52" s="14"/>
+      <c r="AF52" s="14"/>
+      <c r="AG52" s="14"/>
+      <c r="AH52" s="14"/>
+      <c r="AI52" s="14"/>
+      <c r="AJ52" s="14"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="83"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="82" t="n">
+        <f aca="false">SUM(H48:H52)</f>
+        <v>13</v>
+      </c>
+      <c r="I53" s="20"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="72"/>
+      <c r="S53" s="69"/>
+      <c r="T53" s="69"/>
+      <c r="U53" s="69"/>
+      <c r="V53" s="50"/>
+      <c r="W53" s="50"/>
+      <c r="X53" s="50"/>
+      <c r="Y53" s="50"/>
+      <c r="Z53" s="50"/>
+      <c r="AA53" s="50"/>
+      <c r="AB53" s="14"/>
+      <c r="AC53" s="14"/>
+      <c r="AD53" s="14"/>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="14"/>
+      <c r="AH53" s="14"/>
+      <c r="AI53" s="14"/>
+      <c r="AJ53" s="14"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="77"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="I54" s="20"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="69"/>
+      <c r="T54" s="69"/>
+      <c r="U54" s="69"/>
+      <c r="V54" s="50"/>
+      <c r="W54" s="50"/>
+      <c r="X54" s="50"/>
+      <c r="Y54" s="50"/>
+      <c r="Z54" s="50"/>
+      <c r="AA54" s="50"/>
+      <c r="AB54" s="14"/>
+      <c r="AC54" s="14"/>
+      <c r="AD54" s="14"/>
+      <c r="AE54" s="14"/>
+      <c r="AF54" s="14"/>
+      <c r="AG54" s="14"/>
+      <c r="AH54" s="14"/>
+      <c r="AI54" s="14"/>
+      <c r="AJ54" s="14"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="77"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H55" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="I55" s="20"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="72"/>
+      <c r="S55" s="69"/>
+      <c r="T55" s="69"/>
+      <c r="U55" s="69"/>
+      <c r="V55" s="50"/>
+      <c r="W55" s="50"/>
+      <c r="X55" s="50"/>
+      <c r="Y55" s="50"/>
+      <c r="Z55" s="50"/>
+      <c r="AA55" s="50"/>
+      <c r="AB55" s="14"/>
+      <c r="AC55" s="14"/>
+      <c r="AD55" s="14"/>
+      <c r="AE55" s="14"/>
+      <c r="AF55" s="14"/>
+      <c r="AG55" s="14"/>
+      <c r="AH55" s="14"/>
+      <c r="AI55" s="14"/>
+      <c r="AJ55" s="14"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="83"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="82" t="n">
+        <f aca="false">SUM(H54:H55)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="20"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="72"/>
+      <c r="Q56" s="72"/>
+      <c r="R56" s="72"/>
+      <c r="S56" s="69"/>
+      <c r="T56" s="69"/>
+      <c r="U56" s="69"/>
+      <c r="V56" s="50"/>
+      <c r="W56" s="50"/>
+      <c r="X56" s="50"/>
+      <c r="Y56" s="50"/>
+      <c r="Z56" s="50"/>
+      <c r="AA56" s="50"/>
+      <c r="AB56" s="14"/>
+      <c r="AC56" s="14"/>
+      <c r="AD56" s="14"/>
+      <c r="AE56" s="14"/>
+      <c r="AF56" s="14"/>
+      <c r="AG56" s="14"/>
+      <c r="AH56" s="14"/>
+      <c r="AI56" s="14"/>
+      <c r="AJ56" s="14"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="77"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="H57" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" s="20"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="72"/>
+      <c r="Q57" s="72"/>
+      <c r="R57" s="72"/>
+      <c r="S57" s="69"/>
+      <c r="T57" s="69"/>
+      <c r="U57" s="69"/>
+      <c r="V57" s="50"/>
+      <c r="W57" s="50"/>
+      <c r="X57" s="50"/>
+      <c r="Y57" s="50"/>
+      <c r="Z57" s="50"/>
+      <c r="AA57" s="50"/>
+      <c r="AB57" s="14"/>
+      <c r="AC57" s="14"/>
+      <c r="AD57" s="14"/>
+      <c r="AE57" s="14"/>
+      <c r="AF57" s="14"/>
+      <c r="AG57" s="14"/>
+      <c r="AH57" s="14"/>
+      <c r="AI57" s="14"/>
+      <c r="AJ57" s="14"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="77"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="H58" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" s="20"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="72"/>
+      <c r="Q58" s="72"/>
+      <c r="R58" s="72"/>
+      <c r="S58" s="69"/>
+      <c r="T58" s="69"/>
+      <c r="U58" s="69"/>
+      <c r="V58" s="50"/>
+      <c r="W58" s="50"/>
+      <c r="X58" s="50"/>
+      <c r="Y58" s="50"/>
+      <c r="Z58" s="50"/>
+      <c r="AA58" s="50"/>
+      <c r="AB58" s="14"/>
+      <c r="AC58" s="14"/>
+      <c r="AD58" s="14"/>
+      <c r="AE58" s="14"/>
+      <c r="AF58" s="14"/>
+      <c r="AG58" s="14"/>
+      <c r="AH58" s="14"/>
+      <c r="AI58" s="14"/>
+      <c r="AJ58" s="14"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="77"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H59" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" s="20"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="72"/>
+      <c r="Q59" s="72"/>
+      <c r="R59" s="72"/>
+      <c r="S59" s="69"/>
+      <c r="T59" s="69"/>
+      <c r="U59" s="69"/>
+      <c r="V59" s="50"/>
+      <c r="W59" s="50"/>
+      <c r="X59" s="50"/>
+      <c r="Y59" s="50"/>
+      <c r="Z59" s="50"/>
+      <c r="AA59" s="50"/>
+      <c r="AB59" s="14"/>
+      <c r="AC59" s="14"/>
+      <c r="AD59" s="14"/>
+      <c r="AE59" s="14"/>
+      <c r="AF59" s="14"/>
+      <c r="AG59" s="14"/>
+      <c r="AH59" s="14"/>
+      <c r="AI59" s="14"/>
+      <c r="AJ59" s="14"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="H60" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" s="20"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="72"/>
+      <c r="Q60" s="72"/>
+      <c r="R60" s="72"/>
+      <c r="S60" s="69"/>
+      <c r="T60" s="69"/>
+      <c r="U60" s="69"/>
+      <c r="V60" s="50"/>
+      <c r="W60" s="50"/>
+      <c r="X60" s="50"/>
+      <c r="Y60" s="50"/>
+      <c r="Z60" s="50"/>
+      <c r="AA60" s="50"/>
+      <c r="AB60" s="14"/>
+      <c r="AC60" s="14"/>
+      <c r="AD60" s="14"/>
+      <c r="AE60" s="14"/>
+      <c r="AF60" s="14"/>
+      <c r="AG60" s="14"/>
+      <c r="AH60" s="14"/>
+      <c r="AI60" s="14"/>
+      <c r="AJ60" s="14"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="H61" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="I61" s="20"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="72"/>
+      <c r="Q61" s="72"/>
+      <c r="R61" s="72"/>
+      <c r="S61" s="69"/>
+      <c r="T61" s="69"/>
+      <c r="U61" s="69"/>
+      <c r="V61" s="50"/>
+      <c r="W61" s="50"/>
+      <c r="X61" s="50"/>
+      <c r="Y61" s="50"/>
+      <c r="Z61" s="50"/>
+      <c r="AA61" s="50"/>
+      <c r="AB61" s="14"/>
+      <c r="AC61" s="14"/>
+      <c r="AD61" s="14"/>
+      <c r="AE61" s="14"/>
+      <c r="AF61" s="14"/>
+      <c r="AG61" s="14"/>
+      <c r="AH61" s="14"/>
+      <c r="AI61" s="14"/>
+      <c r="AJ61" s="14"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="81"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="82" t="n">
+        <f aca="false">SUM(H57:H61)</f>
+        <v>15</v>
+      </c>
+      <c r="I62" s="20"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="72"/>
+      <c r="Q62" s="72"/>
+      <c r="R62" s="72"/>
+      <c r="S62" s="69"/>
+      <c r="T62" s="69"/>
+      <c r="U62" s="69"/>
+      <c r="V62" s="50"/>
+      <c r="W62" s="50"/>
+      <c r="X62" s="50"/>
+      <c r="Y62" s="50"/>
+      <c r="Z62" s="50"/>
+      <c r="AA62" s="50"/>
+      <c r="AB62" s="14"/>
+      <c r="AC62" s="14"/>
+      <c r="AD62" s="14"/>
+      <c r="AE62" s="14"/>
+      <c r="AF62" s="14"/>
+      <c r="AG62" s="14"/>
+      <c r="AH62" s="14"/>
+      <c r="AI62" s="14"/>
+      <c r="AJ62" s="14"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="67"/>
+      <c r="S63" s="67"/>
+      <c r="T63" s="67"/>
+      <c r="U63" s="67"/>
+      <c r="V63" s="67"/>
+      <c r="W63" s="67"/>
+      <c r="X63" s="67"/>
+      <c r="Y63" s="50"/>
+      <c r="Z63" s="50"/>
+      <c r="AA63" s="50"/>
+      <c r="AB63" s="14"/>
+      <c r="AC63" s="14"/>
+      <c r="AD63" s="14"/>
+      <c r="AE63" s="14"/>
+      <c r="AF63" s="14"/>
+      <c r="AG63" s="14"/>
+      <c r="AH63" s="14"/>
+      <c r="AI63" s="14"/>
+      <c r="AJ63" s="14"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="77"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H64" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="I64" s="20"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
+      <c r="T64" s="67"/>
+      <c r="U64" s="67"/>
+      <c r="V64" s="67"/>
+      <c r="W64" s="67"/>
+      <c r="X64" s="67"/>
+      <c r="Y64" s="50"/>
+      <c r="Z64" s="50"/>
+      <c r="AA64" s="50"/>
+      <c r="AB64" s="14"/>
+      <c r="AC64" s="14"/>
+      <c r="AD64" s="14"/>
+      <c r="AE64" s="14"/>
+      <c r="AF64" s="14"/>
+      <c r="AG64" s="14"/>
+      <c r="AH64" s="14"/>
+      <c r="AI64" s="14"/>
+      <c r="AJ64" s="14"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="77"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H65" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" s="20"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="67"/>
+      <c r="T65" s="67"/>
+      <c r="U65" s="67"/>
+      <c r="V65" s="67"/>
+      <c r="W65" s="67"/>
+      <c r="X65" s="67"/>
+      <c r="Y65" s="50"/>
+      <c r="Z65" s="50"/>
+      <c r="AA65" s="50"/>
+      <c r="AB65" s="14"/>
+      <c r="AC65" s="14"/>
+      <c r="AD65" s="14"/>
+      <c r="AE65" s="14"/>
+      <c r="AF65" s="14"/>
+      <c r="AG65" s="14"/>
+      <c r="AH65" s="14"/>
+      <c r="AI65" s="14"/>
+      <c r="AJ65" s="14"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="83"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="82" t="n">
+        <f aca="false">SUM(H64:H65)</f>
+        <v>1</v>
+      </c>
+      <c r="I66" s="20"/>
+      <c r="J66" s="58"/>
+      <c r="K66" s="67"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="67"/>
+      <c r="O66" s="67"/>
+      <c r="P66" s="67"/>
+      <c r="Q66" s="67"/>
+      <c r="R66" s="67"/>
+      <c r="S66" s="67"/>
+      <c r="T66" s="67"/>
+      <c r="U66" s="67"/>
+      <c r="V66" s="67"/>
+      <c r="W66" s="67"/>
+      <c r="X66" s="67"/>
+      <c r="Y66" s="50"/>
+      <c r="Z66" s="50"/>
+      <c r="AA66" s="50"/>
+      <c r="AB66" s="14"/>
+      <c r="AC66" s="14"/>
+      <c r="AD66" s="14"/>
+      <c r="AE66" s="14"/>
+      <c r="AF66" s="14"/>
+      <c r="AG66" s="14"/>
+      <c r="AH66" s="14"/>
+      <c r="AI66" s="14"/>
+      <c r="AJ66" s="14"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="77"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G67" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="H67" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I67" s="20"/>
+      <c r="J67" s="58"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="67"/>
+      <c r="M67" s="67"/>
+      <c r="N67" s="67"/>
+      <c r="O67" s="67"/>
+      <c r="P67" s="67"/>
+      <c r="Q67" s="67"/>
+      <c r="R67" s="67"/>
+      <c r="S67" s="67"/>
+      <c r="T67" s="67"/>
+      <c r="U67" s="67"/>
+      <c r="V67" s="67"/>
+      <c r="W67" s="67"/>
+      <c r="X67" s="67"/>
+      <c r="Y67" s="50"/>
+      <c r="Z67" s="50"/>
+      <c r="AA67" s="50"/>
+      <c r="AB67" s="14"/>
+      <c r="AC67" s="14"/>
+      <c r="AD67" s="14"/>
+      <c r="AE67" s="14"/>
+      <c r="AF67" s="14"/>
+      <c r="AG67" s="14"/>
+      <c r="AH67" s="14"/>
+      <c r="AI67" s="14"/>
+      <c r="AJ67" s="14"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="77"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G68" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="H68" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" s="20"/>
+      <c r="J68" s="58"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="67"/>
+      <c r="N68" s="67"/>
+      <c r="O68" s="67"/>
+      <c r="P68" s="67"/>
+      <c r="Q68" s="67"/>
+      <c r="R68" s="67"/>
+      <c r="S68" s="67"/>
+      <c r="T68" s="67"/>
+      <c r="U68" s="67"/>
+      <c r="V68" s="67"/>
+      <c r="W68" s="67"/>
+      <c r="X68" s="67"/>
+      <c r="Y68" s="50"/>
+      <c r="Z68" s="50"/>
+      <c r="AA68" s="50"/>
+      <c r="AB68" s="14"/>
+      <c r="AC68" s="14"/>
+      <c r="AD68" s="14"/>
+      <c r="AE68" s="14"/>
+      <c r="AF68" s="14"/>
+      <c r="AG68" s="14"/>
+      <c r="AH68" s="14"/>
+      <c r="AI68" s="14"/>
+      <c r="AJ68" s="14"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="77"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="H69" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" s="20"/>
+      <c r="J69" s="58"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="67"/>
+      <c r="N69" s="67"/>
+      <c r="O69" s="67"/>
+      <c r="P69" s="67"/>
+      <c r="Q69" s="67"/>
+      <c r="R69" s="67"/>
+      <c r="S69" s="67"/>
+      <c r="T69" s="67"/>
+      <c r="U69" s="67"/>
+      <c r="V69" s="67"/>
+      <c r="W69" s="67"/>
+      <c r="X69" s="67"/>
+      <c r="Y69" s="50"/>
+      <c r="Z69" s="50"/>
+      <c r="AA69" s="50"/>
+      <c r="AB69" s="14"/>
+      <c r="AC69" s="14"/>
+      <c r="AD69" s="14"/>
+      <c r="AE69" s="14"/>
+      <c r="AF69" s="14"/>
+      <c r="AG69" s="14"/>
+      <c r="AH69" s="14"/>
+      <c r="AI69" s="14"/>
+      <c r="AJ69" s="14"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="H70" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="67"/>
+      <c r="M70" s="67"/>
+      <c r="N70" s="67"/>
+      <c r="O70" s="67"/>
+      <c r="P70" s="67"/>
+      <c r="Q70" s="67"/>
+      <c r="R70" s="67"/>
+      <c r="S70" s="67"/>
+      <c r="T70" s="67"/>
+      <c r="U70" s="67"/>
+      <c r="V70" s="67"/>
+      <c r="W70" s="67"/>
+      <c r="X70" s="67"/>
+      <c r="Y70" s="14"/>
+      <c r="Z70" s="14"/>
+      <c r="AA70" s="14"/>
+      <c r="AB70" s="14"/>
+      <c r="AC70" s="14"/>
+      <c r="AD70" s="14"/>
+      <c r="AE70" s="14"/>
+      <c r="AF70" s="14"/>
+      <c r="AG70" s="14"/>
+      <c r="AH70" s="14"/>
+      <c r="AI70" s="14"/>
+      <c r="AJ70" s="14"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="77"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G71" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="H71" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="67"/>
+      <c r="L71" s="67"/>
+      <c r="M71" s="67"/>
+      <c r="N71" s="67"/>
+      <c r="O71" s="67"/>
+      <c r="P71" s="67"/>
+      <c r="Q71" s="67"/>
+      <c r="R71" s="67"/>
+      <c r="S71" s="67"/>
+      <c r="T71" s="67"/>
+      <c r="U71" s="67"/>
+      <c r="V71" s="67"/>
+      <c r="W71" s="67"/>
+      <c r="X71" s="67"/>
+      <c r="Y71" s="14"/>
+      <c r="Z71" s="14"/>
+      <c r="AA71" s="14"/>
+      <c r="AB71" s="14"/>
+      <c r="AC71" s="14"/>
+      <c r="AD71" s="14"/>
+      <c r="AE71" s="14"/>
+      <c r="AF71" s="14"/>
+      <c r="AG71" s="14"/>
+      <c r="AH71" s="14"/>
+      <c r="AI71" s="14"/>
+      <c r="AJ71" s="14"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="83"/>
+      <c r="B72" s="83"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="82" t="n">
+        <f aca="false">SUM(H67:H71)</f>
+        <v>12</v>
+      </c>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="67"/>
+      <c r="L72" s="67"/>
+      <c r="M72" s="67"/>
+      <c r="N72" s="67"/>
+      <c r="O72" s="67"/>
+      <c r="P72" s="67"/>
+      <c r="Q72" s="67"/>
+      <c r="R72" s="67"/>
+      <c r="S72" s="67"/>
+      <c r="T72" s="67"/>
+      <c r="U72" s="67"/>
+      <c r="V72" s="67"/>
+      <c r="W72" s="67"/>
+      <c r="X72" s="67"/>
+      <c r="Y72" s="14"/>
+      <c r="Z72" s="14"/>
+      <c r="AA72" s="14"/>
+      <c r="AB72" s="14"/>
+      <c r="AC72" s="14"/>
+      <c r="AD72" s="14"/>
+      <c r="AE72" s="14"/>
+      <c r="AF72" s="14"/>
+      <c r="AG72" s="14"/>
+      <c r="AH72" s="14"/>
+      <c r="AI72" s="14"/>
+      <c r="AJ72" s="14"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="14"/>
+      <c r="T73" s="14"/>
+      <c r="U73" s="14"/>
+      <c r="V73" s="14"/>
+      <c r="W73" s="14"/>
+      <c r="X73" s="14"/>
+      <c r="Y73" s="14"/>
+      <c r="Z73" s="14"/>
+      <c r="AA73" s="14"/>
+      <c r="AB73" s="14"/>
+      <c r="AC73" s="14"/>
+      <c r="AD73" s="14"/>
+      <c r="AE73" s="14"/>
+      <c r="AF73" s="14"/>
+      <c r="AG73" s="14"/>
+      <c r="AH73" s="14"/>
+      <c r="AI73" s="14"/>
+      <c r="AJ73" s="14"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="14"/>
+      <c r="V74" s="14"/>
+      <c r="W74" s="14"/>
+      <c r="X74" s="14"/>
+      <c r="Y74" s="14"/>
+      <c r="Z74" s="14"/>
+      <c r="AA74" s="14"/>
+      <c r="AB74" s="14"/>
+      <c r="AC74" s="14"/>
+      <c r="AD74" s="14"/>
+      <c r="AE74" s="14"/>
+      <c r="AF74" s="14"/>
+      <c r="AG74" s="14"/>
+      <c r="AH74" s="14"/>
+      <c r="AI74" s="14"/>
+      <c r="AJ74" s="14"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
+      <c r="T75" s="14"/>
+      <c r="U75" s="14"/>
+      <c r="V75" s="14"/>
+      <c r="W75" s="14"/>
+      <c r="X75" s="14"/>
+      <c r="Y75" s="14"/>
+      <c r="Z75" s="14"/>
+      <c r="AA75" s="14"/>
+      <c r="AB75" s="14"/>
+      <c r="AC75" s="14"/>
+      <c r="AD75" s="14"/>
+      <c r="AE75" s="14"/>
+      <c r="AF75" s="14"/>
+      <c r="AG75" s="14"/>
+      <c r="AH75" s="14"/>
+      <c r="AI75" s="14"/>
+      <c r="AJ75" s="14"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
+      <c r="T76" s="14"/>
+      <c r="U76" s="14"/>
+      <c r="V76" s="14"/>
+      <c r="W76" s="14"/>
+      <c r="X76" s="14"/>
+      <c r="Y76" s="14"/>
+      <c r="Z76" s="14"/>
+      <c r="AA76" s="14"/>
+      <c r="AB76" s="14"/>
+      <c r="AC76" s="14"/>
+      <c r="AD76" s="14"/>
+      <c r="AE76" s="14"/>
+      <c r="AF76" s="14"/>
+      <c r="AG76" s="14"/>
+      <c r="AH76" s="14"/>
+      <c r="AI76" s="14"/>
+      <c r="AJ76" s="14"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="14"/>
+      <c r="S77" s="14"/>
+      <c r="T77" s="14"/>
+      <c r="U77" s="14"/>
+      <c r="V77" s="14"/>
+      <c r="W77" s="14"/>
+      <c r="X77" s="14"/>
+      <c r="Y77" s="14"/>
+      <c r="Z77" s="14"/>
+      <c r="AA77" s="14"/>
+      <c r="AB77" s="14"/>
+      <c r="AC77" s="14"/>
+      <c r="AD77" s="14"/>
+      <c r="AE77" s="14"/>
+      <c r="AF77" s="14"/>
+      <c r="AG77" s="14"/>
+      <c r="AH77" s="14"/>
+      <c r="AI77" s="14"/>
+      <c r="AJ77" s="14"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="14"/>
+      <c r="T78" s="14"/>
+      <c r="U78" s="14"/>
+      <c r="V78" s="14"/>
+      <c r="W78" s="14"/>
+      <c r="X78" s="14"/>
+      <c r="Y78" s="14"/>
+      <c r="Z78" s="14"/>
+      <c r="AA78" s="14"/>
+      <c r="AB78" s="14"/>
+      <c r="AC78" s="14"/>
+      <c r="AD78" s="14"/>
+      <c r="AE78" s="14"/>
+      <c r="AF78" s="14"/>
+      <c r="AG78" s="14"/>
+      <c r="AH78" s="14"/>
+      <c r="AI78" s="14"/>
+      <c r="AJ78" s="14"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="14"/>
+      <c r="T79" s="14"/>
+      <c r="U79" s="14"/>
+      <c r="V79" s="14"/>
+      <c r="W79" s="14"/>
+      <c r="X79" s="14"/>
+      <c r="Y79" s="14"/>
+      <c r="Z79" s="14"/>
+      <c r="AA79" s="14"/>
+      <c r="AB79" s="14"/>
+      <c r="AC79" s="14"/>
+      <c r="AD79" s="14"/>
+      <c r="AE79" s="14"/>
+      <c r="AF79" s="14"/>
+      <c r="AG79" s="14"/>
+      <c r="AH79" s="14"/>
+      <c r="AI79" s="14"/>
+      <c r="AJ79" s="14"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="14"/>
+      <c r="U80" s="14"/>
+      <c r="V80" s="14"/>
+      <c r="W80" s="14"/>
+      <c r="X80" s="14"/>
+      <c r="Y80" s="14"/>
+      <c r="Z80" s="14"/>
+      <c r="AA80" s="14"/>
+      <c r="AB80" s="14"/>
+      <c r="AC80" s="14"/>
+      <c r="AD80" s="14"/>
+      <c r="AE80" s="14"/>
+      <c r="AF80" s="14"/>
+      <c r="AG80" s="14"/>
+      <c r="AH80" s="14"/>
+      <c r="AI80" s="14"/>
+      <c r="AJ80" s="14"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
+      <c r="R81" s="14"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="14"/>
+      <c r="U81" s="14"/>
+      <c r="V81" s="14"/>
+      <c r="W81" s="14"/>
+      <c r="X81" s="14"/>
+      <c r="Y81" s="14"/>
+      <c r="Z81" s="14"/>
+      <c r="AA81" s="14"/>
+      <c r="AB81" s="14"/>
+      <c r="AC81" s="14"/>
+      <c r="AD81" s="14"/>
+      <c r="AE81" s="14"/>
+      <c r="AF81" s="14"/>
+      <c r="AG81" s="14"/>
+      <c r="AH81" s="14"/>
+      <c r="AI81" s="14"/>
+      <c r="AJ81" s="14"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="14"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="14"/>
+      <c r="W82" s="14"/>
+      <c r="X82" s="14"/>
+      <c r="Y82" s="14"/>
+      <c r="Z82" s="14"/>
+      <c r="AA82" s="14"/>
+      <c r="AB82" s="14"/>
+      <c r="AC82" s="14"/>
+      <c r="AD82" s="14"/>
+      <c r="AE82" s="14"/>
+      <c r="AF82" s="14"/>
+      <c r="AG82" s="14"/>
+      <c r="AH82" s="14"/>
+      <c r="AI82" s="14"/>
+      <c r="AJ82" s="14"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="14"/>
+      <c r="U83" s="14"/>
+      <c r="V83" s="14"/>
+      <c r="W83" s="14"/>
+      <c r="X83" s="14"/>
+      <c r="Y83" s="14"/>
+      <c r="Z83" s="14"/>
+      <c r="AA83" s="14"/>
+      <c r="AB83" s="14"/>
+      <c r="AC83" s="14"/>
+      <c r="AD83" s="14"/>
+      <c r="AE83" s="14"/>
+      <c r="AF83" s="14"/>
+      <c r="AG83" s="14"/>
+      <c r="AH83" s="14"/>
+      <c r="AI83" s="14"/>
+      <c r="AJ83" s="14"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="14"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="14"/>
+      <c r="W84" s="14"/>
+      <c r="X84" s="14"/>
+      <c r="Y84" s="14"/>
+      <c r="Z84" s="14"/>
+      <c r="AA84" s="14"/>
+      <c r="AB84" s="14"/>
+      <c r="AC84" s="14"/>
+      <c r="AD84" s="14"/>
+      <c r="AE84" s="14"/>
+      <c r="AF84" s="14"/>
+      <c r="AG84" s="14"/>
+      <c r="AH84" s="14"/>
+      <c r="AI84" s="14"/>
+      <c r="AJ84" s="14"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="14"/>
+      <c r="R85" s="14"/>
+      <c r="S85" s="14"/>
+      <c r="T85" s="14"/>
+      <c r="U85" s="14"/>
+      <c r="V85" s="14"/>
+      <c r="W85" s="14"/>
+      <c r="X85" s="14"/>
+      <c r="Y85" s="14"/>
+      <c r="Z85" s="14"/>
+      <c r="AA85" s="14"/>
+      <c r="AB85" s="14"/>
+      <c r="AC85" s="14"/>
+      <c r="AD85" s="14"/>
+      <c r="AE85" s="14"/>
+      <c r="AF85" s="14"/>
+      <c r="AG85" s="14"/>
+      <c r="AH85" s="14"/>
+      <c r="AI85" s="14"/>
+      <c r="AJ85" s="14"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="14"/>
+      <c r="U86" s="14"/>
+      <c r="V86" s="14"/>
+      <c r="W86" s="14"/>
+      <c r="X86" s="14"/>
+      <c r="Y86" s="14"/>
+      <c r="Z86" s="14"/>
+      <c r="AA86" s="14"/>
+      <c r="AB86" s="14"/>
+      <c r="AC86" s="14"/>
+      <c r="AD86" s="14"/>
+      <c r="AE86" s="14"/>
+      <c r="AF86" s="14"/>
+      <c r="AG86" s="14"/>
+      <c r="AH86" s="14"/>
+      <c r="AI86" s="14"/>
+      <c r="AJ86" s="14"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="14"/>
+      <c r="Q87" s="14"/>
+      <c r="R87" s="14"/>
+      <c r="S87" s="14"/>
+      <c r="T87" s="14"/>
+      <c r="U87" s="14"/>
+      <c r="V87" s="14"/>
+      <c r="W87" s="14"/>
+      <c r="X87" s="14"/>
+      <c r="Y87" s="14"/>
+      <c r="Z87" s="14"/>
+      <c r="AA87" s="14"/>
+      <c r="AB87" s="14"/>
+      <c r="AC87" s="14"/>
+      <c r="AD87" s="14"/>
+      <c r="AE87" s="14"/>
+      <c r="AF87" s="14"/>
+      <c r="AG87" s="14"/>
+      <c r="AH87" s="14"/>
+      <c r="AI87" s="14"/>
+      <c r="AJ87" s="14"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
+      <c r="R88" s="14"/>
+      <c r="S88" s="14"/>
+      <c r="T88" s="14"/>
+      <c r="U88" s="14"/>
+      <c r="V88" s="14"/>
+      <c r="W88" s="14"/>
+      <c r="X88" s="14"/>
+      <c r="Y88" s="14"/>
+      <c r="Z88" s="14"/>
+      <c r="AA88" s="14"/>
+      <c r="AB88" s="14"/>
+      <c r="AC88" s="14"/>
+      <c r="AD88" s="14"/>
+      <c r="AE88" s="14"/>
+      <c r="AF88" s="14"/>
+      <c r="AG88" s="14"/>
+      <c r="AH88" s="14"/>
+      <c r="AI88" s="14"/>
+      <c r="AJ88" s="14"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="14"/>
+      <c r="Q89" s="14"/>
+      <c r="R89" s="14"/>
+      <c r="S89" s="14"/>
+      <c r="T89" s="14"/>
+      <c r="U89" s="14"/>
+      <c r="V89" s="14"/>
+      <c r="W89" s="14"/>
+      <c r="X89" s="14"/>
+      <c r="Y89" s="14"/>
+      <c r="Z89" s="14"/>
+      <c r="AA89" s="14"/>
+      <c r="AB89" s="14"/>
+      <c r="AC89" s="14"/>
+      <c r="AD89" s="14"/>
+      <c r="AE89" s="14"/>
+      <c r="AF89" s="14"/>
+      <c r="AG89" s="14"/>
+      <c r="AH89" s="14"/>
+      <c r="AI89" s="14"/>
+      <c r="AJ89" s="14"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="14"/>
+      <c r="Q90" s="14"/>
+      <c r="R90" s="14"/>
+      <c r="S90" s="14"/>
+      <c r="T90" s="14"/>
+      <c r="U90" s="14"/>
+      <c r="V90" s="14"/>
+      <c r="W90" s="14"/>
+      <c r="X90" s="14"/>
+      <c r="Y90" s="14"/>
+      <c r="Z90" s="14"/>
+      <c r="AA90" s="14"/>
+      <c r="AB90" s="14"/>
+      <c r="AC90" s="14"/>
+      <c r="AD90" s="14"/>
+      <c r="AE90" s="14"/>
+      <c r="AF90" s="14"/>
+      <c r="AG90" s="14"/>
+      <c r="AH90" s="14"/>
+      <c r="AI90" s="14"/>
+      <c r="AJ90" s="14"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="14"/>
+      <c r="Q91" s="14"/>
+      <c r="R91" s="14"/>
+      <c r="S91" s="14"/>
+      <c r="T91" s="14"/>
+      <c r="U91" s="14"/>
+      <c r="V91" s="14"/>
+      <c r="W91" s="14"/>
+      <c r="X91" s="14"/>
+      <c r="Y91" s="14"/>
+      <c r="Z91" s="14"/>
+      <c r="AA91" s="14"/>
+      <c r="AB91" s="14"/>
+      <c r="AC91" s="14"/>
+      <c r="AD91" s="14"/>
+      <c r="AE91" s="14"/>
+      <c r="AF91" s="14"/>
+      <c r="AG91" s="14"/>
+      <c r="AH91" s="14"/>
+      <c r="AI91" s="14"/>
+      <c r="AJ91" s="14"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="14"/>
+      <c r="Q92" s="14"/>
+      <c r="R92" s="14"/>
+      <c r="S92" s="14"/>
+      <c r="T92" s="14"/>
+      <c r="U92" s="14"/>
+      <c r="V92" s="14"/>
+      <c r="W92" s="14"/>
+      <c r="X92" s="14"/>
+      <c r="Y92" s="14"/>
+      <c r="Z92" s="14"/>
+      <c r="AA92" s="14"/>
+      <c r="AB92" s="14"/>
+      <c r="AC92" s="14"/>
+      <c r="AD92" s="14"/>
+      <c r="AE92" s="14"/>
+      <c r="AF92" s="14"/>
+      <c r="AG92" s="14"/>
+      <c r="AH92" s="14"/>
+      <c r="AI92" s="14"/>
+      <c r="AJ92" s="14"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="14"/>
+      <c r="Q93" s="14"/>
+      <c r="R93" s="14"/>
+      <c r="S93" s="14"/>
+      <c r="T93" s="14"/>
+      <c r="U93" s="14"/>
+      <c r="V93" s="14"/>
+      <c r="W93" s="14"/>
+      <c r="X93" s="14"/>
+      <c r="Y93" s="14"/>
+      <c r="Z93" s="14"/>
+      <c r="AA93" s="14"/>
+      <c r="AB93" s="14"/>
+      <c r="AC93" s="14"/>
+      <c r="AD93" s="14"/>
+      <c r="AE93" s="14"/>
+      <c r="AF93" s="14"/>
+      <c r="AG93" s="14"/>
+      <c r="AH93" s="14"/>
+      <c r="AI93" s="14"/>
+      <c r="AJ93" s="14"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="14"/>
+      <c r="Q94" s="14"/>
+      <c r="R94" s="14"/>
+      <c r="S94" s="14"/>
+      <c r="T94" s="14"/>
+      <c r="U94" s="14"/>
+      <c r="V94" s="14"/>
+      <c r="W94" s="14"/>
+      <c r="X94" s="14"/>
+      <c r="Y94" s="14"/>
+      <c r="Z94" s="14"/>
+      <c r="AA94" s="14"/>
+      <c r="AB94" s="14"/>
+      <c r="AC94" s="14"/>
+      <c r="AD94" s="14"/>
+      <c r="AE94" s="14"/>
+      <c r="AF94" s="14"/>
+      <c r="AG94" s="14"/>
+      <c r="AH94" s="14"/>
+      <c r="AI94" s="14"/>
+      <c r="AJ94" s="14"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="14"/>
+      <c r="Q95" s="14"/>
+      <c r="R95" s="14"/>
+      <c r="S95" s="14"/>
+      <c r="T95" s="14"/>
+      <c r="U95" s="14"/>
+      <c r="V95" s="14"/>
+      <c r="W95" s="14"/>
+      <c r="X95" s="14"/>
+      <c r="Y95" s="14"/>
+      <c r="Z95" s="14"/>
+      <c r="AA95" s="14"/>
+      <c r="AB95" s="14"/>
+      <c r="AC95" s="14"/>
+      <c r="AD95" s="14"/>
+      <c r="AE95" s="14"/>
+      <c r="AF95" s="14"/>
+      <c r="AG95" s="14"/>
+      <c r="AH95" s="14"/>
+      <c r="AI95" s="14"/>
+      <c r="AJ95" s="14"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="14"/>
+      <c r="Q96" s="14"/>
+      <c r="R96" s="14"/>
+      <c r="S96" s="14"/>
+      <c r="T96" s="14"/>
+      <c r="U96" s="14"/>
+      <c r="V96" s="14"/>
+      <c r="W96" s="14"/>
+      <c r="X96" s="14"/>
+      <c r="Y96" s="14"/>
+      <c r="Z96" s="14"/>
+      <c r="AA96" s="14"/>
+      <c r="AB96" s="14"/>
+      <c r="AC96" s="14"/>
+      <c r="AD96" s="14"/>
+      <c r="AE96" s="14"/>
+      <c r="AF96" s="14"/>
+      <c r="AG96" s="14"/>
+      <c r="AH96" s="14"/>
+      <c r="AI96" s="14"/>
+      <c r="AJ96" s="14"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="14"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="14"/>
+      <c r="R97" s="14"/>
+      <c r="S97" s="14"/>
+      <c r="T97" s="14"/>
+      <c r="U97" s="14"/>
+      <c r="V97" s="14"/>
+      <c r="W97" s="14"/>
+      <c r="X97" s="14"/>
+      <c r="Y97" s="14"/>
+      <c r="Z97" s="14"/>
+      <c r="AA97" s="14"/>
+      <c r="AB97" s="14"/>
+      <c r="AC97" s="14"/>
+      <c r="AD97" s="14"/>
+      <c r="AE97" s="14"/>
+      <c r="AF97" s="14"/>
+      <c r="AG97" s="14"/>
+      <c r="AH97" s="14"/>
+      <c r="AI97" s="14"/>
+      <c r="AJ97" s="14"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="14"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="14"/>
+      <c r="Q98" s="14"/>
+      <c r="R98" s="14"/>
+      <c r="S98" s="14"/>
+      <c r="T98" s="14"/>
+      <c r="U98" s="14"/>
+      <c r="V98" s="14"/>
+      <c r="W98" s="14"/>
+      <c r="X98" s="14"/>
+      <c r="Y98" s="14"/>
+      <c r="Z98" s="14"/>
+      <c r="AA98" s="14"/>
+      <c r="AB98" s="14"/>
+      <c r="AC98" s="14"/>
+      <c r="AD98" s="14"/>
+      <c r="AE98" s="14"/>
+      <c r="AF98" s="14"/>
+      <c r="AG98" s="14"/>
+      <c r="AH98" s="14"/>
+      <c r="AI98" s="14"/>
+      <c r="AJ98" s="14"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="14"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="14"/>
+      <c r="Q99" s="14"/>
+      <c r="R99" s="14"/>
+      <c r="S99" s="14"/>
+      <c r="T99" s="14"/>
+      <c r="U99" s="14"/>
+      <c r="V99" s="14"/>
+      <c r="W99" s="14"/>
+      <c r="X99" s="14"/>
+      <c r="Y99" s="14"/>
+      <c r="Z99" s="14"/>
+      <c r="AA99" s="14"/>
+      <c r="AB99" s="14"/>
+      <c r="AC99" s="14"/>
+      <c r="AD99" s="14"/>
+      <c r="AE99" s="14"/>
+      <c r="AF99" s="14"/>
+      <c r="AG99" s="14"/>
+      <c r="AH99" s="14"/>
+      <c r="AI99" s="14"/>
+      <c r="AJ99" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F48:F52"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F67:F71"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="107.540816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="131.760204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.780612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
+      <c r="A1" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="73" t="n">
+      <c r="A2" s="89" t="n">
         <v>42303</v>
       </c>
-      <c r="B2" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
+      <c r="B2" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="73" t="n">
+      <c r="A3" s="89" t="n">
         <v>42304</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
+      <c r="B3" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="73" t="n">
+      <c r="A4" s="89" t="n">
         <v>42305</v>
       </c>
-      <c r="B4" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
+      <c r="B4" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="91"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="76" t="n">
+      <c r="A5" s="92" t="n">
         <v>42324</v>
       </c>
-      <c r="B5" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
+      <c r="B5" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="76" t="n">
+      <c r="A6" s="92" t="n">
         <v>42325</v>
       </c>
-      <c r="B6" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
+      <c r="B6" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="76" t="n">
+      <c r="A7" s="92" t="n">
         <v>42327</v>
       </c>
-      <c r="B7" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
+      <c r="B7" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="88"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="76" t="n">
+      <c r="A8" s="92" t="n">
         <v>42352</v>
       </c>
-      <c r="B8" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
+      <c r="B8" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="76" t="n">
+      <c r="A9" s="92" t="n">
         <v>42352</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="72"/>
+      <c r="B9" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="76" t="n">
+      <c r="A10" s="92" t="n">
+        <v>42356</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="88"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="92" t="n">
         <v>42435</v>
       </c>
-      <c r="B10" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="72"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="76" t="n">
+      <c r="B11" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="88"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="92" t="n">
         <v>42703</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="72"/>
+      <c r="B12" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="88"/>
+      <c r="B13" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" display="http://superuser.com/questions/246979/how-do-you-auto-resize-cells-in-excel"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/absconbest_payroll/absconbest_payroll.xlsx
+++ b/absconbest_payroll/absconbest_payroll.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="170">
   <si>
     <t xml:space="preserve">Activity</t>
   </si>
@@ -135,7 +135,7 @@
     <t xml:space="preserve">Time in hours</t>
   </si>
   <si>
-    <t xml:space="preserve">PLAN: Philosophy Major, Physics Minor, and Honors in Mathematics Major</t>
+    <t xml:space="preserve">CLASS LIST</t>
   </si>
   <si>
     <t xml:space="preserve">Day</t>
@@ -147,6 +147,9 @@
     <t xml:space="preserve">End Time</t>
   </si>
   <si>
+    <t xml:space="preserve">Room</t>
+  </si>
+  <si>
     <t xml:space="preserve">Instructor</t>
   </si>
   <si>
@@ -156,7 +159,7 @@
     <t xml:space="preserve">Code</t>
   </si>
   <si>
-    <t xml:space="preserve">Credit (hrs)</t>
+    <t xml:space="preserve">Credit</t>
   </si>
   <si>
     <t xml:space="preserve">Calculus 2</t>
@@ -171,24 +174,45 @@
     <t xml:space="preserve">General Physics 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Alton</t>
+  </si>
+  <si>
     <t xml:space="preserve">PHYS 221</t>
   </si>
   <si>
     <t xml:space="preserve">Thinking Like Plutarch And Cicero</t>
   </si>
   <si>
+    <t xml:space="preserve">-M-W-F-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. O'Hara</t>
+  </si>
+  <si>
     <t xml:space="preserve">FYS 110</t>
   </si>
   <si>
     <t xml:space="preserve">Introduction to British Literary History</t>
   </si>
   <si>
+    <t xml:space="preserve">--T-R--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hicks</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENGL 230</t>
   </si>
   <si>
     <t xml:space="preserve">Walking and Hiking</t>
   </si>
   <si>
+    <t xml:space="preserve">-M-W---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholten</t>
+  </si>
+  <si>
     <t xml:space="preserve">PE 119</t>
   </si>
   <si>
@@ -225,7 +249,7 @@
     <t xml:space="preserve">PHYS 222</t>
   </si>
   <si>
-    <t xml:space="preserve">Keep Calm and Solve for x</t>
+    <t xml:space="preserve">What Does it Mean to be Human?</t>
   </si>
   <si>
     <t xml:space="preserve">FYS 111</t>
@@ -264,18 +288,18 @@
     <t xml:space="preserve">MATH 310</t>
   </si>
   <si>
+    <t xml:space="preserve">Modern Physics 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHYS 371</t>
+  </si>
+  <si>
     <t xml:space="preserve">Our Philosophical Heritage 1</t>
   </si>
   <si>
     <t xml:space="preserve">PHIL 220</t>
   </si>
   <si>
-    <t xml:space="preserve">Modern Physics 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHYS 371</t>
-  </si>
-  <si>
     <t xml:space="preserve">Computer Science 1</t>
   </si>
   <si>
@@ -333,6 +357,18 @@
     <t xml:space="preserve">MATH 220</t>
   </si>
   <si>
+    <t xml:space="preserve">Birth, Death and the History of Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOL 205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Will and Moral Responsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIL 309</t>
+  </si>
+  <si>
     <t xml:space="preserve">Politics in a Diverse World</t>
   </si>
   <si>
@@ -345,18 +381,6 @@
     <t xml:space="preserve">ENGL 200</t>
   </si>
   <si>
-    <t xml:space="preserve">Life Cycles: Birth, Death and the History of Medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOL 205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free Will and Moral Responsibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIL 309</t>
-  </si>
-  <si>
     <t xml:space="preserve">↑ 2019</t>
   </si>
   <si>
@@ -384,6 +408,9 @@
     <t xml:space="preserve">ART 101</t>
   </si>
   <si>
+    <t xml:space="preserve">Maybe Germany or Greece</t>
+  </si>
+  <si>
     <t xml:space="preserve">Topology</t>
   </si>
   <si>
@@ -423,6 +450,12 @@
     <t xml:space="preserve">MATH 335</t>
   </si>
   <si>
+    <t xml:space="preserve">Independent Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHYS 399</t>
+  </si>
+  <si>
     <t xml:space="preserve">History of Mathematics</t>
   </si>
   <si>
@@ -433,12 +466,6 @@
   </si>
   <si>
     <t xml:space="preserve">MATH 490</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Independent Study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHYS 399</t>
   </si>
   <si>
     <t xml:space="preserve">Date</t>
@@ -519,8 +546,8 @@
     <numFmt numFmtId="168" formatCode="[$$-409]#,##0;[RED]\-[$$-409]#,##0"/>
     <numFmt numFmtId="169" formatCode="MMM\ D&quot;, &quot;YYYY"/>
     <numFmt numFmtId="170" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="171" formatCode="HH:MM\ AM/PM"/>
-    <numFmt numFmtId="172" formatCode="@"/>
+    <numFmt numFmtId="171" formatCode="@"/>
+    <numFmt numFmtId="172" formatCode="HH:MM"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -626,8 +653,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -731,7 +759,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="106">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1032,52 +1060,100 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1192,9 +1268,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>941040</xdr:colOff>
+      <xdr:colOff>939240</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1207,8 +1283,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12198960" y="0"/>
-          <a:ext cx="880560" cy="226800"/>
+          <a:off x="11595240" y="0"/>
+          <a:ext cx="878760" cy="225000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1230,30 +1306,29 @@
   </sheetPr>
   <dimension ref="1:81"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5510204081633"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="13.1479591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="7.30612244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="8.05612244897959"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="17.2244897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="15.9285714285714"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="29.7244897959184"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="27.8061224489796"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="2" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="14.7244897959184"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="16.7397959183673"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="7.83163265306122"/>
     <col collapsed="false" hidden="false" max="1025" min="23" style="2" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -5317,30 +5392,32 @@
   </sheetPr>
   <dimension ref="1:99"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="12.6887755102041"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="22.8112244897959"/>
     <col collapsed="false" hidden="false" max="15" min="14" style="2" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="16.7397959183673"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="7.83163265306122"/>
     <col collapsed="false" hidden="false" max="1023" min="22" style="2" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.0765306122449"/>
   </cols>
@@ -5356,7 +5433,7 @@
       <c r="F1" s="74"/>
       <c r="G1" s="74"/>
       <c r="H1" s="74"/>
-      <c r="I1" s="14"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -5367,11 +5444,11 @@
       <c r="Q1" s="15"/>
       <c r="R1" s="15"/>
       <c r="S1" s="15"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
       <c r="Z1" s="15"/>
       <c r="AA1" s="15"/>
@@ -5397,32 +5474,34 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="76"/>
+      <c r="I2" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
@@ -5432,11 +5511,11 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
       <c r="Y2" s="15"/>
       <c r="Z2" s="15"/>
       <c r="AA2" s="15"/>
@@ -5470,24 +5549,24 @@
       <c r="AMI2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54" t="s">
+      <c r="A3" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="80" t="n">
+      <c r="H3" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="80" t="n">
         <v>4</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="76"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
@@ -5497,11 +5576,11 @@
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="15"/>
@@ -5535,24 +5614,28 @@
       <c r="AMI3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="79" t="s">
+      <c r="A4" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="80" t="n">
+      <c r="B4" s="0"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="2" t="n">
+        <v>376</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="80" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="76"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
@@ -5562,11 +5645,11 @@
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
@@ -5600,24 +5683,34 @@
       <c r="AMI4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="80" t="n">
+      <c r="A5" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="81" t="n">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="D5" s="81" t="n">
+        <v>0.493055555555556</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="80" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="76"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
@@ -5627,11 +5720,11 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
@@ -5665,24 +5758,34 @@
       <c r="AMI5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="80" t="n">
+      <c r="A6" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="81" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D6" s="81" t="n">
+        <v>0.597222222222222</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="80" t="n">
         <v>3</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="76"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
@@ -5692,11 +5795,11 @@
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
@@ -5730,24 +5833,34 @@
       <c r="AMI6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="80" t="n">
+      <c r="A7" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="81" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D7" s="81" t="n">
+        <v>0.597222222222222</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="F7" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="76"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -5757,11 +5870,11 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
@@ -5795,21 +5908,21 @@
       <c r="AMI7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82" t="n">
-        <f aca="false">SUM(H3:H7)</f>
+      <c r="A8" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="85" t="n">
+        <f aca="false">SUM(I3:I7)</f>
         <v>16</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="76"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
@@ -5819,11 +5932,11 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
@@ -5857,24 +5970,24 @@
       <c r="AMI8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="80" t="n">
+      <c r="A9" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="80" t="n">
         <v>3</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="76"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
@@ -5884,11 +5997,11 @@
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
@@ -5922,24 +6035,24 @@
       <c r="AMI9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="80" t="n">
+      <c r="A10" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="76"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -5949,11 +6062,11 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
@@ -5987,19 +6100,19 @@
       <c r="AMI10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="83"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="82" t="n">
-        <f aca="false">SUM(H9:H10)</f>
+      <c r="A11" s="86"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="85" t="n">
+        <f aca="false">SUM(I9:I10)</f>
         <v>4</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="76"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
@@ -6009,11 +6122,11 @@
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
@@ -6047,24 +6160,24 @@
       <c r="AMI11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="80" t="n">
+      <c r="A12" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="80" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="76"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -6074,11 +6187,11 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
@@ -6112,24 +6225,24 @@
       <c r="AMI12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="80" t="n">
+      <c r="A13" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="80" t="n">
         <v>4</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="76"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
@@ -6139,11 +6252,11 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
       <c r="AA13" s="15"/>
@@ -6177,24 +6290,24 @@
       <c r="AMI13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="80" t="n">
+      <c r="A14" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="80" t="n">
         <v>4</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="76"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
@@ -6204,11 +6317,11 @@
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
@@ -6242,25 +6355,25 @@
       <c r="AMI14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="80" t="n">
+      <c r="A15" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="80" t="n">
         <v>3</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
@@ -6269,11 +6382,11 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
@@ -6307,25 +6420,25 @@
       <c r="AMI15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="79" t="s">
+      <c r="A16" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="80" t="n">
+      <c r="H16" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
@@ -6334,11 +6447,11 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
@@ -6372,20 +6485,20 @@
       <c r="AMI16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="82" t="n">
-        <f aca="false">SUM(H12:H16)</f>
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="85" t="n">
+        <f aca="false">SUM(I12:I16)</f>
         <v>15</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
@@ -6394,11 +6507,11 @@
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
       <c r="AA17" s="15"/>
@@ -6432,25 +6545,25 @@
       <c r="AMI17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="80" t="n">
+      <c r="A18" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="0"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="80" t="n">
         <v>3</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
@@ -6459,11 +6572,11 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="15"/>
@@ -6497,25 +6610,25 @@
       <c r="AMI18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="80" t="n">
+      <c r="A19" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="0"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="80" t="n">
         <v>3</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
@@ -6524,11 +6637,11 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="15"/>
@@ -6562,22 +6675,22 @@
       <c r="AMI19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="82" t="n">
-        <f aca="false">SUM(H18:H19)</f>
+      <c r="A20" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="85" t="n">
+        <f aca="false">SUM(I18:I19)</f>
         <v>6</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
@@ -6586,11 +6699,11 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
       <c r="AA20" s="15"/>
@@ -6624,31 +6737,31 @@
       <c r="AMI20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="80" t="n">
+      <c r="A21" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="0"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="80" t="n">
         <v>3</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
@@ -6689,31 +6802,31 @@
       <c r="AMI21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="80" t="n">
+      <c r="A22" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="0"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="80" t="n">
         <v>3</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
       <c r="T22" s="15"/>
@@ -6754,31 +6867,31 @@
       <c r="AMI22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="80" t="n">
+      <c r="A23" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="0"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="80" t="n">
         <v>3</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
@@ -6819,31 +6932,31 @@
       <c r="AMI23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="86" t="n">
+      <c r="A24" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="0"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="91" t="n">
         <v>4</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -6884,31 +6997,31 @@
       <c r="AMI24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="80" t="n">
+      <c r="A25" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="0"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="80" t="n">
         <v>3</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
@@ -6949,28 +7062,28 @@
       <c r="AMI25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="82" t="n">
-        <f aca="false">SUM(H21:H25)</f>
+      <c r="A26" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="85" t="n">
+        <f aca="false">SUM(I21:I25)</f>
         <v>16</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
       <c r="T26" s="15"/>
@@ -7011,31 +7124,31 @@
       <c r="AMI26" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="80" t="n">
+      <c r="A27" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="80" t="n">
         <v>3</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
       <c r="T27" s="15"/>
@@ -7076,31 +7189,31 @@
       <c r="AMI27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="80" t="n">
+      <c r="A28" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="0"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
@@ -7141,26 +7254,26 @@
       <c r="AMI28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="83"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="82" t="n">
-        <f aca="false">SUM(H27:H28)</f>
+      <c r="A29" s="86"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="85" t="n">
+        <f aca="false">SUM(I27:I28)</f>
         <v>4</v>
       </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
@@ -7201,31 +7314,31 @@
       <c r="AMI29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="80" t="n">
+      <c r="A30" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="0"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" s="80" t="n">
         <v>3</v>
       </c>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
       <c r="T30" s="15"/>
@@ -7266,38 +7379,38 @@
       <c r="AMI30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="86" t="n">
+      <c r="A31" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="0"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="91" t="n">
         <v>4</v>
       </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
       <c r="S31" s="15"/>
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
       <c r="W31" s="15"/>
-      <c r="X31" s="13"/>
+      <c r="X31" s="15"/>
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
       <c r="AA31" s="15"/>
@@ -7321,36 +7434,36 @@
       <c r="AMI31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
+      <c r="A32" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
       <c r="E32" s="0"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" s="77" t="n">
+      <c r="F32" s="78"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
       <c r="AA32" s="15"/>
@@ -7374,38 +7487,38 @@
       <c r="AMI32" s="16"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="77" t="n">
+      <c r="A33" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="0"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
       <c r="AA33" s="15"/>
@@ -7428,2761 +7541,2789 @@
       <c r="AMH33" s="16"/>
       <c r="AMI33" s="16"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" s="79" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="0"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="80" t="n">
+      <c r="H34" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="14"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="83"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="82" t="n">
-        <f aca="false">SUM(H30:H34)</f>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
+      <c r="AJ34" s="15"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="85" t="n">
+        <f aca="false">SUM(I30:I34)</f>
         <v>14</v>
       </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="69"/>
-      <c r="U35" s="69"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="14"/>
-      <c r="AD35" s="14"/>
-      <c r="AE35" s="14"/>
-      <c r="AF35" s="14"/>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="14"/>
-      <c r="AI35" s="14"/>
-      <c r="AJ35" s="14"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="H36" s="77" t="n">
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="15"/>
+      <c r="AJ35" s="15"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="0"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="69"/>
-      <c r="T36" s="69"/>
-      <c r="U36" s="69"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50"/>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="14"/>
-      <c r="AD36" s="14"/>
-      <c r="AE36" s="14"/>
-      <c r="AF36" s="14"/>
-      <c r="AG36" s="14"/>
-      <c r="AH36" s="14"/>
-      <c r="AI36" s="14"/>
-      <c r="AJ36" s="14"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="H37" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="69"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="14"/>
-      <c r="AC37" s="14"/>
-      <c r="AD37" s="14"/>
-      <c r="AE37" s="14"/>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="14"/>
-      <c r="AI37" s="14"/>
-      <c r="AJ37" s="14"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="83"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="82" t="n">
-        <f aca="false">SUM(H36:H37)</f>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="15"/>
+      <c r="AJ36" s="15"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="0"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="15"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="15"/>
+      <c r="AH37" s="15"/>
+      <c r="AI37" s="15"/>
+      <c r="AJ37" s="15"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="86"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="85" t="n">
+        <f aca="false">SUM(I36:I37)</f>
         <v>3</v>
       </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="69"/>
-      <c r="U38" s="69"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="50"/>
-      <c r="AA38" s="50"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="14"/>
-      <c r="AH38" s="14"/>
-      <c r="AI38" s="14"/>
-      <c r="AJ38" s="14"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="H39" s="80" t="n">
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="15"/>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38" s="15"/>
+      <c r="AI38" s="15"/>
+      <c r="AJ38" s="15"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="0"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="80" t="n">
         <v>3</v>
       </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="69"/>
-      <c r="T39" s="69"/>
-      <c r="U39" s="69"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="14"/>
-      <c r="AC39" s="14"/>
-      <c r="AD39" s="14"/>
-      <c r="AE39" s="14"/>
-      <c r="AF39" s="14"/>
-      <c r="AG39" s="14"/>
-      <c r="AH39" s="14"/>
-      <c r="AI39" s="14"/>
-      <c r="AJ39" s="14"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="15"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" s="77" t="n">
+        <v>111</v>
+      </c>
+      <c r="B40" s="0"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="15"/>
+      <c r="AJ40" s="15"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="0"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="I41" s="80" t="n">
         <v>3</v>
       </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="69"/>
-      <c r="T40" s="69"/>
-      <c r="U40" s="69"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="50"/>
-      <c r="AA40" s="50"/>
-      <c r="AB40" s="14"/>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="14"/>
-      <c r="AE40" s="14"/>
-      <c r="AF40" s="14"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="14"/>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="14"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="77"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="H41" s="80" t="n">
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="15"/>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="15"/>
+      <c r="AH41" s="15"/>
+      <c r="AI41" s="15"/>
+      <c r="AJ41" s="15"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="0"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="72"/>
-      <c r="S41" s="69"/>
-      <c r="T41" s="69"/>
-      <c r="U41" s="69"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
-      <c r="AD41" s="14"/>
-      <c r="AE41" s="14"/>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="14"/>
-      <c r="AI41" s="14"/>
-      <c r="AJ41" s="14"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" s="79" t="s">
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="15"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="15"/>
+      <c r="AI42" s="15"/>
+      <c r="AJ42" s="15"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="0"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="15"/>
+      <c r="AE43" s="15"/>
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="15"/>
+      <c r="AH43" s="15"/>
+      <c r="AI43" s="15"/>
+      <c r="AJ43" s="15"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="85" t="n">
+        <f aca="false">SUM(I39:I43)</f>
+        <v>16</v>
+      </c>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="15"/>
+      <c r="AI44" s="15"/>
+      <c r="AJ44" s="15"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="H42" s="80" t="n">
+      <c r="B45" s="0"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="15"/>
+      <c r="AD45" s="15"/>
+      <c r="AE45" s="15"/>
+      <c r="AF45" s="15"/>
+      <c r="AG45" s="15"/>
+      <c r="AH45" s="15"/>
+      <c r="AI45" s="15"/>
+      <c r="AJ45" s="15"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="0"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="15"/>
+      <c r="AH46" s="15"/>
+      <c r="AI46" s="15"/>
+      <c r="AJ46" s="15"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="86"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="85" t="n">
+        <f aca="false">SUM(I45:I46)</f>
+        <v>1</v>
+      </c>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="15"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="15"/>
+      <c r="AH47" s="15"/>
+      <c r="AI47" s="15"/>
+      <c r="AJ47" s="15"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="0"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="0"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="I48" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="15"/>
+      <c r="AH48" s="15"/>
+      <c r="AI48" s="15"/>
+      <c r="AJ48" s="15"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="0"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="I49" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="15"/>
+      <c r="AD49" s="15"/>
+      <c r="AE49" s="15"/>
+      <c r="AF49" s="15"/>
+      <c r="AG49" s="15"/>
+      <c r="AH49" s="15"/>
+      <c r="AI49" s="15"/>
+      <c r="AJ49" s="15"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="0"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="0"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="I50" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="15"/>
+      <c r="AF50" s="15"/>
+      <c r="AG50" s="15"/>
+      <c r="AH50" s="15"/>
+      <c r="AI50" s="15"/>
+      <c r="AJ50" s="15"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="0"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="0"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="I51" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="15"/>
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="15"/>
+      <c r="AD51" s="15"/>
+      <c r="AE51" s="15"/>
+      <c r="AF51" s="15"/>
+      <c r="AG51" s="15"/>
+      <c r="AH51" s="15"/>
+      <c r="AI51" s="15"/>
+      <c r="AJ51" s="15"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="0"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="0"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15"/>
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
+      <c r="AG52" s="15"/>
+      <c r="AH52" s="15"/>
+      <c r="AI52" s="15"/>
+      <c r="AJ52" s="15"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="86"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="85" t="n">
+        <f aca="false">SUM(I48:I52)</f>
+        <v>13</v>
+      </c>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="15"/>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="15"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="15"/>
+      <c r="AD53" s="15"/>
+      <c r="AE53" s="15"/>
+      <c r="AF53" s="15"/>
+      <c r="AG53" s="15"/>
+      <c r="AH53" s="15"/>
+      <c r="AI53" s="15"/>
+      <c r="AJ53" s="15"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="0"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="0"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I54" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="15"/>
+      <c r="AF54" s="15"/>
+      <c r="AG54" s="15"/>
+      <c r="AH54" s="15"/>
+      <c r="AI54" s="15"/>
+      <c r="AJ54" s="15"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="0"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I55" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="15"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="15"/>
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="15"/>
+      <c r="AF55" s="15"/>
+      <c r="AG55" s="15"/>
+      <c r="AH55" s="15"/>
+      <c r="AI55" s="15"/>
+      <c r="AJ55" s="15"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="86"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="85" t="n">
+        <f aca="false">SUM(I54:I55)</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="15"/>
+      <c r="AF56" s="15"/>
+      <c r="AG56" s="15"/>
+      <c r="AH56" s="15"/>
+      <c r="AI56" s="15"/>
+      <c r="AJ56" s="15"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="0"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="I57" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="15"/>
+      <c r="AB57" s="15"/>
+      <c r="AC57" s="15"/>
+      <c r="AD57" s="15"/>
+      <c r="AE57" s="15"/>
+      <c r="AF57" s="15"/>
+      <c r="AG57" s="15"/>
+      <c r="AH57" s="15"/>
+      <c r="AI57" s="15"/>
+      <c r="AJ57" s="15"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="0"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="I58" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="15"/>
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="15"/>
+      <c r="AE58" s="15"/>
+      <c r="AF58" s="15"/>
+      <c r="AG58" s="15"/>
+      <c r="AH58" s="15"/>
+      <c r="AI58" s="15"/>
+      <c r="AJ58" s="15"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="0"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="94"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I59" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="15"/>
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="15"/>
+      <c r="AC59" s="15"/>
+      <c r="AD59" s="15"/>
+      <c r="AE59" s="15"/>
+      <c r="AF59" s="15"/>
+      <c r="AG59" s="15"/>
+      <c r="AH59" s="15"/>
+      <c r="AI59" s="15"/>
+      <c r="AJ59" s="15"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="94"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="95"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="I60" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="15"/>
+      <c r="U60" s="15"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="15"/>
+      <c r="X60" s="15"/>
+      <c r="Y60" s="15"/>
+      <c r="Z60" s="15"/>
+      <c r="AA60" s="15"/>
+      <c r="AB60" s="15"/>
+      <c r="AC60" s="15"/>
+      <c r="AD60" s="15"/>
+      <c r="AE60" s="15"/>
+      <c r="AF60" s="15"/>
+      <c r="AG60" s="15"/>
+      <c r="AH60" s="15"/>
+      <c r="AI60" s="15"/>
+      <c r="AJ60" s="15"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="94"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="I61" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="15"/>
+      <c r="Z61" s="15"/>
+      <c r="AA61" s="15"/>
+      <c r="AB61" s="15"/>
+      <c r="AC61" s="15"/>
+      <c r="AD61" s="15"/>
+      <c r="AE61" s="15"/>
+      <c r="AF61" s="15"/>
+      <c r="AG61" s="15"/>
+      <c r="AH61" s="15"/>
+      <c r="AI61" s="15"/>
+      <c r="AJ61" s="15"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="83"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="85" t="n">
+        <f aca="false">SUM(I57:I61)</f>
+        <v>15</v>
+      </c>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="15"/>
+      <c r="Z62" s="15"/>
+      <c r="AA62" s="15"/>
+      <c r="AB62" s="15"/>
+      <c r="AC62" s="15"/>
+      <c r="AD62" s="15"/>
+      <c r="AE62" s="15"/>
+      <c r="AF62" s="15"/>
+      <c r="AG62" s="15"/>
+      <c r="AH62" s="15"/>
+      <c r="AI62" s="15"/>
+      <c r="AJ62" s="15"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="67"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="87"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="97"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="15"/>
+      <c r="Z63" s="15"/>
+      <c r="AA63" s="15"/>
+      <c r="AB63" s="15"/>
+      <c r="AC63" s="15"/>
+      <c r="AD63" s="15"/>
+      <c r="AE63" s="15"/>
+      <c r="AF63" s="15"/>
+      <c r="AG63" s="15"/>
+      <c r="AH63" s="15"/>
+      <c r="AI63" s="15"/>
+      <c r="AJ63" s="15"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="0"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="94"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I64" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="15"/>
+      <c r="Z64" s="15"/>
+      <c r="AA64" s="15"/>
+      <c r="AB64" s="15"/>
+      <c r="AC64" s="15"/>
+      <c r="AD64" s="15"/>
+      <c r="AE64" s="15"/>
+      <c r="AF64" s="15"/>
+      <c r="AG64" s="15"/>
+      <c r="AH64" s="15"/>
+      <c r="AI64" s="15"/>
+      <c r="AJ64" s="15"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="0"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="94"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I65" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="15"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="15"/>
+      <c r="Z65" s="15"/>
+      <c r="AA65" s="15"/>
+      <c r="AB65" s="15"/>
+      <c r="AC65" s="15"/>
+      <c r="AD65" s="15"/>
+      <c r="AE65" s="15"/>
+      <c r="AF65" s="15"/>
+      <c r="AG65" s="15"/>
+      <c r="AH65" s="15"/>
+      <c r="AI65" s="15"/>
+      <c r="AJ65" s="15"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="86"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="87"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="85" t="n">
+        <f aca="false">SUM(I64:I65)</f>
+        <v>1</v>
+      </c>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="15"/>
+      <c r="Z66" s="15"/>
+      <c r="AA66" s="15"/>
+      <c r="AB66" s="15"/>
+      <c r="AC66" s="15"/>
+      <c r="AD66" s="15"/>
+      <c r="AE66" s="15"/>
+      <c r="AF66" s="15"/>
+      <c r="AG66" s="15"/>
+      <c r="AH66" s="15"/>
+      <c r="AI66" s="15"/>
+      <c r="AJ66" s="15"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="0"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H67" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="I67" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="15"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="15"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="15"/>
+      <c r="AB67" s="15"/>
+      <c r="AC67" s="15"/>
+      <c r="AD67" s="15"/>
+      <c r="AE67" s="15"/>
+      <c r="AF67" s="15"/>
+      <c r="AG67" s="15"/>
+      <c r="AH67" s="15"/>
+      <c r="AI67" s="15"/>
+      <c r="AJ67" s="15"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="94"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="94"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="I68" s="80" t="n">
         <v>4</v>
       </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="72"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="69"/>
-      <c r="U42" s="69"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="14"/>
-      <c r="AC42" s="14"/>
-      <c r="AD42" s="14"/>
-      <c r="AE42" s="14"/>
-      <c r="AF42" s="14"/>
-      <c r="AG42" s="14"/>
-      <c r="AH42" s="14"/>
-      <c r="AI42" s="14"/>
-      <c r="AJ42" s="14"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G43" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" s="80" t="n">
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="15"/>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="15"/>
+      <c r="Z68" s="15"/>
+      <c r="AA68" s="15"/>
+      <c r="AB68" s="15"/>
+      <c r="AC68" s="15"/>
+      <c r="AD68" s="15"/>
+      <c r="AE68" s="15"/>
+      <c r="AF68" s="15"/>
+      <c r="AG68" s="15"/>
+      <c r="AH68" s="15"/>
+      <c r="AI68" s="15"/>
+      <c r="AJ68" s="15"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="0"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="94"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H69" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="I69" s="80" t="n">
         <v>3</v>
       </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="69"/>
-      <c r="T43" s="69"/>
-      <c r="U43" s="69"/>
-      <c r="V43" s="50"/>
-      <c r="W43" s="50"/>
-      <c r="X43" s="50"/>
-      <c r="Y43" s="50"/>
-      <c r="Z43" s="50"/>
-      <c r="AA43" s="50"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="14"/>
-      <c r="AI43" s="14"/>
-      <c r="AJ43" s="14"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="82" t="n">
-        <f aca="false">SUM(H39:H43)</f>
-        <v>16</v>
-      </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="69"/>
-      <c r="T44" s="69"/>
-      <c r="U44" s="69"/>
-      <c r="V44" s="50"/>
-      <c r="W44" s="50"/>
-      <c r="X44" s="50"/>
-      <c r="Y44" s="50"/>
-      <c r="Z44" s="50"/>
-      <c r="AA44" s="50"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="14"/>
-      <c r="AH44" s="14"/>
-      <c r="AI44" s="14"/>
-      <c r="AJ44" s="14"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="H45" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="69"/>
-      <c r="T45" s="69"/>
-      <c r="U45" s="69"/>
-      <c r="V45" s="50"/>
-      <c r="W45" s="50"/>
-      <c r="X45" s="50"/>
-      <c r="Y45" s="50"/>
-      <c r="Z45" s="50"/>
-      <c r="AA45" s="50"/>
-      <c r="AB45" s="14"/>
-      <c r="AC45" s="14"/>
-      <c r="AD45" s="14"/>
-      <c r="AE45" s="14"/>
-      <c r="AF45" s="14"/>
-      <c r="AG45" s="14"/>
-      <c r="AH45" s="14"/>
-      <c r="AI45" s="14"/>
-      <c r="AJ45" s="14"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="77"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H46" s="80" t="n">
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
+      <c r="Z69" s="15"/>
+      <c r="AA69" s="15"/>
+      <c r="AB69" s="15"/>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15"/>
+      <c r="AE69" s="15"/>
+      <c r="AF69" s="15"/>
+      <c r="AG69" s="15"/>
+      <c r="AH69" s="15"/>
+      <c r="AI69" s="15"/>
+      <c r="AJ69" s="15"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="0"/>
+      <c r="C70" s="93"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="94"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="I70" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="72"/>
-      <c r="S46" s="69"/>
-      <c r="T46" s="69"/>
-      <c r="U46" s="69"/>
-      <c r="V46" s="50"/>
-      <c r="W46" s="50"/>
-      <c r="X46" s="50"/>
-      <c r="Y46" s="50"/>
-      <c r="Z46" s="50"/>
-      <c r="AA46" s="50"/>
-      <c r="AB46" s="14"/>
-      <c r="AC46" s="14"/>
-      <c r="AD46" s="14"/>
-      <c r="AE46" s="14"/>
-      <c r="AF46" s="14"/>
-      <c r="AG46" s="14"/>
-      <c r="AH46" s="14"/>
-      <c r="AI46" s="14"/>
-      <c r="AJ46" s="14"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="83"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="82" t="n">
-        <f aca="false">SUM(H45:H46)</f>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
+      <c r="U70" s="15"/>
+      <c r="V70" s="15"/>
+      <c r="W70" s="15"/>
+      <c r="X70" s="15"/>
+      <c r="Y70" s="15"/>
+      <c r="Z70" s="15"/>
+      <c r="AA70" s="15"/>
+      <c r="AB70" s="15"/>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="15"/>
+      <c r="AE70" s="15"/>
+      <c r="AF70" s="15"/>
+      <c r="AG70" s="15"/>
+      <c r="AH70" s="15"/>
+      <c r="AI70" s="15"/>
+      <c r="AJ70" s="15"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="0"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H71" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="I71" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="72"/>
-      <c r="R47" s="72"/>
-      <c r="S47" s="69"/>
-      <c r="T47" s="69"/>
-      <c r="U47" s="69"/>
-      <c r="V47" s="50"/>
-      <c r="W47" s="50"/>
-      <c r="X47" s="50"/>
-      <c r="Y47" s="50"/>
-      <c r="Z47" s="50"/>
-      <c r="AA47" s="50"/>
-      <c r="AB47" s="14"/>
-      <c r="AC47" s="14"/>
-      <c r="AD47" s="14"/>
-      <c r="AE47" s="14"/>
-      <c r="AF47" s="14"/>
-      <c r="AG47" s="14"/>
-      <c r="AH47" s="14"/>
-      <c r="AI47" s="14"/>
-      <c r="AJ47" s="14"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="H48" s="80" t="n">
-        <v>3</v>
-      </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="72"/>
-      <c r="Q48" s="72"/>
-      <c r="R48" s="72"/>
-      <c r="S48" s="69"/>
-      <c r="T48" s="69"/>
-      <c r="U48" s="69"/>
-      <c r="V48" s="50"/>
-      <c r="W48" s="50"/>
-      <c r="X48" s="50"/>
-      <c r="Y48" s="50"/>
-      <c r="Z48" s="50"/>
-      <c r="AA48" s="50"/>
-      <c r="AB48" s="14"/>
-      <c r="AC48" s="14"/>
-      <c r="AD48" s="14"/>
-      <c r="AE48" s="14"/>
-      <c r="AF48" s="14"/>
-      <c r="AG48" s="14"/>
-      <c r="AH48" s="14"/>
-      <c r="AI48" s="14"/>
-      <c r="AJ48" s="14"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="80" t="n">
-        <v>3</v>
-      </c>
-      <c r="I49" s="20"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="72"/>
-      <c r="Q49" s="72"/>
-      <c r="R49" s="72"/>
-      <c r="S49" s="69"/>
-      <c r="T49" s="69"/>
-      <c r="U49" s="69"/>
-      <c r="V49" s="50"/>
-      <c r="W49" s="50"/>
-      <c r="X49" s="50"/>
-      <c r="Y49" s="50"/>
-      <c r="Z49" s="50"/>
-      <c r="AA49" s="50"/>
-      <c r="AB49" s="14"/>
-      <c r="AC49" s="14"/>
-      <c r="AD49" s="14"/>
-      <c r="AE49" s="14"/>
-      <c r="AF49" s="14"/>
-      <c r="AG49" s="14"/>
-      <c r="AH49" s="14"/>
-      <c r="AI49" s="14"/>
-      <c r="AJ49" s="14"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G50" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="H50" s="80" t="n">
-        <v>3</v>
-      </c>
-      <c r="I50" s="20"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="72"/>
-      <c r="Q50" s="72"/>
-      <c r="R50" s="72"/>
-      <c r="S50" s="69"/>
-      <c r="T50" s="69"/>
-      <c r="U50" s="69"/>
-      <c r="V50" s="50"/>
-      <c r="W50" s="50"/>
-      <c r="X50" s="50"/>
-      <c r="Y50" s="50"/>
-      <c r="Z50" s="50"/>
-      <c r="AA50" s="50"/>
-      <c r="AB50" s="14"/>
-      <c r="AC50" s="14"/>
-      <c r="AD50" s="14"/>
-      <c r="AE50" s="14"/>
-      <c r="AF50" s="14"/>
-      <c r="AG50" s="14"/>
-      <c r="AH50" s="14"/>
-      <c r="AI50" s="14"/>
-      <c r="AJ50" s="14"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" s="77"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="H51" s="80" t="n">
-        <v>3</v>
-      </c>
-      <c r="I51" s="20"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="72"/>
-      <c r="Q51" s="72"/>
-      <c r="R51" s="72"/>
-      <c r="S51" s="69"/>
-      <c r="T51" s="69"/>
-      <c r="U51" s="69"/>
-      <c r="V51" s="50"/>
-      <c r="W51" s="50"/>
-      <c r="X51" s="50"/>
-      <c r="Y51" s="50"/>
-      <c r="Z51" s="50"/>
-      <c r="AA51" s="50"/>
-      <c r="AB51" s="14"/>
-      <c r="AC51" s="14"/>
-      <c r="AD51" s="14"/>
-      <c r="AE51" s="14"/>
-      <c r="AF51" s="14"/>
-      <c r="AG51" s="14"/>
-      <c r="AH51" s="14"/>
-      <c r="AI51" s="14"/>
-      <c r="AJ51" s="14"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="77"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="H52" s="80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" s="20"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="72"/>
-      <c r="Q52" s="72"/>
-      <c r="R52" s="72"/>
-      <c r="S52" s="69"/>
-      <c r="T52" s="69"/>
-      <c r="U52" s="69"/>
-      <c r="V52" s="50"/>
-      <c r="W52" s="50"/>
-      <c r="X52" s="50"/>
-      <c r="Y52" s="50"/>
-      <c r="Z52" s="50"/>
-      <c r="AA52" s="50"/>
-      <c r="AB52" s="14"/>
-      <c r="AC52" s="14"/>
-      <c r="AD52" s="14"/>
-      <c r="AE52" s="14"/>
-      <c r="AF52" s="14"/>
-      <c r="AG52" s="14"/>
-      <c r="AH52" s="14"/>
-      <c r="AI52" s="14"/>
-      <c r="AJ52" s="14"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="83"/>
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="82" t="n">
-        <f aca="false">SUM(H48:H52)</f>
-        <v>13</v>
-      </c>
-      <c r="I53" s="20"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="72"/>
-      <c r="Q53" s="72"/>
-      <c r="R53" s="72"/>
-      <c r="S53" s="69"/>
-      <c r="T53" s="69"/>
-      <c r="U53" s="69"/>
-      <c r="V53" s="50"/>
-      <c r="W53" s="50"/>
-      <c r="X53" s="50"/>
-      <c r="Y53" s="50"/>
-      <c r="Z53" s="50"/>
-      <c r="AA53" s="50"/>
-      <c r="AB53" s="14"/>
-      <c r="AC53" s="14"/>
-      <c r="AD53" s="14"/>
-      <c r="AE53" s="14"/>
-      <c r="AF53" s="14"/>
-      <c r="AG53" s="14"/>
-      <c r="AH53" s="14"/>
-      <c r="AI53" s="14"/>
-      <c r="AJ53" s="14"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="77"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="H54" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="I54" s="20"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="72"/>
-      <c r="Q54" s="72"/>
-      <c r="R54" s="72"/>
-      <c r="S54" s="69"/>
-      <c r="T54" s="69"/>
-      <c r="U54" s="69"/>
-      <c r="V54" s="50"/>
-      <c r="W54" s="50"/>
-      <c r="X54" s="50"/>
-      <c r="Y54" s="50"/>
-      <c r="Z54" s="50"/>
-      <c r="AA54" s="50"/>
-      <c r="AB54" s="14"/>
-      <c r="AC54" s="14"/>
-      <c r="AD54" s="14"/>
-      <c r="AE54" s="14"/>
-      <c r="AF54" s="14"/>
-      <c r="AG54" s="14"/>
-      <c r="AH54" s="14"/>
-      <c r="AI54" s="14"/>
-      <c r="AJ54" s="14"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55" s="77"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="H55" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="I55" s="20"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="72"/>
-      <c r="Q55" s="72"/>
-      <c r="R55" s="72"/>
-      <c r="S55" s="69"/>
-      <c r="T55" s="69"/>
-      <c r="U55" s="69"/>
-      <c r="V55" s="50"/>
-      <c r="W55" s="50"/>
-      <c r="X55" s="50"/>
-      <c r="Y55" s="50"/>
-      <c r="Z55" s="50"/>
-      <c r="AA55" s="50"/>
-      <c r="AB55" s="14"/>
-      <c r="AC55" s="14"/>
-      <c r="AD55" s="14"/>
-      <c r="AE55" s="14"/>
-      <c r="AF55" s="14"/>
-      <c r="AG55" s="14"/>
-      <c r="AH55" s="14"/>
-      <c r="AI55" s="14"/>
-      <c r="AJ55" s="14"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="83"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="82" t="n">
-        <f aca="false">SUM(H54:H55)</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="20"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="67"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="72"/>
-      <c r="Q56" s="72"/>
-      <c r="R56" s="72"/>
-      <c r="S56" s="69"/>
-      <c r="T56" s="69"/>
-      <c r="U56" s="69"/>
-      <c r="V56" s="50"/>
-      <c r="W56" s="50"/>
-      <c r="X56" s="50"/>
-      <c r="Y56" s="50"/>
-      <c r="Z56" s="50"/>
-      <c r="AA56" s="50"/>
-      <c r="AB56" s="14"/>
-      <c r="AC56" s="14"/>
-      <c r="AD56" s="14"/>
-      <c r="AE56" s="14"/>
-      <c r="AF56" s="14"/>
-      <c r="AG56" s="14"/>
-      <c r="AH56" s="14"/>
-      <c r="AI56" s="14"/>
-      <c r="AJ56" s="14"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="77"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G57" s="79" t="s">
-        <v>121</v>
-      </c>
-      <c r="H57" s="80" t="n">
-        <v>3</v>
-      </c>
-      <c r="I57" s="20"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="72"/>
-      <c r="Q57" s="72"/>
-      <c r="R57" s="72"/>
-      <c r="S57" s="69"/>
-      <c r="T57" s="69"/>
-      <c r="U57" s="69"/>
-      <c r="V57" s="50"/>
-      <c r="W57" s="50"/>
-      <c r="X57" s="50"/>
-      <c r="Y57" s="50"/>
-      <c r="Z57" s="50"/>
-      <c r="AA57" s="50"/>
-      <c r="AB57" s="14"/>
-      <c r="AC57" s="14"/>
-      <c r="AD57" s="14"/>
-      <c r="AE57" s="14"/>
-      <c r="AF57" s="14"/>
-      <c r="AG57" s="14"/>
-      <c r="AH57" s="14"/>
-      <c r="AI57" s="14"/>
-      <c r="AJ57" s="14"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" s="77"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G58" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="H58" s="80" t="n">
-        <v>3</v>
-      </c>
-      <c r="I58" s="20"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="72"/>
-      <c r="Q58" s="72"/>
-      <c r="R58" s="72"/>
-      <c r="S58" s="69"/>
-      <c r="T58" s="69"/>
-      <c r="U58" s="69"/>
-      <c r="V58" s="50"/>
-      <c r="W58" s="50"/>
-      <c r="X58" s="50"/>
-      <c r="Y58" s="50"/>
-      <c r="Z58" s="50"/>
-      <c r="AA58" s="50"/>
-      <c r="AB58" s="14"/>
-      <c r="AC58" s="14"/>
-      <c r="AD58" s="14"/>
-      <c r="AE58" s="14"/>
-      <c r="AF58" s="14"/>
-      <c r="AG58" s="14"/>
-      <c r="AH58" s="14"/>
-      <c r="AI58" s="14"/>
-      <c r="AJ58" s="14"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G59" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="H59" s="77" t="n">
-        <v>3</v>
-      </c>
-      <c r="I59" s="20"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="72"/>
-      <c r="Q59" s="72"/>
-      <c r="R59" s="72"/>
-      <c r="S59" s="69"/>
-      <c r="T59" s="69"/>
-      <c r="U59" s="69"/>
-      <c r="V59" s="50"/>
-      <c r="W59" s="50"/>
-      <c r="X59" s="50"/>
-      <c r="Y59" s="50"/>
-      <c r="Z59" s="50"/>
-      <c r="AA59" s="50"/>
-      <c r="AB59" s="14"/>
-      <c r="AC59" s="14"/>
-      <c r="AD59" s="14"/>
-      <c r="AE59" s="14"/>
-      <c r="AF59" s="14"/>
-      <c r="AG59" s="14"/>
-      <c r="AH59" s="14"/>
-      <c r="AI59" s="14"/>
-      <c r="AJ59" s="14"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" s="0"/>
-      <c r="C60" s="0"/>
-      <c r="D60" s="0"/>
-      <c r="E60" s="0"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="H60" s="80" t="n">
-        <v>3</v>
-      </c>
-      <c r="I60" s="20"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="72"/>
-      <c r="Q60" s="72"/>
-      <c r="R60" s="72"/>
-      <c r="S60" s="69"/>
-      <c r="T60" s="69"/>
-      <c r="U60" s="69"/>
-      <c r="V60" s="50"/>
-      <c r="W60" s="50"/>
-      <c r="X60" s="50"/>
-      <c r="Y60" s="50"/>
-      <c r="Z60" s="50"/>
-      <c r="AA60" s="50"/>
-      <c r="AB60" s="14"/>
-      <c r="AC60" s="14"/>
-      <c r="AD60" s="14"/>
-      <c r="AE60" s="14"/>
-      <c r="AF60" s="14"/>
-      <c r="AG60" s="14"/>
-      <c r="AH60" s="14"/>
-      <c r="AI60" s="14"/>
-      <c r="AJ60" s="14"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" s="0"/>
-      <c r="C61" s="0"/>
-      <c r="D61" s="0"/>
-      <c r="E61" s="0"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="H61" s="77" t="n">
-        <v>3</v>
-      </c>
-      <c r="I61" s="20"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="72"/>
-      <c r="R61" s="72"/>
-      <c r="S61" s="69"/>
-      <c r="T61" s="69"/>
-      <c r="U61" s="69"/>
-      <c r="V61" s="50"/>
-      <c r="W61" s="50"/>
-      <c r="X61" s="50"/>
-      <c r="Y61" s="50"/>
-      <c r="Z61" s="50"/>
-      <c r="AA61" s="50"/>
-      <c r="AB61" s="14"/>
-      <c r="AC61" s="14"/>
-      <c r="AD61" s="14"/>
-      <c r="AE61" s="14"/>
-      <c r="AF61" s="14"/>
-      <c r="AG61" s="14"/>
-      <c r="AH61" s="14"/>
-      <c r="AI61" s="14"/>
-      <c r="AJ61" s="14"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" s="81"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="82" t="n">
-        <f aca="false">SUM(H57:H61)</f>
-        <v>15</v>
-      </c>
-      <c r="I62" s="20"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="72"/>
-      <c r="Q62" s="72"/>
-      <c r="R62" s="72"/>
-      <c r="S62" s="69"/>
-      <c r="T62" s="69"/>
-      <c r="U62" s="69"/>
-      <c r="V62" s="50"/>
-      <c r="W62" s="50"/>
-      <c r="X62" s="50"/>
-      <c r="Y62" s="50"/>
-      <c r="Z62" s="50"/>
-      <c r="AA62" s="50"/>
-      <c r="AB62" s="14"/>
-      <c r="AC62" s="14"/>
-      <c r="AD62" s="14"/>
-      <c r="AE62" s="14"/>
-      <c r="AF62" s="14"/>
-      <c r="AG62" s="14"/>
-      <c r="AH62" s="14"/>
-      <c r="AI62" s="14"/>
-      <c r="AJ62" s="14"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
-      <c r="O63" s="67"/>
-      <c r="P63" s="67"/>
-      <c r="Q63" s="67"/>
-      <c r="R63" s="67"/>
-      <c r="S63" s="67"/>
-      <c r="T63" s="67"/>
-      <c r="U63" s="67"/>
-      <c r="V63" s="67"/>
-      <c r="W63" s="67"/>
-      <c r="X63" s="67"/>
-      <c r="Y63" s="50"/>
-      <c r="Z63" s="50"/>
-      <c r="AA63" s="50"/>
-      <c r="AB63" s="14"/>
-      <c r="AC63" s="14"/>
-      <c r="AD63" s="14"/>
-      <c r="AE63" s="14"/>
-      <c r="AF63" s="14"/>
-      <c r="AG63" s="14"/>
-      <c r="AH63" s="14"/>
-      <c r="AI63" s="14"/>
-      <c r="AJ63" s="14"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B64" s="77"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="G64" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="H64" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="I64" s="20"/>
-      <c r="J64" s="58"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
-      <c r="T64" s="67"/>
-      <c r="U64" s="67"/>
-      <c r="V64" s="67"/>
-      <c r="W64" s="67"/>
-      <c r="X64" s="67"/>
-      <c r="Y64" s="50"/>
-      <c r="Z64" s="50"/>
-      <c r="AA64" s="50"/>
-      <c r="AB64" s="14"/>
-      <c r="AC64" s="14"/>
-      <c r="AD64" s="14"/>
-      <c r="AE64" s="14"/>
-      <c r="AF64" s="14"/>
-      <c r="AG64" s="14"/>
-      <c r="AH64" s="14"/>
-      <c r="AI64" s="14"/>
-      <c r="AJ64" s="14"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="77"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="78"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H65" s="80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" s="20"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="67"/>
-      <c r="T65" s="67"/>
-      <c r="U65" s="67"/>
-      <c r="V65" s="67"/>
-      <c r="W65" s="67"/>
-      <c r="X65" s="67"/>
-      <c r="Y65" s="50"/>
-      <c r="Z65" s="50"/>
-      <c r="AA65" s="50"/>
-      <c r="AB65" s="14"/>
-      <c r="AC65" s="14"/>
-      <c r="AD65" s="14"/>
-      <c r="AE65" s="14"/>
-      <c r="AF65" s="14"/>
-      <c r="AG65" s="14"/>
-      <c r="AH65" s="14"/>
-      <c r="AI65" s="14"/>
-      <c r="AJ65" s="14"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="83"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="82" t="n">
-        <f aca="false">SUM(H64:H65)</f>
-        <v>1</v>
-      </c>
-      <c r="I66" s="20"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67"/>
-      <c r="O66" s="67"/>
-      <c r="P66" s="67"/>
-      <c r="Q66" s="67"/>
-      <c r="R66" s="67"/>
-      <c r="S66" s="67"/>
-      <c r="T66" s="67"/>
-      <c r="U66" s="67"/>
-      <c r="V66" s="67"/>
-      <c r="W66" s="67"/>
-      <c r="X66" s="67"/>
-      <c r="Y66" s="50"/>
-      <c r="Z66" s="50"/>
-      <c r="AA66" s="50"/>
-      <c r="AB66" s="14"/>
-      <c r="AC66" s="14"/>
-      <c r="AD66" s="14"/>
-      <c r="AE66" s="14"/>
-      <c r="AF66" s="14"/>
-      <c r="AG66" s="14"/>
-      <c r="AH66" s="14"/>
-      <c r="AI66" s="14"/>
-      <c r="AJ66" s="14"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="77"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G67" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="H67" s="80" t="n">
-        <v>3</v>
-      </c>
-      <c r="I67" s="20"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="67"/>
-      <c r="L67" s="67"/>
-      <c r="M67" s="67"/>
-      <c r="N67" s="67"/>
-      <c r="O67" s="67"/>
-      <c r="P67" s="67"/>
-      <c r="Q67" s="67"/>
-      <c r="R67" s="67"/>
-      <c r="S67" s="67"/>
-      <c r="T67" s="67"/>
-      <c r="U67" s="67"/>
-      <c r="V67" s="67"/>
-      <c r="W67" s="67"/>
-      <c r="X67" s="67"/>
-      <c r="Y67" s="50"/>
-      <c r="Z67" s="50"/>
-      <c r="AA67" s="50"/>
-      <c r="AB67" s="14"/>
-      <c r="AC67" s="14"/>
-      <c r="AD67" s="14"/>
-      <c r="AE67" s="14"/>
-      <c r="AF67" s="14"/>
-      <c r="AG67" s="14"/>
-      <c r="AH67" s="14"/>
-      <c r="AI67" s="14"/>
-      <c r="AJ67" s="14"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68" s="77"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G68" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="H68" s="80" t="n">
-        <v>3</v>
-      </c>
-      <c r="I68" s="20"/>
-      <c r="J68" s="58"/>
-      <c r="K68" s="67"/>
-      <c r="L68" s="67"/>
-      <c r="M68" s="67"/>
-      <c r="N68" s="67"/>
-      <c r="O68" s="67"/>
-      <c r="P68" s="67"/>
-      <c r="Q68" s="67"/>
-      <c r="R68" s="67"/>
-      <c r="S68" s="67"/>
-      <c r="T68" s="67"/>
-      <c r="U68" s="67"/>
-      <c r="V68" s="67"/>
-      <c r="W68" s="67"/>
-      <c r="X68" s="67"/>
-      <c r="Y68" s="50"/>
-      <c r="Z68" s="50"/>
-      <c r="AA68" s="50"/>
-      <c r="AB68" s="14"/>
-      <c r="AC68" s="14"/>
-      <c r="AD68" s="14"/>
-      <c r="AE68" s="14"/>
-      <c r="AF68" s="14"/>
-      <c r="AG68" s="14"/>
-      <c r="AH68" s="14"/>
-      <c r="AI68" s="14"/>
-      <c r="AJ68" s="14"/>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" s="77"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G69" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="H69" s="80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" s="20"/>
-      <c r="J69" s="58"/>
-      <c r="K69" s="67"/>
-      <c r="L69" s="67"/>
-      <c r="M69" s="67"/>
-      <c r="N69" s="67"/>
-      <c r="O69" s="67"/>
-      <c r="P69" s="67"/>
-      <c r="Q69" s="67"/>
-      <c r="R69" s="67"/>
-      <c r="S69" s="67"/>
-      <c r="T69" s="67"/>
-      <c r="U69" s="67"/>
-      <c r="V69" s="67"/>
-      <c r="W69" s="67"/>
-      <c r="X69" s="67"/>
-      <c r="Y69" s="50"/>
-      <c r="Z69" s="50"/>
-      <c r="AA69" s="50"/>
-      <c r="AB69" s="14"/>
-      <c r="AC69" s="14"/>
-      <c r="AD69" s="14"/>
-      <c r="AE69" s="14"/>
-      <c r="AF69" s="14"/>
-      <c r="AG69" s="14"/>
-      <c r="AH69" s="14"/>
-      <c r="AI69" s="14"/>
-      <c r="AJ69" s="14"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B70" s="0"/>
-      <c r="C70" s="0"/>
-      <c r="D70" s="0"/>
-      <c r="E70" s="0"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="79" t="s">
-        <v>138</v>
-      </c>
-      <c r="H70" s="80" t="n">
-        <v>4</v>
-      </c>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="67"/>
-      <c r="L70" s="67"/>
-      <c r="M70" s="67"/>
-      <c r="N70" s="67"/>
-      <c r="O70" s="67"/>
-      <c r="P70" s="67"/>
-      <c r="Q70" s="67"/>
-      <c r="R70" s="67"/>
-      <c r="S70" s="67"/>
-      <c r="T70" s="67"/>
-      <c r="U70" s="67"/>
-      <c r="V70" s="67"/>
-      <c r="W70" s="67"/>
-      <c r="X70" s="67"/>
-      <c r="Y70" s="14"/>
-      <c r="Z70" s="14"/>
-      <c r="AA70" s="14"/>
-      <c r="AB70" s="14"/>
-      <c r="AC70" s="14"/>
-      <c r="AD70" s="14"/>
-      <c r="AE70" s="14"/>
-      <c r="AF70" s="14"/>
-      <c r="AG70" s="14"/>
-      <c r="AH70" s="14"/>
-      <c r="AI70" s="14"/>
-      <c r="AJ70" s="14"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" s="77"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="78"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G71" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="H71" s="80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="67"/>
-      <c r="L71" s="67"/>
-      <c r="M71" s="67"/>
-      <c r="N71" s="67"/>
-      <c r="O71" s="67"/>
-      <c r="P71" s="67"/>
-      <c r="Q71" s="67"/>
-      <c r="R71" s="67"/>
-      <c r="S71" s="67"/>
-      <c r="T71" s="67"/>
-      <c r="U71" s="67"/>
-      <c r="V71" s="67"/>
-      <c r="W71" s="67"/>
-      <c r="X71" s="67"/>
-      <c r="Y71" s="14"/>
-      <c r="Z71" s="14"/>
-      <c r="AA71" s="14"/>
-      <c r="AB71" s="14"/>
-      <c r="AC71" s="14"/>
-      <c r="AD71" s="14"/>
-      <c r="AE71" s="14"/>
-      <c r="AF71" s="14"/>
-      <c r="AG71" s="14"/>
-      <c r="AH71" s="14"/>
-      <c r="AI71" s="14"/>
-      <c r="AJ71" s="14"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="83"/>
-      <c r="B72" s="83"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="82" t="n">
-        <f aca="false">SUM(H67:H71)</f>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="15"/>
+      <c r="U71" s="15"/>
+      <c r="V71" s="15"/>
+      <c r="W71" s="15"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="15"/>
+      <c r="Z71" s="15"/>
+      <c r="AA71" s="15"/>
+      <c r="AB71" s="15"/>
+      <c r="AC71" s="15"/>
+      <c r="AD71" s="15"/>
+      <c r="AE71" s="15"/>
+      <c r="AF71" s="15"/>
+      <c r="AG71" s="15"/>
+      <c r="AH71" s="15"/>
+      <c r="AI71" s="15"/>
+      <c r="AJ71" s="15"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="86"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="88"/>
+      <c r="E72" s="83"/>
+      <c r="F72" s="98"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="85" t="n">
+        <f aca="false">SUM(I67:I71)</f>
         <v>12</v>
       </c>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="67"/>
-      <c r="L72" s="67"/>
-      <c r="M72" s="67"/>
-      <c r="N72" s="67"/>
-      <c r="O72" s="67"/>
-      <c r="P72" s="67"/>
-      <c r="Q72" s="67"/>
-      <c r="R72" s="67"/>
-      <c r="S72" s="67"/>
-      <c r="T72" s="67"/>
-      <c r="U72" s="67"/>
-      <c r="V72" s="67"/>
-      <c r="W72" s="67"/>
-      <c r="X72" s="67"/>
-      <c r="Y72" s="14"/>
-      <c r="Z72" s="14"/>
-      <c r="AA72" s="14"/>
-      <c r="AB72" s="14"/>
-      <c r="AC72" s="14"/>
-      <c r="AD72" s="14"/>
-      <c r="AE72" s="14"/>
-      <c r="AF72" s="14"/>
-      <c r="AG72" s="14"/>
-      <c r="AH72" s="14"/>
-      <c r="AI72" s="14"/>
-      <c r="AJ72" s="14"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
-      <c r="T73" s="14"/>
-      <c r="U73" s="14"/>
-      <c r="V73" s="14"/>
-      <c r="W73" s="14"/>
-      <c r="X73" s="14"/>
-      <c r="Y73" s="14"/>
-      <c r="Z73" s="14"/>
-      <c r="AA73" s="14"/>
-      <c r="AB73" s="14"/>
-      <c r="AC73" s="14"/>
-      <c r="AD73" s="14"/>
-      <c r="AE73" s="14"/>
-      <c r="AF73" s="14"/>
-      <c r="AG73" s="14"/>
-      <c r="AH73" s="14"/>
-      <c r="AI73" s="14"/>
-      <c r="AJ73" s="14"/>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="14"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="14"/>
-      <c r="T74" s="14"/>
-      <c r="U74" s="14"/>
-      <c r="V74" s="14"/>
-      <c r="W74" s="14"/>
-      <c r="X74" s="14"/>
-      <c r="Y74" s="14"/>
-      <c r="Z74" s="14"/>
-      <c r="AA74" s="14"/>
-      <c r="AB74" s="14"/>
-      <c r="AC74" s="14"/>
-      <c r="AD74" s="14"/>
-      <c r="AE74" s="14"/>
-      <c r="AF74" s="14"/>
-      <c r="AG74" s="14"/>
-      <c r="AH74" s="14"/>
-      <c r="AI74" s="14"/>
-      <c r="AJ74" s="14"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="14"/>
-      <c r="Q75" s="14"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
-      <c r="T75" s="14"/>
-      <c r="U75" s="14"/>
-      <c r="V75" s="14"/>
-      <c r="W75" s="14"/>
-      <c r="X75" s="14"/>
-      <c r="Y75" s="14"/>
-      <c r="Z75" s="14"/>
-      <c r="AA75" s="14"/>
-      <c r="AB75" s="14"/>
-      <c r="AC75" s="14"/>
-      <c r="AD75" s="14"/>
-      <c r="AE75" s="14"/>
-      <c r="AF75" s="14"/>
-      <c r="AG75" s="14"/>
-      <c r="AH75" s="14"/>
-      <c r="AI75" s="14"/>
-      <c r="AJ75" s="14"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
-      <c r="P76" s="14"/>
-      <c r="Q76" s="14"/>
-      <c r="R76" s="14"/>
-      <c r="S76" s="14"/>
-      <c r="T76" s="14"/>
-      <c r="U76" s="14"/>
-      <c r="V76" s="14"/>
-      <c r="W76" s="14"/>
-      <c r="X76" s="14"/>
-      <c r="Y76" s="14"/>
-      <c r="Z76" s="14"/>
-      <c r="AA76" s="14"/>
-      <c r="AB76" s="14"/>
-      <c r="AC76" s="14"/>
-      <c r="AD76" s="14"/>
-      <c r="AE76" s="14"/>
-      <c r="AF76" s="14"/>
-      <c r="AG76" s="14"/>
-      <c r="AH76" s="14"/>
-      <c r="AI76" s="14"/>
-      <c r="AJ76" s="14"/>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="30"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="14"/>
-      <c r="R77" s="14"/>
-      <c r="S77" s="14"/>
-      <c r="T77" s="14"/>
-      <c r="U77" s="14"/>
-      <c r="V77" s="14"/>
-      <c r="W77" s="14"/>
-      <c r="X77" s="14"/>
-      <c r="Y77" s="14"/>
-      <c r="Z77" s="14"/>
-      <c r="AA77" s="14"/>
-      <c r="AB77" s="14"/>
-      <c r="AC77" s="14"/>
-      <c r="AD77" s="14"/>
-      <c r="AE77" s="14"/>
-      <c r="AF77" s="14"/>
-      <c r="AG77" s="14"/>
-      <c r="AH77" s="14"/>
-      <c r="AI77" s="14"/>
-      <c r="AJ77" s="14"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
+      <c r="U72" s="15"/>
+      <c r="V72" s="15"/>
+      <c r="W72" s="15"/>
+      <c r="X72" s="15"/>
+      <c r="Y72" s="15"/>
+      <c r="Z72" s="15"/>
+      <c r="AA72" s="15"/>
+      <c r="AB72" s="15"/>
+      <c r="AC72" s="15"/>
+      <c r="AD72" s="15"/>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="15"/>
+      <c r="AG72" s="15"/>
+      <c r="AH72" s="15"/>
+      <c r="AI72" s="15"/>
+      <c r="AJ72" s="15"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15"/>
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15"/>
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="15"/>
+      <c r="AH73" s="15"/>
+      <c r="AI73" s="15"/>
+      <c r="AJ73" s="15"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="15"/>
+      <c r="V74" s="15"/>
+      <c r="W74" s="15"/>
+      <c r="X74" s="15"/>
+      <c r="Y74" s="15"/>
+      <c r="Z74" s="15"/>
+      <c r="AA74" s="15"/>
+      <c r="AB74" s="15"/>
+      <c r="AC74" s="15"/>
+      <c r="AD74" s="15"/>
+      <c r="AE74" s="15"/>
+      <c r="AF74" s="15"/>
+      <c r="AG74" s="15"/>
+      <c r="AH74" s="15"/>
+      <c r="AI74" s="15"/>
+      <c r="AJ74" s="15"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="15"/>
+      <c r="U75" s="15"/>
+      <c r="V75" s="15"/>
+      <c r="W75" s="15"/>
+      <c r="X75" s="15"/>
+      <c r="Y75" s="15"/>
+      <c r="Z75" s="15"/>
+      <c r="AA75" s="15"/>
+      <c r="AB75" s="15"/>
+      <c r="AC75" s="15"/>
+      <c r="AD75" s="15"/>
+      <c r="AE75" s="15"/>
+      <c r="AF75" s="15"/>
+      <c r="AG75" s="15"/>
+      <c r="AH75" s="15"/>
+      <c r="AI75" s="15"/>
+      <c r="AJ75" s="15"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="15"/>
+      <c r="U76" s="15"/>
+      <c r="V76" s="15"/>
+      <c r="W76" s="15"/>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="15"/>
+      <c r="Z76" s="15"/>
+      <c r="AA76" s="15"/>
+      <c r="AB76" s="15"/>
+      <c r="AC76" s="15"/>
+      <c r="AD76" s="15"/>
+      <c r="AE76" s="15"/>
+      <c r="AF76" s="15"/>
+      <c r="AG76" s="15"/>
+      <c r="AH76" s="15"/>
+      <c r="AI76" s="15"/>
+      <c r="AJ76" s="15"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
+      <c r="Z77" s="15"/>
+      <c r="AA77" s="15"/>
+      <c r="AB77" s="15"/>
+      <c r="AC77" s="15"/>
+      <c r="AD77" s="15"/>
+      <c r="AE77" s="15"/>
+      <c r="AF77" s="15"/>
+      <c r="AG77" s="15"/>
+      <c r="AH77" s="15"/>
+      <c r="AI77" s="15"/>
+      <c r="AJ77" s="15"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="14"/>
-      <c r="P78" s="14"/>
-      <c r="Q78" s="14"/>
-      <c r="R78" s="14"/>
-      <c r="S78" s="14"/>
-      <c r="T78" s="14"/>
-      <c r="U78" s="14"/>
-      <c r="V78" s="14"/>
-      <c r="W78" s="14"/>
-      <c r="X78" s="14"/>
-      <c r="Y78" s="14"/>
-      <c r="Z78" s="14"/>
-      <c r="AA78" s="14"/>
-      <c r="AB78" s="14"/>
-      <c r="AC78" s="14"/>
-      <c r="AD78" s="14"/>
-      <c r="AE78" s="14"/>
-      <c r="AF78" s="14"/>
-      <c r="AG78" s="14"/>
-      <c r="AH78" s="14"/>
-      <c r="AI78" s="14"/>
-      <c r="AJ78" s="14"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="15"/>
+      <c r="U78" s="15"/>
+      <c r="V78" s="15"/>
+      <c r="W78" s="15"/>
+      <c r="X78" s="15"/>
+      <c r="Y78" s="15"/>
+      <c r="Z78" s="15"/>
+      <c r="AA78" s="15"/>
+      <c r="AB78" s="15"/>
+      <c r="AC78" s="15"/>
+      <c r="AD78" s="15"/>
+      <c r="AE78" s="15"/>
+      <c r="AF78" s="15"/>
+      <c r="AG78" s="15"/>
+      <c r="AH78" s="15"/>
+      <c r="AI78" s="15"/>
+      <c r="AJ78" s="15"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="14"/>
-      <c r="P79" s="14"/>
-      <c r="Q79" s="14"/>
-      <c r="R79" s="14"/>
-      <c r="S79" s="14"/>
-      <c r="T79" s="14"/>
-      <c r="U79" s="14"/>
-      <c r="V79" s="14"/>
-      <c r="W79" s="14"/>
-      <c r="X79" s="14"/>
-      <c r="Y79" s="14"/>
-      <c r="Z79" s="14"/>
-      <c r="AA79" s="14"/>
-      <c r="AB79" s="14"/>
-      <c r="AC79" s="14"/>
-      <c r="AD79" s="14"/>
-      <c r="AE79" s="14"/>
-      <c r="AF79" s="14"/>
-      <c r="AG79" s="14"/>
-      <c r="AH79" s="14"/>
-      <c r="AI79" s="14"/>
-      <c r="AJ79" s="14"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="15"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="15"/>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="15"/>
+      <c r="AA79" s="15"/>
+      <c r="AB79" s="15"/>
+      <c r="AC79" s="15"/>
+      <c r="AD79" s="15"/>
+      <c r="AE79" s="15"/>
+      <c r="AF79" s="15"/>
+      <c r="AG79" s="15"/>
+      <c r="AH79" s="15"/>
+      <c r="AI79" s="15"/>
+      <c r="AJ79" s="15"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="14"/>
-      <c r="O80" s="14"/>
-      <c r="P80" s="14"/>
-      <c r="Q80" s="14"/>
-      <c r="R80" s="14"/>
-      <c r="S80" s="14"/>
-      <c r="T80" s="14"/>
-      <c r="U80" s="14"/>
-      <c r="V80" s="14"/>
-      <c r="W80" s="14"/>
-      <c r="X80" s="14"/>
-      <c r="Y80" s="14"/>
-      <c r="Z80" s="14"/>
-      <c r="AA80" s="14"/>
-      <c r="AB80" s="14"/>
-      <c r="AC80" s="14"/>
-      <c r="AD80" s="14"/>
-      <c r="AE80" s="14"/>
-      <c r="AF80" s="14"/>
-      <c r="AG80" s="14"/>
-      <c r="AH80" s="14"/>
-      <c r="AI80" s="14"/>
-      <c r="AJ80" s="14"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="15"/>
+      <c r="T80" s="15"/>
+      <c r="U80" s="15"/>
+      <c r="V80" s="15"/>
+      <c r="W80" s="15"/>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="15"/>
+      <c r="AA80" s="15"/>
+      <c r="AB80" s="15"/>
+      <c r="AC80" s="15"/>
+      <c r="AD80" s="15"/>
+      <c r="AE80" s="15"/>
+      <c r="AF80" s="15"/>
+      <c r="AG80" s="15"/>
+      <c r="AH80" s="15"/>
+      <c r="AI80" s="15"/>
+      <c r="AJ80" s="15"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="14"/>
-      <c r="P81" s="14"/>
-      <c r="Q81" s="14"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="14"/>
-      <c r="U81" s="14"/>
-      <c r="V81" s="14"/>
-      <c r="W81" s="14"/>
-      <c r="X81" s="14"/>
-      <c r="Y81" s="14"/>
-      <c r="Z81" s="14"/>
-      <c r="AA81" s="14"/>
-      <c r="AB81" s="14"/>
-      <c r="AC81" s="14"/>
-      <c r="AD81" s="14"/>
-      <c r="AE81" s="14"/>
-      <c r="AF81" s="14"/>
-      <c r="AG81" s="14"/>
-      <c r="AH81" s="14"/>
-      <c r="AI81" s="14"/>
-      <c r="AJ81" s="14"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="15"/>
+      <c r="T81" s="15"/>
+      <c r="U81" s="15"/>
+      <c r="V81" s="15"/>
+      <c r="W81" s="15"/>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="15"/>
+      <c r="AA81" s="15"/>
+      <c r="AB81" s="15"/>
+      <c r="AC81" s="15"/>
+      <c r="AD81" s="15"/>
+      <c r="AE81" s="15"/>
+      <c r="AF81" s="15"/>
+      <c r="AG81" s="15"/>
+      <c r="AH81" s="15"/>
+      <c r="AI81" s="15"/>
+      <c r="AJ81" s="15"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="14"/>
-      <c r="O82" s="14"/>
-      <c r="P82" s="14"/>
-      <c r="Q82" s="14"/>
-      <c r="R82" s="14"/>
-      <c r="S82" s="14"/>
-      <c r="T82" s="14"/>
-      <c r="U82" s="14"/>
-      <c r="V82" s="14"/>
-      <c r="W82" s="14"/>
-      <c r="X82" s="14"/>
-      <c r="Y82" s="14"/>
-      <c r="Z82" s="14"/>
-      <c r="AA82" s="14"/>
-      <c r="AB82" s="14"/>
-      <c r="AC82" s="14"/>
-      <c r="AD82" s="14"/>
-      <c r="AE82" s="14"/>
-      <c r="AF82" s="14"/>
-      <c r="AG82" s="14"/>
-      <c r="AH82" s="14"/>
-      <c r="AI82" s="14"/>
-      <c r="AJ82" s="14"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
+      <c r="S82" s="15"/>
+      <c r="T82" s="15"/>
+      <c r="U82" s="15"/>
+      <c r="V82" s="15"/>
+      <c r="W82" s="15"/>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="15"/>
+      <c r="Z82" s="15"/>
+      <c r="AA82" s="15"/>
+      <c r="AB82" s="15"/>
+      <c r="AC82" s="15"/>
+      <c r="AD82" s="15"/>
+      <c r="AE82" s="15"/>
+      <c r="AF82" s="15"/>
+      <c r="AG82" s="15"/>
+      <c r="AH82" s="15"/>
+      <c r="AI82" s="15"/>
+      <c r="AJ82" s="15"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
-      <c r="O83" s="14"/>
-      <c r="P83" s="14"/>
-      <c r="Q83" s="14"/>
-      <c r="R83" s="14"/>
-      <c r="S83" s="14"/>
-      <c r="T83" s="14"/>
-      <c r="U83" s="14"/>
-      <c r="V83" s="14"/>
-      <c r="W83" s="14"/>
-      <c r="X83" s="14"/>
-      <c r="Y83" s="14"/>
-      <c r="Z83" s="14"/>
-      <c r="AA83" s="14"/>
-      <c r="AB83" s="14"/>
-      <c r="AC83" s="14"/>
-      <c r="AD83" s="14"/>
-      <c r="AE83" s="14"/>
-      <c r="AF83" s="14"/>
-      <c r="AG83" s="14"/>
-      <c r="AH83" s="14"/>
-      <c r="AI83" s="14"/>
-      <c r="AJ83" s="14"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
+      <c r="S83" s="15"/>
+      <c r="T83" s="15"/>
+      <c r="U83" s="15"/>
+      <c r="V83" s="15"/>
+      <c r="W83" s="15"/>
+      <c r="X83" s="15"/>
+      <c r="Y83" s="15"/>
+      <c r="Z83" s="15"/>
+      <c r="AA83" s="15"/>
+      <c r="AB83" s="15"/>
+      <c r="AC83" s="15"/>
+      <c r="AD83" s="15"/>
+      <c r="AE83" s="15"/>
+      <c r="AF83" s="15"/>
+      <c r="AG83" s="15"/>
+      <c r="AH83" s="15"/>
+      <c r="AI83" s="15"/>
+      <c r="AJ83" s="15"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="14"/>
-      <c r="Q84" s="14"/>
-      <c r="R84" s="14"/>
-      <c r="S84" s="14"/>
-      <c r="T84" s="14"/>
-      <c r="U84" s="14"/>
-      <c r="V84" s="14"/>
-      <c r="W84" s="14"/>
-      <c r="X84" s="14"/>
-      <c r="Y84" s="14"/>
-      <c r="Z84" s="14"/>
-      <c r="AA84" s="14"/>
-      <c r="AB84" s="14"/>
-      <c r="AC84" s="14"/>
-      <c r="AD84" s="14"/>
-      <c r="AE84" s="14"/>
-      <c r="AF84" s="14"/>
-      <c r="AG84" s="14"/>
-      <c r="AH84" s="14"/>
-      <c r="AI84" s="14"/>
-      <c r="AJ84" s="14"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="15"/>
+      <c r="AA84" s="15"/>
+      <c r="AB84" s="15"/>
+      <c r="AC84" s="15"/>
+      <c r="AD84" s="15"/>
+      <c r="AE84" s="15"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="15"/>
+      <c r="AH84" s="15"/>
+      <c r="AI84" s="15"/>
+      <c r="AJ84" s="15"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="14"/>
-      <c r="O85" s="14"/>
-      <c r="P85" s="14"/>
-      <c r="Q85" s="14"/>
-      <c r="R85" s="14"/>
-      <c r="S85" s="14"/>
-      <c r="T85" s="14"/>
-      <c r="U85" s="14"/>
-      <c r="V85" s="14"/>
-      <c r="W85" s="14"/>
-      <c r="X85" s="14"/>
-      <c r="Y85" s="14"/>
-      <c r="Z85" s="14"/>
-      <c r="AA85" s="14"/>
-      <c r="AB85" s="14"/>
-      <c r="AC85" s="14"/>
-      <c r="AD85" s="14"/>
-      <c r="AE85" s="14"/>
-      <c r="AF85" s="14"/>
-      <c r="AG85" s="14"/>
-      <c r="AH85" s="14"/>
-      <c r="AI85" s="14"/>
-      <c r="AJ85" s="14"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="15"/>
+      <c r="T85" s="15"/>
+      <c r="U85" s="15"/>
+      <c r="V85" s="15"/>
+      <c r="W85" s="15"/>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="15"/>
+      <c r="AA85" s="15"/>
+      <c r="AB85" s="15"/>
+      <c r="AC85" s="15"/>
+      <c r="AD85" s="15"/>
+      <c r="AE85" s="15"/>
+      <c r="AF85" s="15"/>
+      <c r="AG85" s="15"/>
+      <c r="AH85" s="15"/>
+      <c r="AI85" s="15"/>
+      <c r="AJ85" s="15"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="14"/>
-      <c r="P86" s="14"/>
-      <c r="Q86" s="14"/>
-      <c r="R86" s="14"/>
-      <c r="S86" s="14"/>
-      <c r="T86" s="14"/>
-      <c r="U86" s="14"/>
-      <c r="V86" s="14"/>
-      <c r="W86" s="14"/>
-      <c r="X86" s="14"/>
-      <c r="Y86" s="14"/>
-      <c r="Z86" s="14"/>
-      <c r="AA86" s="14"/>
-      <c r="AB86" s="14"/>
-      <c r="AC86" s="14"/>
-      <c r="AD86" s="14"/>
-      <c r="AE86" s="14"/>
-      <c r="AF86" s="14"/>
-      <c r="AG86" s="14"/>
-      <c r="AH86" s="14"/>
-      <c r="AI86" s="14"/>
-      <c r="AJ86" s="14"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="15"/>
+      <c r="T86" s="15"/>
+      <c r="U86" s="15"/>
+      <c r="V86" s="15"/>
+      <c r="W86" s="15"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="15"/>
+      <c r="Z86" s="15"/>
+      <c r="AA86" s="15"/>
+      <c r="AB86" s="15"/>
+      <c r="AC86" s="15"/>
+      <c r="AD86" s="15"/>
+      <c r="AE86" s="15"/>
+      <c r="AF86" s="15"/>
+      <c r="AG86" s="15"/>
+      <c r="AH86" s="15"/>
+      <c r="AI86" s="15"/>
+      <c r="AJ86" s="15"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
-      <c r="O87" s="14"/>
-      <c r="P87" s="14"/>
-      <c r="Q87" s="14"/>
-      <c r="R87" s="14"/>
-      <c r="S87" s="14"/>
-      <c r="T87" s="14"/>
-      <c r="U87" s="14"/>
-      <c r="V87" s="14"/>
-      <c r="W87" s="14"/>
-      <c r="X87" s="14"/>
-      <c r="Y87" s="14"/>
-      <c r="Z87" s="14"/>
-      <c r="AA87" s="14"/>
-      <c r="AB87" s="14"/>
-      <c r="AC87" s="14"/>
-      <c r="AD87" s="14"/>
-      <c r="AE87" s="14"/>
-      <c r="AF87" s="14"/>
-      <c r="AG87" s="14"/>
-      <c r="AH87" s="14"/>
-      <c r="AI87" s="14"/>
-      <c r="AJ87" s="14"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="15"/>
+      <c r="T87" s="15"/>
+      <c r="U87" s="15"/>
+      <c r="V87" s="15"/>
+      <c r="W87" s="15"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="15"/>
+      <c r="AA87" s="15"/>
+      <c r="AB87" s="15"/>
+      <c r="AC87" s="15"/>
+      <c r="AD87" s="15"/>
+      <c r="AE87" s="15"/>
+      <c r="AF87" s="15"/>
+      <c r="AG87" s="15"/>
+      <c r="AH87" s="15"/>
+      <c r="AI87" s="15"/>
+      <c r="AJ87" s="15"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
-      <c r="P88" s="14"/>
-      <c r="Q88" s="14"/>
-      <c r="R88" s="14"/>
-      <c r="S88" s="14"/>
-      <c r="T88" s="14"/>
-      <c r="U88" s="14"/>
-      <c r="V88" s="14"/>
-      <c r="W88" s="14"/>
-      <c r="X88" s="14"/>
-      <c r="Y88" s="14"/>
-      <c r="Z88" s="14"/>
-      <c r="AA88" s="14"/>
-      <c r="AB88" s="14"/>
-      <c r="AC88" s="14"/>
-      <c r="AD88" s="14"/>
-      <c r="AE88" s="14"/>
-      <c r="AF88" s="14"/>
-      <c r="AG88" s="14"/>
-      <c r="AH88" s="14"/>
-      <c r="AI88" s="14"/>
-      <c r="AJ88" s="14"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15"/>
+      <c r="S88" s="15"/>
+      <c r="T88" s="15"/>
+      <c r="U88" s="15"/>
+      <c r="V88" s="15"/>
+      <c r="W88" s="15"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="15"/>
+      <c r="AA88" s="15"/>
+      <c r="AB88" s="15"/>
+      <c r="AC88" s="15"/>
+      <c r="AD88" s="15"/>
+      <c r="AE88" s="15"/>
+      <c r="AF88" s="15"/>
+      <c r="AG88" s="15"/>
+      <c r="AH88" s="15"/>
+      <c r="AI88" s="15"/>
+      <c r="AJ88" s="15"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
-      <c r="O89" s="14"/>
-      <c r="P89" s="14"/>
-      <c r="Q89" s="14"/>
-      <c r="R89" s="14"/>
-      <c r="S89" s="14"/>
-      <c r="T89" s="14"/>
-      <c r="U89" s="14"/>
-      <c r="V89" s="14"/>
-      <c r="W89" s="14"/>
-      <c r="X89" s="14"/>
-      <c r="Y89" s="14"/>
-      <c r="Z89" s="14"/>
-      <c r="AA89" s="14"/>
-      <c r="AB89" s="14"/>
-      <c r="AC89" s="14"/>
-      <c r="AD89" s="14"/>
-      <c r="AE89" s="14"/>
-      <c r="AF89" s="14"/>
-      <c r="AG89" s="14"/>
-      <c r="AH89" s="14"/>
-      <c r="AI89" s="14"/>
-      <c r="AJ89" s="14"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
+      <c r="S89" s="15"/>
+      <c r="T89" s="15"/>
+      <c r="U89" s="15"/>
+      <c r="V89" s="15"/>
+      <c r="W89" s="15"/>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="15"/>
+      <c r="AA89" s="15"/>
+      <c r="AB89" s="15"/>
+      <c r="AC89" s="15"/>
+      <c r="AD89" s="15"/>
+      <c r="AE89" s="15"/>
+      <c r="AF89" s="15"/>
+      <c r="AG89" s="15"/>
+      <c r="AH89" s="15"/>
+      <c r="AI89" s="15"/>
+      <c r="AJ89" s="15"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="14"/>
-      <c r="O90" s="14"/>
-      <c r="P90" s="14"/>
-      <c r="Q90" s="14"/>
-      <c r="R90" s="14"/>
-      <c r="S90" s="14"/>
-      <c r="T90" s="14"/>
-      <c r="U90" s="14"/>
-      <c r="V90" s="14"/>
-      <c r="W90" s="14"/>
-      <c r="X90" s="14"/>
-      <c r="Y90" s="14"/>
-      <c r="Z90" s="14"/>
-      <c r="AA90" s="14"/>
-      <c r="AB90" s="14"/>
-      <c r="AC90" s="14"/>
-      <c r="AD90" s="14"/>
-      <c r="AE90" s="14"/>
-      <c r="AF90" s="14"/>
-      <c r="AG90" s="14"/>
-      <c r="AH90" s="14"/>
-      <c r="AI90" s="14"/>
-      <c r="AJ90" s="14"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="15"/>
+      <c r="S90" s="15"/>
+      <c r="T90" s="15"/>
+      <c r="U90" s="15"/>
+      <c r="V90" s="15"/>
+      <c r="W90" s="15"/>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="15"/>
+      <c r="AA90" s="15"/>
+      <c r="AB90" s="15"/>
+      <c r="AC90" s="15"/>
+      <c r="AD90" s="15"/>
+      <c r="AE90" s="15"/>
+      <c r="AF90" s="15"/>
+      <c r="AG90" s="15"/>
+      <c r="AH90" s="15"/>
+      <c r="AI90" s="15"/>
+      <c r="AJ90" s="15"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="14"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="14"/>
-      <c r="N91" s="14"/>
-      <c r="O91" s="14"/>
-      <c r="P91" s="14"/>
-      <c r="Q91" s="14"/>
-      <c r="R91" s="14"/>
-      <c r="S91" s="14"/>
-      <c r="T91" s="14"/>
-      <c r="U91" s="14"/>
-      <c r="V91" s="14"/>
-      <c r="W91" s="14"/>
-      <c r="X91" s="14"/>
-      <c r="Y91" s="14"/>
-      <c r="Z91" s="14"/>
-      <c r="AA91" s="14"/>
-      <c r="AB91" s="14"/>
-      <c r="AC91" s="14"/>
-      <c r="AD91" s="14"/>
-      <c r="AE91" s="14"/>
-      <c r="AF91" s="14"/>
-      <c r="AG91" s="14"/>
-      <c r="AH91" s="14"/>
-      <c r="AI91" s="14"/>
-      <c r="AJ91" s="14"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="15"/>
+      <c r="S91" s="15"/>
+      <c r="T91" s="15"/>
+      <c r="U91" s="15"/>
+      <c r="V91" s="15"/>
+      <c r="W91" s="15"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="15"/>
+      <c r="AA91" s="15"/>
+      <c r="AB91" s="15"/>
+      <c r="AC91" s="15"/>
+      <c r="AD91" s="15"/>
+      <c r="AE91" s="15"/>
+      <c r="AF91" s="15"/>
+      <c r="AG91" s="15"/>
+      <c r="AH91" s="15"/>
+      <c r="AI91" s="15"/>
+      <c r="AJ91" s="15"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
-      <c r="N92" s="14"/>
-      <c r="O92" s="14"/>
-      <c r="P92" s="14"/>
-      <c r="Q92" s="14"/>
-      <c r="R92" s="14"/>
-      <c r="S92" s="14"/>
-      <c r="T92" s="14"/>
-      <c r="U92" s="14"/>
-      <c r="V92" s="14"/>
-      <c r="W92" s="14"/>
-      <c r="X92" s="14"/>
-      <c r="Y92" s="14"/>
-      <c r="Z92" s="14"/>
-      <c r="AA92" s="14"/>
-      <c r="AB92" s="14"/>
-      <c r="AC92" s="14"/>
-      <c r="AD92" s="14"/>
-      <c r="AE92" s="14"/>
-      <c r="AF92" s="14"/>
-      <c r="AG92" s="14"/>
-      <c r="AH92" s="14"/>
-      <c r="AI92" s="14"/>
-      <c r="AJ92" s="14"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
+      <c r="S92" s="15"/>
+      <c r="T92" s="15"/>
+      <c r="U92" s="15"/>
+      <c r="V92" s="15"/>
+      <c r="W92" s="15"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="15"/>
+      <c r="AA92" s="15"/>
+      <c r="AB92" s="15"/>
+      <c r="AC92" s="15"/>
+      <c r="AD92" s="15"/>
+      <c r="AE92" s="15"/>
+      <c r="AF92" s="15"/>
+      <c r="AG92" s="15"/>
+      <c r="AH92" s="15"/>
+      <c r="AI92" s="15"/>
+      <c r="AJ92" s="15"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="14"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
-      <c r="N93" s="14"/>
-      <c r="O93" s="14"/>
-      <c r="P93" s="14"/>
-      <c r="Q93" s="14"/>
-      <c r="R93" s="14"/>
-      <c r="S93" s="14"/>
-      <c r="T93" s="14"/>
-      <c r="U93" s="14"/>
-      <c r="V93" s="14"/>
-      <c r="W93" s="14"/>
-      <c r="X93" s="14"/>
-      <c r="Y93" s="14"/>
-      <c r="Z93" s="14"/>
-      <c r="AA93" s="14"/>
-      <c r="AB93" s="14"/>
-      <c r="AC93" s="14"/>
-      <c r="AD93" s="14"/>
-      <c r="AE93" s="14"/>
-      <c r="AF93" s="14"/>
-      <c r="AG93" s="14"/>
-      <c r="AH93" s="14"/>
-      <c r="AI93" s="14"/>
-      <c r="AJ93" s="14"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
+      <c r="S93" s="15"/>
+      <c r="T93" s="15"/>
+      <c r="U93" s="15"/>
+      <c r="V93" s="15"/>
+      <c r="W93" s="15"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
+      <c r="Z93" s="15"/>
+      <c r="AA93" s="15"/>
+      <c r="AB93" s="15"/>
+      <c r="AC93" s="15"/>
+      <c r="AD93" s="15"/>
+      <c r="AE93" s="15"/>
+      <c r="AF93" s="15"/>
+      <c r="AG93" s="15"/>
+      <c r="AH93" s="15"/>
+      <c r="AI93" s="15"/>
+      <c r="AJ93" s="15"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="14"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="14"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="14"/>
-      <c r="Q94" s="14"/>
-      <c r="R94" s="14"/>
-      <c r="S94" s="14"/>
-      <c r="T94" s="14"/>
-      <c r="U94" s="14"/>
-      <c r="V94" s="14"/>
-      <c r="W94" s="14"/>
-      <c r="X94" s="14"/>
-      <c r="Y94" s="14"/>
-      <c r="Z94" s="14"/>
-      <c r="AA94" s="14"/>
-      <c r="AB94" s="14"/>
-      <c r="AC94" s="14"/>
-      <c r="AD94" s="14"/>
-      <c r="AE94" s="14"/>
-      <c r="AF94" s="14"/>
-      <c r="AG94" s="14"/>
-      <c r="AH94" s="14"/>
-      <c r="AI94" s="14"/>
-      <c r="AJ94" s="14"/>
+      <c r="A94" s="15"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="15"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="15"/>
+      <c r="S94" s="15"/>
+      <c r="T94" s="15"/>
+      <c r="U94" s="15"/>
+      <c r="V94" s="15"/>
+      <c r="W94" s="15"/>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="15"/>
+      <c r="Z94" s="15"/>
+      <c r="AA94" s="15"/>
+      <c r="AB94" s="15"/>
+      <c r="AC94" s="15"/>
+      <c r="AD94" s="15"/>
+      <c r="AE94" s="15"/>
+      <c r="AF94" s="15"/>
+      <c r="AG94" s="15"/>
+      <c r="AH94" s="15"/>
+      <c r="AI94" s="15"/>
+      <c r="AJ94" s="15"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="14"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="14"/>
-      <c r="O95" s="14"/>
-      <c r="P95" s="14"/>
-      <c r="Q95" s="14"/>
-      <c r="R95" s="14"/>
-      <c r="S95" s="14"/>
-      <c r="T95" s="14"/>
-      <c r="U95" s="14"/>
-      <c r="V95" s="14"/>
-      <c r="W95" s="14"/>
-      <c r="X95" s="14"/>
-      <c r="Y95" s="14"/>
-      <c r="Z95" s="14"/>
-      <c r="AA95" s="14"/>
-      <c r="AB95" s="14"/>
-      <c r="AC95" s="14"/>
-      <c r="AD95" s="14"/>
-      <c r="AE95" s="14"/>
-      <c r="AF95" s="14"/>
-      <c r="AG95" s="14"/>
-      <c r="AH95" s="14"/>
-      <c r="AI95" s="14"/>
-      <c r="AJ95" s="14"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="15"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="15"/>
+      <c r="S95" s="15"/>
+      <c r="T95" s="15"/>
+      <c r="U95" s="15"/>
+      <c r="V95" s="15"/>
+      <c r="W95" s="15"/>
+      <c r="X95" s="15"/>
+      <c r="Y95" s="15"/>
+      <c r="Z95" s="15"/>
+      <c r="AA95" s="15"/>
+      <c r="AB95" s="15"/>
+      <c r="AC95" s="15"/>
+      <c r="AD95" s="15"/>
+      <c r="AE95" s="15"/>
+      <c r="AF95" s="15"/>
+      <c r="AG95" s="15"/>
+      <c r="AH95" s="15"/>
+      <c r="AI95" s="15"/>
+      <c r="AJ95" s="15"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14"/>
-      <c r="N96" s="14"/>
-      <c r="O96" s="14"/>
-      <c r="P96" s="14"/>
-      <c r="Q96" s="14"/>
-      <c r="R96" s="14"/>
-      <c r="S96" s="14"/>
-      <c r="T96" s="14"/>
-      <c r="U96" s="14"/>
-      <c r="V96" s="14"/>
-      <c r="W96" s="14"/>
-      <c r="X96" s="14"/>
-      <c r="Y96" s="14"/>
-      <c r="Z96" s="14"/>
-      <c r="AA96" s="14"/>
-      <c r="AB96" s="14"/>
-      <c r="AC96" s="14"/>
-      <c r="AD96" s="14"/>
-      <c r="AE96" s="14"/>
-      <c r="AF96" s="14"/>
-      <c r="AG96" s="14"/>
-      <c r="AH96" s="14"/>
-      <c r="AI96" s="14"/>
-      <c r="AJ96" s="14"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="15"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="15"/>
+      <c r="S96" s="15"/>
+      <c r="T96" s="15"/>
+      <c r="U96" s="15"/>
+      <c r="V96" s="15"/>
+      <c r="W96" s="15"/>
+      <c r="X96" s="15"/>
+      <c r="Y96" s="15"/>
+      <c r="Z96" s="15"/>
+      <c r="AA96" s="15"/>
+      <c r="AB96" s="15"/>
+      <c r="AC96" s="15"/>
+      <c r="AD96" s="15"/>
+      <c r="AE96" s="15"/>
+      <c r="AF96" s="15"/>
+      <c r="AG96" s="15"/>
+      <c r="AH96" s="15"/>
+      <c r="AI96" s="15"/>
+      <c r="AJ96" s="15"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
-      <c r="N97" s="14"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14"/>
-      <c r="R97" s="14"/>
-      <c r="S97" s="14"/>
-      <c r="T97" s="14"/>
-      <c r="U97" s="14"/>
-      <c r="V97" s="14"/>
-      <c r="W97" s="14"/>
-      <c r="X97" s="14"/>
-      <c r="Y97" s="14"/>
-      <c r="Z97" s="14"/>
-      <c r="AA97" s="14"/>
-      <c r="AB97" s="14"/>
-      <c r="AC97" s="14"/>
-      <c r="AD97" s="14"/>
-      <c r="AE97" s="14"/>
-      <c r="AF97" s="14"/>
-      <c r="AG97" s="14"/>
-      <c r="AH97" s="14"/>
-      <c r="AI97" s="14"/>
-      <c r="AJ97" s="14"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="15"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="15"/>
+      <c r="S97" s="15"/>
+      <c r="T97" s="15"/>
+      <c r="U97" s="15"/>
+      <c r="V97" s="15"/>
+      <c r="W97" s="15"/>
+      <c r="X97" s="15"/>
+      <c r="Y97" s="15"/>
+      <c r="Z97" s="15"/>
+      <c r="AA97" s="15"/>
+      <c r="AB97" s="15"/>
+      <c r="AC97" s="15"/>
+      <c r="AD97" s="15"/>
+      <c r="AE97" s="15"/>
+      <c r="AF97" s="15"/>
+      <c r="AG97" s="15"/>
+      <c r="AH97" s="15"/>
+      <c r="AI97" s="15"/>
+      <c r="AJ97" s="15"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
-      <c r="N98" s="14"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="14"/>
-      <c r="Q98" s="14"/>
-      <c r="R98" s="14"/>
-      <c r="S98" s="14"/>
-      <c r="T98" s="14"/>
-      <c r="U98" s="14"/>
-      <c r="V98" s="14"/>
-      <c r="W98" s="14"/>
-      <c r="X98" s="14"/>
-      <c r="Y98" s="14"/>
-      <c r="Z98" s="14"/>
-      <c r="AA98" s="14"/>
-      <c r="AB98" s="14"/>
-      <c r="AC98" s="14"/>
-      <c r="AD98" s="14"/>
-      <c r="AE98" s="14"/>
-      <c r="AF98" s="14"/>
-      <c r="AG98" s="14"/>
-      <c r="AH98" s="14"/>
-      <c r="AI98" s="14"/>
-      <c r="AJ98" s="14"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="15"/>
+      <c r="S98" s="15"/>
+      <c r="T98" s="15"/>
+      <c r="U98" s="15"/>
+      <c r="V98" s="15"/>
+      <c r="W98" s="15"/>
+      <c r="X98" s="15"/>
+      <c r="Y98" s="15"/>
+      <c r="Z98" s="15"/>
+      <c r="AA98" s="15"/>
+      <c r="AB98" s="15"/>
+      <c r="AC98" s="15"/>
+      <c r="AD98" s="15"/>
+      <c r="AE98" s="15"/>
+      <c r="AF98" s="15"/>
+      <c r="AG98" s="15"/>
+      <c r="AH98" s="15"/>
+      <c r="AI98" s="15"/>
+      <c r="AJ98" s="15"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="14"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="14"/>
-      <c r="Q99" s="14"/>
-      <c r="R99" s="14"/>
-      <c r="S99" s="14"/>
-      <c r="T99" s="14"/>
-      <c r="U99" s="14"/>
-      <c r="V99" s="14"/>
-      <c r="W99" s="14"/>
-      <c r="X99" s="14"/>
-      <c r="Y99" s="14"/>
-      <c r="Z99" s="14"/>
-      <c r="AA99" s="14"/>
-      <c r="AB99" s="14"/>
-      <c r="AC99" s="14"/>
-      <c r="AD99" s="14"/>
-      <c r="AE99" s="14"/>
-      <c r="AF99" s="14"/>
-      <c r="AG99" s="14"/>
-      <c r="AH99" s="14"/>
-      <c r="AI99" s="14"/>
-      <c r="AJ99" s="14"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="15"/>
+      <c r="S99" s="15"/>
+      <c r="T99" s="15"/>
+      <c r="U99" s="15"/>
+      <c r="V99" s="15"/>
+      <c r="W99" s="15"/>
+      <c r="X99" s="15"/>
+      <c r="Y99" s="15"/>
+      <c r="Z99" s="15"/>
+      <c r="AA99" s="15"/>
+      <c r="AB99" s="15"/>
+      <c r="AC99" s="15"/>
+      <c r="AD99" s="15"/>
+      <c r="AE99" s="15"/>
+      <c r="AF99" s="15"/>
+      <c r="AG99" s="15"/>
+      <c r="AH99" s="15"/>
+      <c r="AI99" s="15"/>
+      <c r="AJ99" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="16">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F48:F52"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G48:G52"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G57:G61"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G67:G71"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -10201,449 +10342,449 @@
   </sheetPr>
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.780612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.9591836734694"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.10204081632653"/>
     <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="87" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
+      <c r="A1" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="89" t="n">
+      <c r="A2" s="101" t="n">
         <v>42303</v>
       </c>
-      <c r="B2" s="88" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
+      <c r="B2" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="89" t="n">
+      <c r="A3" s="101" t="n">
         <v>42304</v>
       </c>
-      <c r="B3" s="88" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="90" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="88"/>
+      <c r="B3" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="89" t="n">
+      <c r="A4" s="101" t="n">
         <v>42305</v>
       </c>
-      <c r="B4" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
+      <c r="B4" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="103"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="92" t="n">
+      <c r="A5" s="104" t="n">
         <v>42324</v>
       </c>
-      <c r="B5" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
+      <c r="B5" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="100" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="100"/>
+      <c r="Z5" s="100"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="92" t="n">
+      <c r="A6" s="104" t="n">
         <v>42325</v>
       </c>
-      <c r="B6" s="88" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
+      <c r="B6" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="100"/>
+      <c r="V6" s="100"/>
+      <c r="W6" s="100"/>
+      <c r="X6" s="100"/>
+      <c r="Y6" s="100"/>
+      <c r="Z6" s="100"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="92" t="n">
+      <c r="A7" s="104" t="n">
         <v>42327</v>
       </c>
-      <c r="B7" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
+      <c r="B7" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="92" t="n">
+      <c r="A8" s="104" t="n">
         <v>42352</v>
       </c>
-      <c r="B8" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
+      <c r="B8" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="100"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="100"/>
+      <c r="X8" s="100"/>
+      <c r="Y8" s="100"/>
+      <c r="Z8" s="100"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="92" t="n">
+      <c r="A9" s="104" t="n">
         <v>42352</v>
       </c>
-      <c r="B9" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
+      <c r="B9" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="100"/>
+      <c r="V9" s="100"/>
+      <c r="W9" s="100"/>
+      <c r="X9" s="100"/>
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="100"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="92" t="n">
+      <c r="A10" s="104" t="n">
         <v>42356</v>
       </c>
-      <c r="B10" s="88" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="88"/>
+      <c r="B10" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="100"/>
+      <c r="X10" s="100"/>
+      <c r="Y10" s="100"/>
+      <c r="Z10" s="100"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="92" t="n">
+      <c r="A11" s="104" t="n">
         <v>42435</v>
       </c>
-      <c r="B11" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
+      <c r="B11" s="100" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="100"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="100"/>
+      <c r="Z11" s="100"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="92" t="n">
+      <c r="A12" s="104" t="n">
         <v>42703</v>
       </c>
-      <c r="B12" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
+      <c r="B12" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="100"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="100"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="88"/>
-      <c r="B13" s="93" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="88"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="100"/>
+      <c r="T13" s="100"/>
+      <c r="U13" s="100"/>
+      <c r="V13" s="100"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="100"/>
+      <c r="Y13" s="100"/>
+      <c r="Z13" s="100"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/absconbest_payroll/absconbest_payroll.xlsx
+++ b/absconbest_payroll/absconbest_payroll.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="169">
   <si>
     <t xml:space="preserve">Activity</t>
   </si>
@@ -135,7 +135,7 @@
     <t xml:space="preserve">Time in hours</t>
   </si>
   <si>
-    <t xml:space="preserve">CLASS LIST</t>
+    <t xml:space="preserve">Philosophy Major, Physics Minor, and Mathematics Major</t>
   </si>
   <si>
     <t xml:space="preserve">Day</t>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t xml:space="preserve">GOVT 110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
   </si>
   <si>
     <t xml:space="preserve">Foundations of Mathematics</t>
@@ -759,7 +756,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1148,10 +1145,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1267,10 +1260,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>939240</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5040</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1283,8 +1276,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11595240" y="0"/>
-          <a:ext cx="878760" cy="225000"/>
+          <a:off x="11376000" y="0"/>
+          <a:ext cx="868320" cy="224280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1312,23 +1305,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.0102040816327"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8010204081633"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="15.5255102040816"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="27.2704081632653"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="2" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="16.1989795918367"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="7.56122448979592"/>
     <col collapsed="false" hidden="false" max="1025" min="23" style="2" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -3373,7 +3366,7 @@
       <c r="M32" s="56"/>
       <c r="N32" s="56" t="n">
         <f aca="true">TODAY()</f>
-        <v>42823</v>
+        <v>42827</v>
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="47" t="s">
@@ -5390,34 +5383,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="1:99"/>
+  <dimension ref="1:98"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.7959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="6.3469387755102"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="12.4183673469388"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="22.2755102040816"/>
     <col collapsed="false" hidden="false" max="15" min="14" style="2" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="16.1989795918367"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="7.56122448979592"/>
     <col collapsed="false" hidden="false" max="1023" min="22" style="2" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.0765306122449"/>
   </cols>
@@ -6675,9 +6668,7 @@
       <c r="AMI19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="86" t="s">
-        <v>85</v>
-      </c>
+      <c r="A20" s="86"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
       <c r="D20" s="65"/>
@@ -6738,7 +6729,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="81"/>
@@ -6749,7 +6740,7 @@
         <v>47</v>
       </c>
       <c r="H21" s="79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I21" s="80" t="n">
         <v>3</v>
@@ -6803,7 +6794,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="81"/>
@@ -6814,7 +6805,7 @@
         <v>47</v>
       </c>
       <c r="H22" s="79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I22" s="80" t="n">
         <v>3</v>
@@ -6868,7 +6859,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="81"/>
@@ -6879,7 +6870,7 @@
         <v>47</v>
       </c>
       <c r="H23" s="79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I23" s="80" t="n">
         <v>3</v>
@@ -6933,7 +6924,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="90"/>
@@ -6944,7 +6935,7 @@
         <v>47</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I24" s="91" t="n">
         <v>4</v>
@@ -6998,7 +6989,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="81"/>
@@ -7009,7 +7000,7 @@
         <v>47</v>
       </c>
       <c r="H25" s="79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I25" s="80" t="n">
         <v>3</v>
@@ -7063,7 +7054,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="83"/>
       <c r="C26" s="83"/>
@@ -7125,7 +7116,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="81"/>
@@ -7136,7 +7127,7 @@
         <v>66</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I27" s="80" t="n">
         <v>3</v>
@@ -7315,7 +7306,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="81"/>
@@ -7326,7 +7317,7 @@
         <v>71</v>
       </c>
       <c r="H30" s="79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I30" s="80" t="n">
         <v>3</v>
@@ -7380,7 +7371,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="81"/>
@@ -7391,7 +7382,7 @@
         <v>71</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I31" s="91" t="n">
         <v>4</v>
@@ -7435,7 +7426,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="92"/>
       <c r="C32" s="93"/>
@@ -7444,7 +7435,7 @@
       <c r="F32" s="78"/>
       <c r="G32" s="1"/>
       <c r="H32" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" s="16" t="n">
         <v>3</v>
@@ -7488,7 +7479,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="93"/>
@@ -7499,7 +7490,7 @@
         <v>71</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I33" s="16" t="n">
         <v>3</v>
@@ -7630,7 +7621,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="93"/>
@@ -7641,7 +7632,7 @@
         <v>81</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36" s="16" t="n">
         <v>3</v>
@@ -7676,7 +7667,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="81"/>
@@ -7687,10 +7678,10 @@
         <v>81</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I37" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
@@ -7763,7 +7754,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="81"/>
@@ -7774,7 +7765,7 @@
         <v>47</v>
       </c>
       <c r="H39" s="79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I39" s="80" t="n">
         <v>3</v>
@@ -7809,7 +7800,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="81"/>
@@ -7820,7 +7811,7 @@
         <v>47</v>
       </c>
       <c r="H40" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I40" s="80" t="n">
         <v>4</v>
@@ -7855,7 +7846,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="81"/>
@@ -7866,7 +7857,7 @@
         <v>71</v>
       </c>
       <c r="H41" s="79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I41" s="80" t="n">
         <v>3</v>
@@ -7901,7 +7892,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="93"/>
@@ -7912,7 +7903,7 @@
         <v>47</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I42" s="16" t="n">
         <v>3</v>
@@ -7947,7 +7938,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="81"/>
@@ -7958,7 +7949,7 @@
         <v>47</v>
       </c>
       <c r="H43" s="79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I43" s="80" t="n">
         <v>3</v>
@@ -7993,7 +7984,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B44" s="83"/>
       <c r="C44" s="83"/>
@@ -8036,7 +8027,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="81"/>
@@ -8047,10 +8038,10 @@
         <v>66</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I45" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
@@ -8169,7 +8160,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="81"/>
@@ -8180,7 +8171,7 @@
         <v>71</v>
       </c>
       <c r="H48" s="79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I48" s="80" t="n">
         <v>3</v>
@@ -8215,7 +8206,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" s="0"/>
       <c r="C49" s="81"/>
@@ -8226,7 +8217,7 @@
         <v>71</v>
       </c>
       <c r="H49" s="79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I49" s="80" t="n">
         <v>3</v>
@@ -8261,7 +8252,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B50" s="0"/>
       <c r="C50" s="81"/>
@@ -8272,7 +8263,7 @@
         <v>71</v>
       </c>
       <c r="H50" s="79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I50" s="80" t="n">
         <v>3</v>
@@ -8307,7 +8298,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" s="0"/>
       <c r="C51" s="81"/>
@@ -8318,7 +8309,7 @@
         <v>71</v>
       </c>
       <c r="H51" s="79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I51" s="80" t="n">
         <v>3</v>
@@ -8440,7 +8431,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B54" s="0"/>
       <c r="C54" s="81"/>
@@ -8451,10 +8442,10 @@
         <v>81</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I54" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
@@ -8486,7 +8477,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" s="0"/>
       <c r="C55" s="81"/>
@@ -8497,10 +8488,10 @@
         <v>81</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I55" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
@@ -8535,7 +8526,7 @@
       <c r="B56" s="67"/>
       <c r="C56" s="67"/>
       <c r="D56" s="65"/>
-      <c r="E56" s="94"/>
+      <c r="E56" s="65"/>
       <c r="F56" s="87"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
@@ -8573,7 +8564,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B57" s="0"/>
       <c r="C57" s="81"/>
@@ -8584,7 +8575,7 @@
         <v>47</v>
       </c>
       <c r="H57" s="79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I57" s="80" t="n">
         <v>3</v>
@@ -8619,7 +8610,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="81"/>
@@ -8630,7 +8621,7 @@
         <v>47</v>
       </c>
       <c r="H58" s="79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I58" s="80" t="n">
         <v>3</v>
@@ -8665,7 +8656,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="93"/>
@@ -8676,7 +8667,7 @@
         <v>71</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I59" s="16" t="n">
         <v>3</v>
@@ -8711,7 +8702,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B60" s="94"/>
       <c r="C60" s="95"/>
@@ -8720,7 +8711,7 @@
       <c r="F60" s="96"/>
       <c r="G60" s="1"/>
       <c r="H60" s="79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I60" s="80" t="n">
         <v>3</v>
@@ -8755,7 +8746,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B61" s="94"/>
       <c r="C61" s="95"/>
@@ -8764,7 +8755,7 @@
       <c r="F61" s="96"/>
       <c r="G61" s="1"/>
       <c r="H61" s="79" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I61" s="16" t="n">
         <v>3</v>
@@ -8799,7 +8790,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="83" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B62" s="83"/>
       <c r="C62" s="83"/>
@@ -8841,15 +8832,23 @@
       <c r="AJ62" s="15"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="67"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="97"/>
+      <c r="A63" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="0"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="94"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I63" s="80" t="s">
+        <v>107</v>
+      </c>
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
@@ -8880,7 +8879,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="77" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B64" s="0"/>
       <c r="C64" s="81"/>
@@ -8891,10 +8890,10 @@
         <v>66</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I64" s="80" t="s">
-        <v>108</v>
+        <v>69</v>
+      </c>
+      <c r="I64" s="80" t="n">
+        <v>1</v>
       </c>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
@@ -8925,21 +8924,16 @@
       <c r="AJ64" s="15"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="0"/>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="94"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I65" s="80" t="n">
+      <c r="A65" s="86"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="87"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="85" t="n">
+        <f aca="false">SUM(I63:I64)</f>
         <v>1</v>
       </c>
       <c r="J65" s="15"/>
@@ -8971,17 +8965,22 @@
       <c r="AJ65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="86"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="85" t="n">
-        <f aca="false">SUM(I64:I65)</f>
-        <v>1</v>
+      <c r="A66" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="0"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="94"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="I66" s="80" t="n">
+        <v>3</v>
       </c>
       <c r="J66" s="15"/>
       <c r="K66" s="15"/>
@@ -9013,21 +9012,19 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="B67" s="0"/>
-      <c r="C67" s="81"/>
-      <c r="D67" s="81"/>
+        <v>141</v>
+      </c>
+      <c r="B67" s="94"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
       <c r="E67" s="94"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="F67" s="96"/>
+      <c r="G67" s="1"/>
       <c r="H67" s="79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I67" s="80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J67" s="15"/>
       <c r="K67" s="15"/>
@@ -9059,19 +9056,21 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68" s="94"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="95"/>
+        <v>143</v>
+      </c>
+      <c r="B68" s="0"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
       <c r="E68" s="94"/>
-      <c r="F68" s="96"/>
-      <c r="G68" s="1"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="H68" s="79" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I68" s="80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
@@ -9103,21 +9102,21 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="77" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B69" s="0"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="93"/>
       <c r="E69" s="94"/>
-      <c r="F69" s="82"/>
+      <c r="F69" s="78"/>
       <c r="G69" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="H69" s="79" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I69" s="80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
@@ -9149,18 +9148,18 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="77" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="B70" s="0"/>
-      <c r="C70" s="93"/>
-      <c r="D70" s="93"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
       <c r="E70" s="94"/>
-      <c r="F70" s="78"/>
+      <c r="F70" s="82"/>
       <c r="G70" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="H70" s="79" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="I70" s="80" t="n">
         <v>1</v>
@@ -9194,22 +9193,17 @@
       <c r="AJ70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71" s="0"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="81"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H71" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="I71" s="80" t="n">
-        <v>1</v>
+      <c r="A71" s="86"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="88"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="85" t="n">
+        <f aca="false">SUM(I66:I70)</f>
+        <v>12</v>
       </c>
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
@@ -9240,18 +9234,15 @@
       <c r="AJ71" s="15"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="86"/>
-      <c r="B72" s="86"/>
-      <c r="C72" s="86"/>
-      <c r="D72" s="88"/>
-      <c r="E72" s="83"/>
-      <c r="F72" s="98"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="85" t="n">
-        <f aca="false">SUM(I67:I71)</f>
-        <v>12</v>
-      </c>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
@@ -10268,44 +10259,6 @@
       <c r="AI98" s="15"/>
       <c r="AJ98" s="15"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="15"/>
-      <c r="O99" s="15"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="15"/>
-      <c r="R99" s="15"/>
-      <c r="S99" s="15"/>
-      <c r="T99" s="15"/>
-      <c r="U99" s="15"/>
-      <c r="V99" s="15"/>
-      <c r="W99" s="15"/>
-      <c r="X99" s="15"/>
-      <c r="Y99" s="15"/>
-      <c r="Z99" s="15"/>
-      <c r="AA99" s="15"/>
-      <c r="AB99" s="15"/>
-      <c r="AC99" s="15"/>
-      <c r="AD99" s="15"/>
-      <c r="AE99" s="15"/>
-      <c r="AF99" s="15"/>
-      <c r="AG99" s="15"/>
-      <c r="AH99" s="15"/>
-      <c r="AI99" s="15"/>
-      <c r="AJ99" s="15"/>
-    </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A1:H1"/>
@@ -10322,8 +10275,8 @@
     <mergeCell ref="G48:G52"/>
     <mergeCell ref="G54:G55"/>
     <mergeCell ref="G57:G61"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G67:G71"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G66:G70"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -10348,443 +10301,442 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.6122448979592"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="C1" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="100" t="n">
+        <v>42303</v>
+      </c>
+      <c r="B2" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="101" t="n">
-        <v>42303</v>
-      </c>
-      <c r="B2" s="100" t="s">
+      <c r="C2" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="100" t="n">
+        <v>42304</v>
+      </c>
+      <c r="B3" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="101" t="n">
-        <v>42304</v>
-      </c>
-      <c r="B3" s="100" t="s">
+      <c r="C3" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="100" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="101" t="n">
-        <v>42305</v>
-      </c>
-      <c r="B4" s="100" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="103" t="n">
+        <v>42324</v>
+      </c>
+      <c r="B5" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="104" t="n">
-        <v>42324</v>
-      </c>
-      <c r="B5" s="100" t="s">
+      <c r="C5" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="99"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="103" t="n">
+        <v>42325</v>
+      </c>
+      <c r="B6" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="104" t="n">
-        <v>42325</v>
-      </c>
-      <c r="B6" s="100" t="s">
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="99"/>
+      <c r="Y6" s="99"/>
+      <c r="Z6" s="99"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="103" t="n">
+        <v>42327</v>
+      </c>
+      <c r="B7" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="104" t="n">
-        <v>42327</v>
-      </c>
-      <c r="B7" s="100" t="s">
+      <c r="C7" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="99"/>
+      <c r="X7" s="99"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="99"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="103" t="n">
+        <v>42352</v>
+      </c>
+      <c r="B8" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="104" t="n">
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="99"/>
+      <c r="X8" s="99"/>
+      <c r="Y8" s="99"/>
+      <c r="Z8" s="99"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="103" t="n">
         <v>42352</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B9" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="100"/>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="100"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="104" t="n">
-        <v>42352</v>
-      </c>
-      <c r="B9" s="100" t="s">
+      <c r="C9" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="103" t="n">
+        <v>42356</v>
+      </c>
+      <c r="B10" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="100"/>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="100"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="104" t="n">
-        <v>42356</v>
-      </c>
-      <c r="B10" s="100" t="s">
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="99"/>
+      <c r="Y10" s="99"/>
+      <c r="Z10" s="99"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="103" t="n">
+        <v>42435</v>
+      </c>
+      <c r="B11" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="100"/>
-      <c r="Z10" s="100"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="104" t="n">
-        <v>42435</v>
-      </c>
-      <c r="B11" s="100" t="s">
+      <c r="C11" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="99"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="103" t="n">
+        <v>42703</v>
+      </c>
+      <c r="B12" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="100"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="100"/>
-      <c r="Z11" s="100"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="104" t="n">
-        <v>42703</v>
-      </c>
-      <c r="B12" s="100" t="s">
+      <c r="C12" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="100" t="s">
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="99"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="99"/>
+      <c r="B13" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="100"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="100"/>
-      <c r="B13" s="105" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="100"/>
-      <c r="U13" s="100"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="100"/>
-      <c r="Y13" s="100"/>
-      <c r="Z13" s="100"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="99"/>
     </row>
   </sheetData>
   <hyperlinks>
